--- a/tables/monthly_tables/detrended_covar/pc_timeseries.xlsx
+++ b/tables/monthly_tables/detrended_covar/pc_timeseries.xlsx
@@ -410,464 +410,464 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>1.217975781634327</v>
+        <v>-1.476737590684252</v>
       </c>
       <c r="B2">
-        <v>1.616453353728264</v>
+        <v>0.0405481481383947</v>
       </c>
       <c r="C2">
-        <v>-0.5212264260066047</v>
+        <v>-1.286522276062608</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>1.227106618747355</v>
+        <v>-1.242361784654254</v>
       </c>
       <c r="B3">
-        <v>-0.8087568375906106</v>
+        <v>-0.01795110278995953</v>
       </c>
       <c r="C3">
-        <v>-0.2401121900041692</v>
+        <v>-0.5913948561737028</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>-1.106269475999287</v>
+        <v>1.186202576302203</v>
       </c>
       <c r="B4">
-        <v>-0.9365536716903288</v>
+        <v>1.509600774653263</v>
       </c>
       <c r="C4">
-        <v>1.988361443146186</v>
+        <v>1.250209211755711</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>1.267083949506571</v>
+        <v>-1.361231273140449</v>
       </c>
       <c r="B5">
-        <v>1.177386673254838</v>
+        <v>0.631939502433863</v>
       </c>
       <c r="C5">
-        <v>0.2293259852729441</v>
+        <v>-0.9091261263403876</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>-1.18575512910909</v>
+        <v>1.169010054855945</v>
       </c>
       <c r="B6">
-        <v>0.4770029919061571</v>
+        <v>-0.8957105486878738</v>
       </c>
       <c r="C6">
-        <v>-1.087443781500745</v>
+        <v>-0.3616136743655165</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>-0.0606798012121794</v>
+        <v>0.1526605653867008</v>
       </c>
       <c r="B7">
-        <v>0.7839373362336255</v>
+        <v>0.4075213797729598</v>
       </c>
       <c r="C7">
-        <v>0.2472341077437516</v>
+        <v>0.9863658122312896</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>1.392084890467822</v>
+        <v>-1.456129224721284</v>
       </c>
       <c r="B8">
-        <v>0.7078897942896071</v>
+        <v>0.6094190282313532</v>
       </c>
       <c r="C8">
-        <v>0.1723453663399081</v>
+        <v>-1.693965204948385</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>0.5497181329958014</v>
+        <v>-0.549540610959628</v>
       </c>
       <c r="B9">
-        <v>-1.781908692933622</v>
+        <v>-1.292320330845343</v>
       </c>
       <c r="C9">
-        <v>-0.5565234469769316</v>
+        <v>1.29885628912692</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>1.344853718648503</v>
+        <v>-1.334627610948055</v>
       </c>
       <c r="B10">
-        <v>-1.077529484907987</v>
+        <v>-0.3849189207484812</v>
       </c>
       <c r="C10">
-        <v>-0.0008169740717641612</v>
+        <v>0.9087112971180424</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>-1.168188119151108</v>
+        <v>1.146188303557897</v>
       </c>
       <c r="B11">
-        <v>1.166298679880454</v>
+        <v>-0.1444064908161439</v>
       </c>
       <c r="C11">
-        <v>-0.6095899038842589</v>
+        <v>-0.8720579984173035</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>-1.783993055909655</v>
+        <v>1.73872020933861</v>
       </c>
       <c r="B12">
-        <v>0.1991103383455016</v>
+        <v>-0.9865706837264993</v>
       </c>
       <c r="C12">
-        <v>-1.194606966137118</v>
+        <v>-0.7399296665959223</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>-1.249090511211395</v>
+        <v>1.266418232880457</v>
       </c>
       <c r="B13">
-        <v>0.3811755160457027</v>
+        <v>-0.5916931239476455</v>
       </c>
       <c r="C13">
-        <v>-0.8498292303741053</v>
+        <v>-0.4990182905590459</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>-1.250791049229889</v>
+        <v>1.329022851505155</v>
       </c>
       <c r="B14">
-        <v>-1.205881185930004</v>
+        <v>0.7298179665479997</v>
       </c>
       <c r="C14">
-        <v>1.163610002883044</v>
+        <v>-0.1877524819339608</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>-0.6337843385395507</v>
+        <v>0.5812455278840524</v>
       </c>
       <c r="B15">
-        <v>-1.170190685495388</v>
+        <v>-0.1902616943603049</v>
       </c>
       <c r="C15">
-        <v>-0.06607336976040948</v>
+        <v>-0.3644147065528954</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>-1.106767066337111</v>
+        <v>1.099850279780919</v>
       </c>
       <c r="B16">
-        <v>0.8885984069955241</v>
+        <v>-0.5381992621660433</v>
       </c>
       <c r="C16">
-        <v>-0.8845069441036432</v>
+        <v>-0.6606397987202797</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>-0.6038894753482499</v>
+        <v>0.733953774567949</v>
       </c>
       <c r="B17">
-        <v>0.1996281150971064</v>
+        <v>1.207386208269671</v>
       </c>
       <c r="C17">
-        <v>1.566370898466296</v>
+        <v>1.049048495967852</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>0.3218050568026169</v>
+        <v>-0.1500259633817592</v>
       </c>
       <c r="B18">
-        <v>0.128072972653534</v>
+        <v>-1.562078920540477</v>
       </c>
       <c r="C18">
-        <v>-1.663826796143478</v>
+        <v>0.6993283753712141</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>0.5499289458441907</v>
+        <v>-0.3545801538047124</v>
       </c>
       <c r="B19">
-        <v>0.1420102882315332</v>
+        <v>-0.1442287400677662</v>
       </c>
       <c r="C19">
-        <v>0.2280425119421988</v>
+        <v>1.912590481414882</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>1.243357750037801</v>
+        <v>-1.211409082587112</v>
       </c>
       <c r="B20">
-        <v>-1.38011638631527</v>
+        <v>0.1738230202934877</v>
       </c>
       <c r="C20">
-        <v>0.5783553587150636</v>
+        <v>1.098964007357876</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>-1.219749394916883</v>
+        <v>1.119197027229504</v>
       </c>
       <c r="B21">
-        <v>-1.291285281648537</v>
+        <v>-0.6701942410159794</v>
       </c>
       <c r="C21">
-        <v>-0.3683231873791545</v>
+        <v>-0.298084297626679</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>-0.599773490941085</v>
+        <v>0.7774139405041181</v>
       </c>
       <c r="B22">
-        <v>-0.2681832197205888</v>
+        <v>-0.6743674962977975</v>
       </c>
       <c r="C22">
-        <v>-0.3089491940072079</v>
+        <v>1.902126474809481</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>0.4482073449342088</v>
+        <v>-0.3468580639737691</v>
       </c>
       <c r="B23">
-        <v>0.5626007435700018</v>
+        <v>-0.1855805076232331</v>
       </c>
       <c r="C23">
-        <v>-0.2081658611064043</v>
+        <v>0.9411153010532423</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>-0.1831031787070019</v>
+        <v>0.3226590325726201</v>
       </c>
       <c r="B24">
-        <v>0.6540102542600174</v>
+        <v>1.720296536716089</v>
       </c>
       <c r="C24">
-        <v>1.776051849335881</v>
+        <v>0.8930424868995335</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>0.07705853085882139</v>
+        <v>-0.269561915028915</v>
       </c>
       <c r="B25">
-        <v>-1.261216550405311</v>
+        <v>-1.875476714519983</v>
       </c>
       <c r="C25">
-        <v>-1.443829438028115</v>
+        <v>-0.2347446008130622</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>0.5918039917339422</v>
+        <v>-0.6914399695432624</v>
       </c>
       <c r="B26">
-        <v>-0.281343946086178</v>
+        <v>0.7984884262870948</v>
       </c>
       <c r="C26">
-        <v>0.8119234501751936</v>
+        <v>-0.9864649272407863</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>0.7222766798030015</v>
+        <v>-0.6495299412199862</v>
       </c>
       <c r="B27">
-        <v>-1.090893551997025</v>
+        <v>-0.9749426032362088</v>
       </c>
       <c r="C27">
-        <v>-0.6754466531381491</v>
+        <v>1.229868323171357</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>-0.8305440933596349</v>
+        <v>0.8366160381566256</v>
       </c>
       <c r="B28">
-        <v>0.7058714359151179</v>
+        <v>1.327872028298372</v>
       </c>
       <c r="C28">
-        <v>1.210116246476207</v>
+        <v>-0.1472519731407436</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>0.2798543529412937</v>
+        <v>-0.2642775955948393</v>
       </c>
       <c r="B29">
-        <v>0.8301751995308855</v>
+        <v>-0.7843385596231843</v>
       </c>
       <c r="C29">
-        <v>-1.336161404845269</v>
+        <v>-2.034168603005036</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>-1.147789086574905</v>
+        <v>1.144908764500385</v>
       </c>
       <c r="B30">
-        <v>0.8515502200359212</v>
+        <v>1.33883175758812</v>
       </c>
       <c r="C30">
-        <v>1.096472062680068</v>
+        <v>-0.356801040547042</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>-1.521692119918378</v>
+        <v>1.076085728091101</v>
       </c>
       <c r="B31">
-        <v>0.8254429403144127</v>
+        <v>-0.1991923157352805</v>
       </c>
       <c r="C31">
-        <v>-0.770897530764605</v>
+        <v>-2.397809491278903</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>1.035497656166347</v>
+        <v>-1.157721734416035</v>
       </c>
       <c r="B32">
-        <v>-1.033943651525824</v>
+        <v>0.2166016874575412</v>
       </c>
       <c r="C32">
-        <v>0.2907998014694967</v>
+        <v>-0.752301419395211</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>1.597429817624417</v>
+        <v>-1.56393255892989</v>
       </c>
       <c r="B33">
-        <v>1.16718269302883</v>
+        <v>1.277010875736301</v>
       </c>
       <c r="C33">
-        <v>0.9159467218913468</v>
+        <v>0.1136576528783934</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>0.5203032182483234</v>
+        <v>-0.485994314275967</v>
       </c>
       <c r="B34">
-        <v>1.401370571670034</v>
+        <v>1.411694879553017</v>
       </c>
       <c r="C34">
-        <v>1.038377043683665</v>
+        <v>0.424714510026508</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>-0.5454650613854748</v>
+        <v>0.6061473168357245</v>
       </c>
       <c r="B35">
-        <v>0.3959668540644612</v>
+        <v>-1.542074697890401</v>
       </c>
       <c r="C35">
-        <v>-1.679606424045507</v>
+        <v>-0.7311146502868817</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>1.577724397765453</v>
+        <v>-1.481662132895299</v>
       </c>
       <c r="B36">
-        <v>-0.3510655204379576</v>
+        <v>0.6287780346689071</v>
       </c>
       <c r="C36">
-        <v>0.5719575770555454</v>
+        <v>-0.6897512025189594</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>0.02676987203460241</v>
+        <v>-0.1535168483035659</v>
       </c>
       <c r="B37">
-        <v>-1.276580709585518</v>
+        <v>0.6633049050270613</v>
       </c>
       <c r="C37">
-        <v>1.132206517093969</v>
+        <v>-0.3802644755417861</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>0.2396660984610759</v>
+        <v>-0.4452674920289469</v>
       </c>
       <c r="B38">
-        <v>-1.402009529665134</v>
+        <v>-0.5100437235183525</v>
       </c>
       <c r="C38">
-        <v>0.3700301388884963</v>
+        <v>1.053254711408348</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>0.6483359130685228</v>
+        <v>-0.5322394151295367</v>
       </c>
       <c r="B39">
-        <v>1.419683243206127</v>
+        <v>0.8860028305167926</v>
       </c>
       <c r="C39">
-        <v>0.3661278619434721</v>
+        <v>0.552910776741979</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>1.142543105612273</v>
+        <v>-1.116169968455784</v>
       </c>
       <c r="B40">
-        <v>0.8810301170657896</v>
+        <v>-1.413825537118188</v>
       </c>
       <c r="C40">
-        <v>-1.669221205097537</v>
+        <v>-0.1648624168864185</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>-0.3981475661041604</v>
+        <v>0.5615757410691178</v>
       </c>
       <c r="B41">
-        <v>1.362929344792449</v>
+        <v>1.641797219814539</v>
       </c>
       <c r="C41">
-        <v>1.188836521434274</v>
+        <v>-0.4012102971562526</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>0.3132891198112971</v>
+        <v>-0.2821449429140631</v>
       </c>
       <c r="B42">
-        <v>-1.409165805584337</v>
+        <v>-2.009483792265689</v>
       </c>
       <c r="C42">
-        <v>-1.60948397958119</v>
+        <v>0.6940940174975974</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>-1.739202929793528</v>
+        <v>1.729084222572278</v>
       </c>
       <c r="B43">
-        <v>-0.8987533725962744</v>
+        <v>0.3671247975360081</v>
       </c>
       <c r="C43">
-        <v>0.8021494403193596</v>
+        <v>0.7324062512775414</v>
       </c>
     </row>
   </sheetData>
@@ -896,464 +896,464 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>0.01389937092860423</v>
+        <v>0.1205897824236129</v>
       </c>
       <c r="B2">
-        <v>1.479024241620522</v>
+        <v>0.2386284666074142</v>
       </c>
       <c r="C2">
-        <v>0.9068001409228329</v>
+        <v>1.893420639779824</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>0.2305829757770704</v>
+        <v>0.05267158727366774</v>
       </c>
       <c r="B3">
-        <v>1.26356409498116</v>
+        <v>0.05425670105349095</v>
       </c>
       <c r="C3">
-        <v>0.7828718793798431</v>
+        <v>2.242484340330755</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>-0.2922358517797731</v>
+        <v>0.4728698238662378</v>
       </c>
       <c r="B4">
-        <v>-0.4926354321497259</v>
+        <v>-0.1890250773545158</v>
       </c>
       <c r="C4">
-        <v>-0.6919437498863164</v>
+        <v>-0.2346253889423799</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>-1.476882700108237</v>
+        <v>1.652260690857677</v>
       </c>
       <c r="B5">
-        <v>1.065763405959276</v>
+        <v>-0.5386606169352557</v>
       </c>
       <c r="C5">
-        <v>0.1037857821537057</v>
+        <v>-0.06181901762530725</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>0.6482310149564321</v>
+        <v>-0.8065314018244232</v>
       </c>
       <c r="B6">
-        <v>0.1553200053196736</v>
+        <v>-1.078421861231754</v>
       </c>
       <c r="C6">
-        <v>-1.590688948483408</v>
+        <v>-0.4211924146851856</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>0.09872552514542667</v>
+        <v>0.1285169442977064</v>
       </c>
       <c r="B7">
-        <v>1.946326491897188</v>
+        <v>-0.8242445683248287</v>
       </c>
       <c r="C7">
-        <v>-0.3330172650228558</v>
+        <v>2.071674174242666</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>-1.334262117432545</v>
+        <v>1.441000212434676</v>
       </c>
       <c r="B8">
-        <v>-0.05257976775079575</v>
+        <v>-1.369371059562006</v>
       </c>
       <c r="C8">
-        <v>-1.239931220880501</v>
+        <v>-0.8650199205826173</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>-0.2574547444865926</v>
+        <v>0.009344151031934683</v>
       </c>
       <c r="B9">
-        <v>-2.468950501867885</v>
+        <v>1.057284370068251</v>
       </c>
       <c r="C9">
-        <v>0.07811462209952638</v>
+        <v>-1.817508752482306</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>1.058829804825242</v>
+        <v>-1.062665449202686</v>
       </c>
       <c r="B10">
-        <v>-0.3546583166827039</v>
+        <v>0.6827917017334932</v>
       </c>
       <c r="C10">
-        <v>0.5302014817445664</v>
+        <v>0.3007352985246184</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>1.477271740377521</v>
+        <v>-1.026183751070944</v>
       </c>
       <c r="B11">
-        <v>-0.2829693367807714</v>
+        <v>2.128444354004027</v>
       </c>
       <c r="C11">
-        <v>1.717621738288089</v>
+        <v>0.1818524538106873</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>-0.01597725680673354</v>
+        <v>-0.357332604480234</v>
       </c>
       <c r="B12">
-        <v>0.3194276945756031</v>
+        <v>-1.069831144943195</v>
       </c>
       <c r="C12">
-        <v>-1.083857778961088</v>
+        <v>-0.9159887388000247</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>0.2432478379587429</v>
+        <v>-0.3642230735406266</v>
       </c>
       <c r="B13">
-        <v>-0.7763316863041446</v>
+        <v>1.129343788494779</v>
       </c>
       <c r="C13">
-        <v>0.9785979829477677</v>
+        <v>-1.349900715679226</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>0.6163372727989116</v>
+        <v>-0.5096498629401685</v>
       </c>
       <c r="B14">
-        <v>-0.8124284307569335</v>
+        <v>1.465142746013615</v>
       </c>
       <c r="C14">
-        <v>1.204503249660311</v>
+        <v>0.6637095279761318</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>-0.2226559665966902</v>
+        <v>-0.0427832153158194</v>
       </c>
       <c r="B15">
-        <v>-2.592781456947151</v>
+        <v>1.485485901437469</v>
       </c>
       <c r="C15">
-        <v>0.5187606986716197</v>
+        <v>-1.995204028871799</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>-1.397221133863032</v>
+        <v>1.360363782963062</v>
       </c>
       <c r="B16">
-        <v>0.589806278720738</v>
+        <v>0.255414004945293</v>
       </c>
       <c r="C16">
-        <v>0.9362533065795696</v>
+        <v>-0.1397179032530248</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>1.785024200538271</v>
+        <v>-1.623694131512733</v>
       </c>
       <c r="B17">
-        <v>-0.1214080286243811</v>
+        <v>0.8007321363951373</v>
       </c>
       <c r="C17">
-        <v>0.3878820319238931</v>
+        <v>0.06935625055022909</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>-0.2932964441600567</v>
+        <v>0.2324663188632884</v>
       </c>
       <c r="B18">
-        <v>-0.3822300978481409</v>
+        <v>0.9412387550017259</v>
       </c>
       <c r="C18">
-        <v>0.9318595689787942</v>
+        <v>-1.136719811995079</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>-0.716214526593051</v>
+        <v>0.4799314844123275</v>
       </c>
       <c r="B19">
-        <v>-1.847878189980169</v>
+        <v>0.1672225964883492</v>
       </c>
       <c r="C19">
-        <v>-0.7389863213438079</v>
+        <v>-1.745618475315381</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>0.2184262607018187</v>
+        <v>-0.196672288971524</v>
       </c>
       <c r="B20">
-        <v>-1.020799587258849</v>
+        <v>0.5081023195167809</v>
       </c>
       <c r="C20">
-        <v>0.1834048135483328</v>
+        <v>-0.199328706536588</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>-1.002497304379358</v>
+        <v>0.137051791195651</v>
       </c>
       <c r="B21">
-        <v>-0.8188562607185851</v>
+        <v>-1.852765662663818</v>
       </c>
       <c r="C21">
-        <v>-2.139897561739071</v>
+        <v>-1.410481767553944</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>0.4597098081495147</v>
+        <v>-0.7222280749140472</v>
       </c>
       <c r="B22">
-        <v>0.8041595052621552</v>
+        <v>-1.800750922828696</v>
       </c>
       <c r="C22">
-        <v>-1.641020025633503</v>
+        <v>0.4451897090694151</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>0.8157605171105033</v>
+        <v>-0.9219035668060057</v>
       </c>
       <c r="B23">
-        <v>0.2822488639531417</v>
+        <v>-1.238812975465003</v>
       </c>
       <c r="C23">
-        <v>-1.425484758834834</v>
+        <v>-0.6721553567514118</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>-0.3916094449687696</v>
+        <v>0.2814031642972804</v>
       </c>
       <c r="B24">
-        <v>0.5132451679899104</v>
+        <v>0.01622257762428445</v>
       </c>
       <c r="C24">
-        <v>0.6181922899040525</v>
+        <v>-0.3818628470016994</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>-1.921730399821904</v>
+        <v>1.776949003839138</v>
       </c>
       <c r="B25">
-        <v>0.0773898041271624</v>
+        <v>0.4563492643681315</v>
       </c>
       <c r="C25">
-        <v>0.6414782065799617</v>
+        <v>0.5175015511794764</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>-0.1004730254274533</v>
+        <v>0.4229276889983746</v>
       </c>
       <c r="B26">
-        <v>0.4908539155011125</v>
+        <v>0.5918741613973193</v>
       </c>
       <c r="C26">
-        <v>1.065280078980608</v>
+        <v>1.539196922284163</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>-0.8503632283005406</v>
+        <v>0.9894557994369181</v>
       </c>
       <c r="B27">
-        <v>0.837991933252892</v>
+        <v>0.2324328356176306</v>
       </c>
       <c r="C27">
-        <v>0.9352158789992183</v>
+        <v>0.6452268142291189</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>0.7303762030585013</v>
+        <v>-1.126733698018774</v>
       </c>
       <c r="B28">
-        <v>0.5367214436249272</v>
+        <v>-1.45727707703043</v>
       </c>
       <c r="C28">
-        <v>-1.247533392433554</v>
+        <v>0.3167113681892012</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>-1.222169201677503</v>
+        <v>1.496114341901478</v>
       </c>
       <c r="B29">
-        <v>1.856160711531161</v>
+        <v>-0.305767397670359</v>
       </c>
       <c r="C29">
-        <v>0.8077117077423985</v>
+        <v>1.364513534333507</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>1.87695886018071</v>
+        <v>-2.150385632386759</v>
       </c>
       <c r="B30">
-        <v>-0.07516091771008951</v>
+        <v>-0.6998535451643633</v>
       </c>
       <c r="C30">
-        <v>-1.075480842107556</v>
+        <v>-0.247055923867248</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>0.5609333411647228</v>
+        <v>-0.9104853454707845</v>
       </c>
       <c r="B31">
-        <v>-1.351349499671052</v>
+        <v>-0.980844018244606</v>
       </c>
       <c r="C31">
-        <v>-1.162657762214751</v>
+        <v>-0.9503563035444546</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>-0.09707023416974128</v>
+        <v>0.6382033264855465</v>
       </c>
       <c r="B32">
-        <v>-0.5934104848666794</v>
+        <v>1.406727876670081</v>
       </c>
       <c r="C32">
-        <v>1.551976150527382</v>
+        <v>0.2909632448530599</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>0.8401680664030863</v>
+        <v>-0.9626248658975856</v>
       </c>
       <c r="B33">
-        <v>0.3783663754658086</v>
+        <v>-1.1713924479062</v>
       </c>
       <c r="C33">
-        <v>-1.317251553530521</v>
+        <v>0.3966981950131092</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>1.872634959618001</v>
+        <v>-1.92002649203934</v>
       </c>
       <c r="B34">
-        <v>0.1369954026922856</v>
+        <v>0.09363268805204752</v>
       </c>
       <c r="C34">
-        <v>0.1756450603308814</v>
+        <v>0.3087216268533907</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>1.485383856396078</v>
+        <v>-1.23904431363331</v>
       </c>
       <c r="B35">
-        <v>1.100252550689409</v>
+        <v>-0.2237044586814698</v>
       </c>
       <c r="C35">
-        <v>-0.08365549892375551</v>
+        <v>1.353890083228387</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>-1.649590286976139</v>
+        <v>1.39119810796839</v>
       </c>
       <c r="B36">
-        <v>0.2697295225858672</v>
+        <v>-0.4357224967250682</v>
       </c>
       <c r="C36">
-        <v>-0.2594909507791672</v>
+        <v>0.8712263203801819</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>-1.475038805983562</v>
+        <v>1.507847957413645</v>
       </c>
       <c r="B37">
-        <v>0.2665735758641772</v>
+        <v>-0.9715294531059236</v>
       </c>
       <c r="C37">
-        <v>-0.8866585417102929</v>
+        <v>-0.5567771006428232</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>-1.30826087168292</v>
+        <v>1.183516935479377</v>
       </c>
       <c r="B38">
-        <v>-0.7766763127197504</v>
+        <v>0.2148157851603461</v>
       </c>
       <c r="C38">
-        <v>0.4727690654066514</v>
+        <v>-0.871071605359602</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>0.3296225838334311</v>
+        <v>0.3025017214742775</v>
       </c>
       <c r="B39">
-        <v>1.32519871166292</v>
+        <v>-0.2011792695059036</v>
       </c>
       <c r="C39">
-        <v>0.0352287977098051</v>
+        <v>0.4069305669837306</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>0.3124263291230909</v>
+        <v>-0.3779007711817636</v>
       </c>
       <c r="B40">
-        <v>0.6576731914780619</v>
+        <v>-0.9271956264391849</v>
       </c>
       <c r="C40">
-        <v>-0.5872529421891516</v>
+        <v>-0.1801351177586401</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>1.332037762788578</v>
+        <v>-0.950637238493758</v>
       </c>
       <c r="B41">
-        <v>-0.3468585598804385</v>
+        <v>2.01439064240648</v>
       </c>
       <c r="C41">
-        <v>1.830484798674793</v>
+        <v>0.4599435461083363</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>-0.5083342533382413</v>
+        <v>0.5323782515584711</v>
       </c>
       <c r="B42">
-        <v>-0.6659700950581414</v>
+        <v>0.4562060466455845</v>
       </c>
       <c r="C42">
-        <v>-0.4673413928873437</v>
+        <v>-0.1518700799678745</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>-0.4732504932814143</v>
+        <v>0.6621429092285459</v>
       </c>
       <c r="B43">
-        <v>-0.518859925178766</v>
+        <v>0.9396099600808511</v>
       </c>
       <c r="C43">
-        <v>0.5775111758068745</v>
+        <v>-0.03553619070337473</v>
       </c>
     </row>
   </sheetData>
@@ -1382,464 +1382,464 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>0.08849521412399351</v>
+        <v>0.4409580042703314</v>
       </c>
       <c r="B2">
-        <v>-0.6442345561739142</v>
+        <v>-0.7175522343446301</v>
       </c>
       <c r="C2">
-        <v>0.5291401084495428</v>
+        <v>0.9903022324740146</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>1.10850543952704</v>
+        <v>-1.254005849466811</v>
       </c>
       <c r="B3">
-        <v>0.08638096234352559</v>
+        <v>-0.8375359871856839</v>
       </c>
       <c r="C3">
-        <v>0.9321346653619453</v>
+        <v>-0.3928605115177323</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>-0.6767075263948426</v>
+        <v>0.3329977458052518</v>
       </c>
       <c r="B4">
-        <v>1.234046064949307</v>
+        <v>0.08904477154353978</v>
       </c>
       <c r="C4">
-        <v>0.5886449421762907</v>
+        <v>2.224705727312254</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>-1.516087942683193</v>
+        <v>1.403365841627552</v>
       </c>
       <c r="B5">
-        <v>0.06893117407181917</v>
+        <v>0.7013800033882918</v>
       </c>
       <c r="C5">
-        <v>-0.6357759403138612</v>
+        <v>-0.2237002971114836</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>-0.3305556524850633</v>
+        <v>0.0632174235383475</v>
       </c>
       <c r="B6">
-        <v>0.8990369613997525</v>
+        <v>-0.1131623314307336</v>
       </c>
       <c r="C6">
-        <v>0.6057314075491711</v>
+        <v>1.114207818981062</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>-0.5870420740626692</v>
+        <v>1.329243620426009</v>
       </c>
       <c r="B7">
-        <v>-1.654672821316493</v>
+        <v>0.8518509629036279</v>
       </c>
       <c r="C7">
-        <v>-1.360699779607711</v>
+        <v>-0.4783225978713462</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>-1.419800723915179</v>
+        <v>1.047303608743932</v>
       </c>
       <c r="B8">
-        <v>1.022070402297063</v>
+        <v>-0.03752776584903682</v>
       </c>
       <c r="C8">
-        <v>0.4586690811342632</v>
+        <v>0.3676582267969202</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>-1.659364698140615</v>
+        <v>1.626030784529409</v>
       </c>
       <c r="B9">
-        <v>-0.843081011376242</v>
+        <v>0.2323905282148155</v>
       </c>
       <c r="C9">
-        <v>-0.6252174134224909</v>
+        <v>-1.357032404039086</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>0.6577088350510309</v>
+        <v>-1.046180913171051</v>
       </c>
       <c r="B10">
-        <v>1.785810068022051</v>
+        <v>0.8841819570634804</v>
       </c>
       <c r="C10">
-        <v>-0.1766078671297311</v>
+        <v>1.716442032192687</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>1.151675702626321</v>
+        <v>-1.141435262655244</v>
       </c>
       <c r="B11">
-        <v>-0.2147060307485232</v>
+        <v>0.4604887832776104</v>
       </c>
       <c r="C11">
-        <v>-0.8338136238877525</v>
+        <v>-1.455102405333293</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>0.8631003555605483</v>
+        <v>-0.2009619873624613</v>
       </c>
       <c r="B12">
-        <v>-1.798720774837974</v>
+        <v>-1.003222963438334</v>
       </c>
       <c r="C12">
-        <v>0.07540448992687082</v>
+        <v>-1.116667970045773</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>0.3944593531529774</v>
+        <v>0.3695241785874113</v>
       </c>
       <c r="B13">
-        <v>-1.140302741681292</v>
+        <v>0.7359799704259929</v>
       </c>
       <c r="C13">
-        <v>-0.843645405309568</v>
+        <v>0.2724647732596821</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>-0.351620682597105</v>
+        <v>0.2439803081010375</v>
       </c>
       <c r="B14">
-        <v>-0.407845398438732</v>
+        <v>0.5327185381569253</v>
       </c>
       <c r="C14">
-        <v>-0.964519968469153</v>
+        <v>-1.498559555835604</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>-0.0381876506998565</v>
+        <v>-0.2055928425806478</v>
       </c>
       <c r="B15">
-        <v>0.4084076857234007</v>
+        <v>0.8747655548913479</v>
       </c>
       <c r="C15">
-        <v>-0.9576258519246729</v>
+        <v>-0.5623124245622306</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>-0.3978527504088287</v>
+        <v>-0.01599826010419443</v>
       </c>
       <c r="B16">
-        <v>1.076326126553812</v>
+        <v>0.8430731231638674</v>
       </c>
       <c r="C16">
-        <v>-0.6213873134313832</v>
+        <v>-1.027839316511882</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>0.8436587399567439</v>
+        <v>-0.9199057376085074</v>
       </c>
       <c r="B17">
-        <v>0.3362696777382267</v>
+        <v>0.7493114934145144</v>
       </c>
       <c r="C17">
-        <v>-0.8813409485490116</v>
+        <v>-0.5327149834515413</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>1.340780272998855</v>
+        <v>-1.077595279087652</v>
       </c>
       <c r="B18">
-        <v>-1.417960847015269</v>
+        <v>-1.439803158713544</v>
       </c>
       <c r="C18">
-        <v>0.6194120312610341</v>
+        <v>-1.195026325526665</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>-1.632078832800409</v>
+        <v>1.523878408957677</v>
       </c>
       <c r="B19">
-        <v>-0.4484986133772577</v>
+        <v>-1.223364557527365</v>
       </c>
       <c r="C19">
-        <v>1.192062528412348</v>
+        <v>0.3363778780558583</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>0.2696550426134523</v>
+        <v>-0.5636156480706195</v>
       </c>
       <c r="B20">
-        <v>0.6126880737299022</v>
+        <v>-1.110502352896342</v>
       </c>
       <c r="C20">
-        <v>1.357150393989209</v>
+        <v>0.1008328708765495</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>1.022028467784409</v>
+        <v>-1.362855733978836</v>
       </c>
       <c r="B21">
-        <v>1.045067290030138</v>
+        <v>-0.3811591449914775</v>
       </c>
       <c r="C21">
-        <v>0.6875675825394432</v>
+        <v>0.1951630602497652</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>1.63134128148996</v>
+        <v>-1.869002072763183</v>
       </c>
       <c r="B22">
-        <v>1.25047333205749</v>
+        <v>0.451987173279356</v>
       </c>
       <c r="C22">
-        <v>-0.03636178071746628</v>
+        <v>0.3921070901233583</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>-1.23576906800754</v>
+        <v>1.615751906323535</v>
       </c>
       <c r="B23">
-        <v>-0.8092777187239593</v>
+        <v>0.2802015760150302</v>
       </c>
       <c r="C23">
-        <v>-0.5244657069712885</v>
+        <v>0.06325559266117071</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>1.527309147893166</v>
+        <v>-1.275491290629121</v>
       </c>
       <c r="B24">
-        <v>-0.4682866890817488</v>
+        <v>0.7461847699292878</v>
       </c>
       <c r="C24">
-        <v>-0.8841653728638765</v>
+        <v>-0.454084277277051</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>-0.4342856737523232</v>
+        <v>0.2588338619024093</v>
       </c>
       <c r="B25">
-        <v>-0.06403255287430427</v>
+        <v>-1.188177357794004</v>
       </c>
       <c r="C25">
-        <v>1.285701259431603</v>
+        <v>0.3618517164508204</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>-1.724128908553668</v>
+        <v>1.591518258499369</v>
       </c>
       <c r="B26">
-        <v>-0.01159877763698024</v>
+        <v>0.7728651098603453</v>
       </c>
       <c r="C26">
-        <v>-0.8770743502802518</v>
+        <v>-0.2370342820096986</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>1.276014570426844</v>
+        <v>-1.340172958043921</v>
       </c>
       <c r="B27">
-        <v>0.2881868539210172</v>
+        <v>-1.057736724872</v>
       </c>
       <c r="C27">
-        <v>1.229784803661133</v>
+        <v>0.4600468318205383</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>0.7460256810513094</v>
+        <v>-0.7114522305560849</v>
       </c>
       <c r="B28">
-        <v>0.09390830677255035</v>
+        <v>-1.206832894176838</v>
       </c>
       <c r="C28">
-        <v>1.430415057576996</v>
+        <v>0.7476425397589246</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>1.059727707940203</v>
+        <v>-0.7025878328094121</v>
       </c>
       <c r="B29">
-        <v>-0.893431202818652</v>
+        <v>0.630424926203785</v>
       </c>
       <c r="C29">
-        <v>-0.7366982885462551</v>
+        <v>-0.7693408972745548</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>2.162739696969626</v>
+        <v>-1.875556895189936</v>
       </c>
       <c r="B30">
-        <v>-0.983909701588468</v>
+        <v>-0.1123025340736774</v>
       </c>
       <c r="C30">
-        <v>-0.3726131796752508</v>
+        <v>-1.205203559867147</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>0.4672077153710184</v>
+        <v>-0.4223000680651462</v>
       </c>
       <c r="B31">
-        <v>-0.4372502851474372</v>
+        <v>-2.089622507519624</v>
       </c>
       <c r="C31">
-        <v>2.212565291335056</v>
+        <v>0.6029715342078531</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>-0.2684317511357399</v>
+        <v>0.05793844182720362</v>
       </c>
       <c r="B32">
-        <v>1.478199441714605</v>
+        <v>0.8663264929544783</v>
       </c>
       <c r="C32">
-        <v>-0.1440189484178189</v>
+        <v>2.197807180711294</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>-0.4713457559318428</v>
+        <v>0.2750154055164382</v>
       </c>
       <c r="B33">
-        <v>1.023201527264191</v>
+        <v>-0.3549719053123397</v>
       </c>
       <c r="C33">
-        <v>0.7905750820097366</v>
+        <v>1.429948827407933</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>-0.02251774255262934</v>
+        <v>-0.0987662813716433</v>
       </c>
       <c r="B34">
-        <v>0.6255276213790834</v>
+        <v>1.56718966689952</v>
       </c>
       <c r="C34">
-        <v>-1.521778820429011</v>
+        <v>-0.7312174012095702</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>-0.7986819968524154</v>
+        <v>1.108642477449266</v>
       </c>
       <c r="B35">
-        <v>-0.5105841655423379</v>
+        <v>1.241847507755989</v>
       </c>
       <c r="C35">
-        <v>-1.221363686481098</v>
+        <v>0.8291115449515392</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>-1.09923432439003</v>
+        <v>1.062965919204653</v>
       </c>
       <c r="B36">
-        <v>-0.5780548966197256</v>
+        <v>-1.81774355692682</v>
       </c>
       <c r="C36">
-        <v>1.82599444234907</v>
+        <v>0.2884477478110096</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>-1.023866206155974</v>
+        <v>0.9934521466607543</v>
       </c>
       <c r="B37">
-        <v>-0.5082734607706709</v>
+        <v>-0.2841803348721101</v>
       </c>
       <c r="C37">
-        <v>-0.1110588638196784</v>
+        <v>-1.502348390117168</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>-0.07101168509158702</v>
+        <v>-0.1822918843402527</v>
       </c>
       <c r="B38">
-        <v>1.490953292749718</v>
+        <v>1.816046775738964</v>
       </c>
       <c r="C38">
-        <v>-1.412358261589604</v>
+        <v>0.9132195528971373</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>0.8030281379391948</v>
+        <v>-1.209409956003968</v>
       </c>
       <c r="B39">
-        <v>1.918618222643937</v>
+        <v>1.195365605946569</v>
       </c>
       <c r="C39">
-        <v>-0.5879487900670007</v>
+        <v>1.477593467468623</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>0.06512661727092693</v>
+        <v>0.4092866245020601</v>
       </c>
       <c r="B40">
-        <v>-2.051815802638344</v>
+        <v>-0.5995684527098268</v>
       </c>
       <c r="C40">
-        <v>-0.1044478645464798</v>
+        <v>-0.4919751102085704</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>-0.1150593439677225</v>
+        <v>0.329971155948124</v>
       </c>
       <c r="B41">
-        <v>-1.516032998060694</v>
+        <v>-1.048246501735339</v>
       </c>
       <c r="C41">
-        <v>0.5723869743883798</v>
+        <v>-1.450081271284495</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>-1.312426312624168</v>
+        <v>1.176581671822016</v>
       </c>
       <c r="B42">
-        <v>0.1098797698619342</v>
+        <v>-1.535787361688436</v>
       </c>
       <c r="C42">
-        <v>1.695897096576512</v>
+        <v>0.4826090872298287</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>-0.2925306765442173</v>
+        <v>0.2147211896159049</v>
       </c>
       <c r="B43">
-        <v>0.5485881912454939</v>
+        <v>1.635375337030823</v>
       </c>
       <c r="C43">
-        <v>-1.654249211678191</v>
+        <v>-0.883343352643932</v>
       </c>
     </row>
   </sheetData>
@@ -1868,464 +1868,464 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>0.3200166202984957</v>
+        <v>-0.6888244733742739</v>
       </c>
       <c r="B2">
-        <v>-0.1642510453897504</v>
+        <v>2.094950249043845</v>
       </c>
       <c r="C2">
-        <v>-1.834404573236537</v>
+        <v>0.3398211664035223</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>1.338060155309233</v>
+        <v>-1.349150036381845</v>
       </c>
       <c r="B3">
-        <v>0.1546555354413054</v>
+        <v>0.858731457561542</v>
       </c>
       <c r="C3">
-        <v>-0.8157305453949044</v>
+        <v>0.3494795078765716</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>-1.539789109413656</v>
+        <v>1.279441101209438</v>
       </c>
       <c r="B4">
-        <v>-0.290966408622887</v>
+        <v>0.3236215833868269</v>
       </c>
       <c r="C4">
-        <v>-0.0003494834986539592</v>
+        <v>-0.5923905087032861</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>0.5598120657724062</v>
+        <v>-0.6191886654087086</v>
       </c>
       <c r="B5">
-        <v>-1.124246131001895</v>
+        <v>-0.6124333486462797</v>
       </c>
       <c r="C5">
-        <v>0.8263884492387497</v>
+        <v>-1.57155587110203</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>-1.285987459754863</v>
+        <v>1.390603791849648</v>
       </c>
       <c r="B6">
-        <v>0.3308503296052817</v>
+        <v>-1.398362549707103</v>
       </c>
       <c r="C6">
-        <v>1.652914698379602</v>
+        <v>0.05234279953484312</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>1.073342367775355</v>
+        <v>-0.8634930187057793</v>
       </c>
       <c r="B7">
-        <v>0.5999558395915383</v>
+        <v>-1.093209869344859</v>
       </c>
       <c r="C7">
-        <v>1.05517440068901</v>
+        <v>-1.55127978400686</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>0.362458001918459</v>
+        <v>0.2332059690196311</v>
       </c>
       <c r="B8">
-        <v>1.713958857626689</v>
+        <v>-1.579157926136675</v>
       </c>
       <c r="C8">
-        <v>1.063833504480715</v>
+        <v>0.4769863149195305</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>2.047383883966157</v>
+        <v>-2.055582335816868</v>
       </c>
       <c r="B9">
-        <v>-0.20357236020285</v>
+        <v>0.06696105030481322</v>
       </c>
       <c r="C9">
-        <v>0.0509244543611248</v>
+        <v>-0.5305507122556944</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>-0.8924976192410027</v>
+        <v>0.6572280031803825</v>
       </c>
       <c r="B10">
-        <v>-1.114975472126196</v>
+        <v>0.3605767278574372</v>
       </c>
       <c r="C10">
-        <v>-0.5589542337963935</v>
+        <v>-0.1504533212983979</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>-1.044134520577386</v>
+        <v>0.4293396170811224</v>
       </c>
       <c r="B11">
-        <v>-1.860949374377463</v>
+        <v>1.512486461140076</v>
       </c>
       <c r="C11">
-        <v>-1.11574074392142</v>
+        <v>1.052531227343067</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>0.4193197738050667</v>
+        <v>-0.0931343580644939</v>
       </c>
       <c r="B12">
-        <v>1.302093654273114</v>
+        <v>-0.4523230911956466</v>
       </c>
       <c r="C12">
-        <v>0.1955654745891818</v>
+        <v>1.339959486195578</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>0.6624707742992877</v>
+        <v>-0.2525129105539043</v>
       </c>
       <c r="B13">
-        <v>1.186472840016796</v>
+        <v>-0.05693701237055845</v>
       </c>
       <c r="C13">
-        <v>-0.3371911305315874</v>
+        <v>-1.009733287672455</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>0.3337011478136378</v>
+        <v>-0.3513846303242176</v>
       </c>
       <c r="B14">
-        <v>0.01596306526579433</v>
+        <v>1.290919237082383</v>
       </c>
       <c r="C14">
-        <v>-1.454436663276148</v>
+        <v>0.1797129235753312</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>-0.1869856811791754</v>
+        <v>0.2310009200331247</v>
       </c>
       <c r="B15">
-        <v>-0.6725405293659478</v>
+        <v>-1.938801326219239</v>
       </c>
       <c r="C15">
-        <v>1.944189610885832</v>
+        <v>-0.4448335648728209</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>0.5664600017157162</v>
+        <v>-0.7039560092231731</v>
       </c>
       <c r="B16">
-        <v>-1.194057836778795</v>
+        <v>-0.8106811565786691</v>
       </c>
       <c r="C16">
-        <v>0.4670494310224389</v>
+        <v>1.269689442891276</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>-0.4070847213209629</v>
+        <v>-0.009611636243237357</v>
       </c>
       <c r="B17">
-        <v>-1.489345294789323</v>
+        <v>-1.152226622818989</v>
       </c>
       <c r="C17">
-        <v>1.004629129740707</v>
+        <v>1.402534131084326</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>-0.3186288992421478</v>
+        <v>0.6944873280004601</v>
       </c>
       <c r="B18">
-        <v>1.337974629567581</v>
+        <v>0.687597448619316</v>
       </c>
       <c r="C18">
-        <v>-0.9945794914592133</v>
+        <v>1.424615497392461</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>-0.9923134036118857</v>
+        <v>0.8172052492697083</v>
       </c>
       <c r="B19">
-        <v>0.6871773621619977</v>
+        <v>0.4160685801908289</v>
       </c>
       <c r="C19">
-        <v>0.2591087609109978</v>
+        <v>-0.4643285300333382</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>-0.04757434743633283</v>
+        <v>0.3667765892003579</v>
       </c>
       <c r="B20">
-        <v>0.9004372380001933</v>
+        <v>0.8501626372885691</v>
       </c>
       <c r="C20">
-        <v>-1.188052011034096</v>
+        <v>-0.1370967322199639</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>-1.570647365767577</v>
+        <v>1.433150304668266</v>
       </c>
       <c r="B21">
-        <v>-0.8664770633128152</v>
+        <v>0.4841413323625293</v>
       </c>
       <c r="C21">
-        <v>-0.4409613770984224</v>
+        <v>-0.8526412386388365</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>-0.5970566649806849</v>
+        <v>0.4926793105854946</v>
       </c>
       <c r="B22">
-        <v>-1.362226646944109</v>
+        <v>1.262312362015008</v>
       </c>
       <c r="C22">
-        <v>-0.748008042338231</v>
+        <v>-1.116206065798094</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>0.2819762381587599</v>
+        <v>-0.005277149390061303</v>
       </c>
       <c r="B23">
-        <v>1.301940661299722</v>
+        <v>-1.266233654904301</v>
       </c>
       <c r="C23">
-        <v>1.238311626523747</v>
+        <v>0.711430407851135</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>-0.7886690840232695</v>
+        <v>1.218411471009283</v>
       </c>
       <c r="B24">
-        <v>0.8899053450438731</v>
+        <v>0.5257092309976096</v>
       </c>
       <c r="C24">
-        <v>-0.7901913574861027</v>
+        <v>-0.8558482525108282</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>0.6066989998470845</v>
+        <v>-0.2771585217158442</v>
       </c>
       <c r="B25">
-        <v>0.4873884299069211</v>
+        <v>0.8041851066725254</v>
       </c>
       <c r="C25">
-        <v>-1.669445425931968</v>
+        <v>0.5081221748498507</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>0.5221500073872162</v>
+        <v>-0.6868655085734147</v>
       </c>
       <c r="B26">
-        <v>0.1073769005883318</v>
+        <v>-0.1613024026349753</v>
       </c>
       <c r="C26">
-        <v>0.5512638577935679</v>
+        <v>0.555734887163268</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>0.6184843380713215</v>
+        <v>-1.016561810018879</v>
       </c>
       <c r="B27">
-        <v>-1.573526009578486</v>
+        <v>0.5664438860069605</v>
       </c>
       <c r="C27">
-        <v>-0.8464278193807593</v>
+        <v>1.258183577129425</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>-1.707858346968319</v>
+        <v>1.504048688254829</v>
       </c>
       <c r="B28">
-        <v>-0.3410409834669559</v>
+        <v>0.01998005668121724</v>
       </c>
       <c r="C28">
-        <v>0.4039566286898904</v>
+        <v>-0.01654726608003575</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>2.129256387639469</v>
+        <v>-2.04079812205236</v>
       </c>
       <c r="B29">
-        <v>-0.3578213975348332</v>
+        <v>-0.5844485487817207</v>
       </c>
       <c r="C29">
-        <v>0.506856095502039</v>
+        <v>-0.8581912992469096</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>-0.1072027472205613</v>
+        <v>0.432470554161122</v>
       </c>
       <c r="B30">
-        <v>1.114414301202524</v>
+        <v>-1.222271529121771</v>
       </c>
       <c r="C30">
-        <v>0.9470391260447573</v>
+        <v>0.4601797702155402</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>0.08227348790512752</v>
+        <v>0.02936636622010056</v>
       </c>
       <c r="B31">
-        <v>1.126970248242905</v>
+        <v>-0.9062824925190225</v>
       </c>
       <c r="C31">
-        <v>0.7373445191337616</v>
+        <v>0.8363942544019285</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>-1.309586119298588</v>
+        <v>1.726155821223287</v>
       </c>
       <c r="B32">
-        <v>0.573497470523838</v>
+        <v>-0.5073505672017197</v>
       </c>
       <c r="C32">
-        <v>1.266876809133664</v>
+        <v>-1.262256462481101</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>-1.897489975770041</v>
+        <v>1.746578650644136</v>
       </c>
       <c r="B33">
-        <v>0.3936293304130375</v>
+        <v>0.4104848894187354</v>
       </c>
       <c r="C33">
-        <v>-0.05288229675386487</v>
+        <v>-1.524696261662462</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>0.9359332134226577</v>
+        <v>-1.28895233607635</v>
       </c>
       <c r="B34">
-        <v>-1.881768182148271</v>
+        <v>0.4013632196448162</v>
       </c>
       <c r="C34">
-        <v>-0.1055045193413504</v>
+        <v>-0.1516114067571159</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>-0.2549951322559436</v>
+        <v>0.8890521766255989</v>
       </c>
       <c r="B35">
-        <v>1.444757972604442</v>
+        <v>-0.3439183985915197</v>
       </c>
       <c r="C35">
-        <v>-0.2450453448611391</v>
+        <v>-1.320268427366794</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>0.01097581339698106</v>
+        <v>0.1144877697315968</v>
       </c>
       <c r="B36">
-        <v>0.9341906074702667</v>
+        <v>-1.128056373672358</v>
       </c>
       <c r="C36">
-        <v>0.6249899077982207</v>
+        <v>2.16179768573729</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>0.003124629523747108</v>
+        <v>-0.2598003763384725</v>
       </c>
       <c r="B37">
-        <v>0.0451431320600443</v>
+        <v>1.847567578456786</v>
       </c>
       <c r="C37">
-        <v>-1.620660982598314</v>
+        <v>-0.2363139591683742</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>1.098967143886694</v>
+        <v>-1.258681318836397</v>
       </c>
       <c r="B38">
-        <v>-1.566607151669616</v>
+        <v>-1.423533922050715</v>
       </c>
       <c r="C38">
-        <v>1.551846133697053</v>
+        <v>-1.57250524420149</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>-1.179954824099553</v>
+        <v>0.7238682473230523</v>
       </c>
       <c r="B39">
-        <v>-1.268154312788066</v>
+        <v>-1.033592985552248</v>
       </c>
       <c r="C39">
-        <v>1.077993377122975</v>
+        <v>1.622157614555329</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>-0.3315937683326622</v>
+        <v>0.06561732329107792</v>
       </c>
       <c r="B40">
-        <v>0.381373480103137</v>
+        <v>1.127407023376887</v>
       </c>
       <c r="C40">
-        <v>-0.9913680191228121</v>
+        <v>1.263118948197565</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>-0.5741495204441859</v>
+        <v>0.522532568296919</v>
       </c>
       <c r="B41">
-        <v>0.4874847429675807</v>
+        <v>1.428298074446366</v>
       </c>
       <c r="C41">
-        <v>-1.607700835703256</v>
+        <v>0.6086506392718192</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>1.340996904991393</v>
+        <v>-1.356389951738053</v>
       </c>
       <c r="B42">
-        <v>0.1798549820211258</v>
+        <v>-0.08979350446432614</v>
       </c>
       <c r="C42">
-        <v>0.5403430249343094</v>
+        <v>-1.094931474618148</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>1.720337354034532</v>
+        <v>-1.820384652042301</v>
       </c>
       <c r="B43">
-        <v>-0.3649407558997813</v>
+        <v>0.4209490899576162</v>
       </c>
       <c r="C43">
-        <v>-0.5489641239071765</v>
+        <v>-0.5592027858946195</v>
       </c>
     </row>
   </sheetData>
@@ -2354,464 +2354,464 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>-0.8782231453666193</v>
+        <v>0.8691572256929377</v>
       </c>
       <c r="B2">
-        <v>-1.15311647173384</v>
+        <v>-1.259224784980933</v>
       </c>
       <c r="C2">
-        <v>-1.663603620361149</v>
+        <v>-1.592602104169903</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>-0.8547600565498921</v>
+        <v>0.8354752822328078</v>
       </c>
       <c r="B3">
-        <v>-1.607465418467813</v>
+        <v>-1.580954986249071</v>
       </c>
       <c r="C3">
-        <v>0.8906822104658061</v>
+        <v>1.022147813834634</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>0.9298662567693966</v>
+        <v>-0.9365332387598935</v>
       </c>
       <c r="B4">
-        <v>1.212654479783482</v>
+        <v>1.30709478188745</v>
       </c>
       <c r="C4">
-        <v>-0.13304786520291</v>
+        <v>-0.2538331335395734</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>-0.09598362867567321</v>
+        <v>0.04755959748269137</v>
       </c>
       <c r="B5">
-        <v>-1.729166195134545</v>
+        <v>-1.77654653680748</v>
       </c>
       <c r="C5">
-        <v>0.516484237827371</v>
+        <v>0.665653070944731</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>-0.2536268829799919</v>
+        <v>0.2403862620947001</v>
       </c>
       <c r="B6">
-        <v>1.082228969048451</v>
+        <v>1.180493465443805</v>
       </c>
       <c r="C6">
-        <v>-0.7165838111960189</v>
+        <v>-0.843863234684626</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>0.2752207016012328</v>
+        <v>-0.3004799672128327</v>
       </c>
       <c r="B7">
-        <v>0.1683414357167985</v>
+        <v>0.2190972615813714</v>
       </c>
       <c r="C7">
-        <v>0.7590742791782169</v>
+        <v>0.7427712940257627</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>-1.398807743953004</v>
+        <v>1.379486598828304</v>
       </c>
       <c r="B8">
-        <v>-0.1490172568543634</v>
+        <v>-0.08637839442931436</v>
       </c>
       <c r="C8">
-        <v>-0.2395134796356487</v>
+        <v>-0.2616197190009709</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>-1.111283065784332</v>
+        <v>1.096992072168397</v>
       </c>
       <c r="B9">
-        <v>-0.3668864800156085</v>
+        <v>-0.3116121628298118</v>
       </c>
       <c r="C9">
-        <v>-0.6686149426280511</v>
+        <v>-0.6854237591371831</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>-1.210519362720957</v>
+        <v>1.16112041842799</v>
       </c>
       <c r="B10">
-        <v>1.108408544252111</v>
+        <v>1.181165712836366</v>
       </c>
       <c r="C10">
-        <v>0.4279497276736969</v>
+        <v>0.3273455352169147</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>0.05928294932973412</v>
+        <v>-0.1024854036655401</v>
       </c>
       <c r="B11">
-        <v>-1.171109089148241</v>
+        <v>-1.14437335490495</v>
       </c>
       <c r="C11">
-        <v>1.442739196584327</v>
+        <v>1.546625571938238</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>1.860656141195756</v>
+        <v>-1.857965948096007</v>
       </c>
       <c r="B12">
-        <v>-1.010492293072685</v>
+        <v>-1.004314079204938</v>
       </c>
       <c r="C12">
-        <v>-0.02140082309650912</v>
+        <v>0.05488825642361239</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>1.406100509721871</v>
+        <v>-1.422057943503894</v>
       </c>
       <c r="B13">
-        <v>-0.301863256364624</v>
+        <v>-0.2730916793403179</v>
       </c>
       <c r="C13">
-        <v>0.1714844867042732</v>
+        <v>0.1881490225470936</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>-0.3755497370084954</v>
+        <v>0.3496691868596046</v>
       </c>
       <c r="B14">
-        <v>1.508589231169074</v>
+        <v>1.616240487982375</v>
       </c>
       <c r="C14">
-        <v>1.060371220165261</v>
+        <v>0.931323349526471</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>0.948872363185676</v>
+        <v>-0.9581824069355918</v>
       </c>
       <c r="B15">
-        <v>1.519340972768283</v>
+        <v>1.62078450905467</v>
       </c>
       <c r="C15">
-        <v>0.9626326601044463</v>
+        <v>0.8342959577563102</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>0.6770977544250848</v>
+        <v>-0.676076030070783</v>
       </c>
       <c r="B16">
-        <v>-0.532116833994589</v>
+        <v>-0.5666765973225321</v>
       </c>
       <c r="C16">
-        <v>-1.189468734868379</v>
+        <v>-1.163743732819495</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>0.2947273358932023</v>
+        <v>-0.2882464374857411</v>
       </c>
       <c r="B17">
-        <v>-0.1942301303570051</v>
+        <v>-0.179731014735011</v>
       </c>
       <c r="C17">
-        <v>0.01976327506226151</v>
+        <v>0.03502273631204092</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>1.441738604528384</v>
+        <v>-1.420269738222588</v>
       </c>
       <c r="B18">
-        <v>0.8471666050663487</v>
+        <v>0.8202301627888648</v>
       </c>
       <c r="C18">
-        <v>-0.4318098953108516</v>
+        <v>-0.4830806877920903</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>-0.5225270587085812</v>
+        <v>1.067938835268035</v>
       </c>
       <c r="B19">
-        <v>1.533571427246738</v>
+        <v>0.8811554772343745</v>
       </c>
       <c r="C19">
-        <v>-0.2803152982949999</v>
+        <v>-0.1798336866127469</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>1.157699737566226</v>
+        <v>-1.131180447929488</v>
       </c>
       <c r="B20">
-        <v>-0.1225757258566773</v>
+        <v>-0.06848509544026703</v>
       </c>
       <c r="C20">
-        <v>0.750818563822741</v>
+        <v>0.7649076086256803</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>1.350151237700025</v>
+        <v>-1.329700791809035</v>
       </c>
       <c r="B21">
-        <v>0.3876703779674543</v>
+        <v>0.5071549939056788</v>
       </c>
       <c r="C21">
-        <v>1.499411527905827</v>
+        <v>1.46731659823755</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>-0.2373499064591417</v>
+        <v>0.2613069067621389</v>
       </c>
       <c r="B22">
-        <v>1.984509572824535</v>
+        <v>1.871061421209289</v>
       </c>
       <c r="C22">
-        <v>-0.9549136291719755</v>
+        <v>-1.067573258497877</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>0.7353262508918539</v>
+        <v>-0.7327840127703179</v>
       </c>
       <c r="B23">
-        <v>0.4091743512965014</v>
+        <v>0.5007665634094463</v>
       </c>
       <c r="C23">
-        <v>-0.01606950920973665</v>
+        <v>-0.07367266321271755</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>-0.2848968507461058</v>
+        <v>0.2559286005367044</v>
       </c>
       <c r="B24">
-        <v>-0.9762357855623092</v>
+        <v>-1.067107530710382</v>
       </c>
       <c r="C24">
-        <v>-0.2601802092259131</v>
+        <v>-0.1637697681980717</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>1.355420977667666</v>
+        <v>-1.369036034818013</v>
       </c>
       <c r="B25">
-        <v>0.03211664272629383</v>
+        <v>-0.06779943473539506</v>
       </c>
       <c r="C25">
-        <v>-1.29609647359227</v>
+        <v>-1.282754568335999</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>-1.533259954895349</v>
+        <v>1.511850855814745</v>
       </c>
       <c r="B26">
-        <v>-0.3259698915504989</v>
+        <v>-0.2701002649539458</v>
       </c>
       <c r="C26">
-        <v>0.3267996024845879</v>
+        <v>0.3328199908602538</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>-0.3683785323200087</v>
+        <v>0.3344202371363516</v>
       </c>
       <c r="B27">
-        <v>0.07897311487323018</v>
+        <v>-0.07311304458135204</v>
       </c>
       <c r="C27">
-        <v>-1.940991895397052</v>
+        <v>-1.929346271181072</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>-0.8673205852533012</v>
+        <v>0.8588188501810655</v>
       </c>
       <c r="B28">
-        <v>1.142646928883585</v>
+        <v>1.328759874813481</v>
       </c>
       <c r="C28">
-        <v>1.433863494543989</v>
+        <v>1.319349688666608</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>-1.375762331075278</v>
+        <v>1.34496274775557</v>
       </c>
       <c r="B29">
-        <v>0.7539279099709456</v>
+        <v>0.7393292144792396</v>
       </c>
       <c r="C29">
-        <v>0.1879721973027987</v>
+        <v>0.1409585337792915</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>0.3237322533411303</v>
+        <v>-0.3313539953302695</v>
       </c>
       <c r="B30">
-        <v>-0.6691669004718431</v>
+        <v>-0.7681859339282816</v>
       </c>
       <c r="C30">
-        <v>-1.389667171254102</v>
+        <v>-1.336616396554359</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>1.416262716673832</v>
+        <v>-1.418301519283121</v>
       </c>
       <c r="B31">
-        <v>-1.121841984640407</v>
+        <v>-1.007881516247234</v>
       </c>
       <c r="C31">
-        <v>0.4695916773674548</v>
+        <v>0.5257526803658977</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>-0.7898130996828658</v>
+        <v>0.7695145321568554</v>
       </c>
       <c r="B32">
-        <v>0.7035349301987038</v>
+        <v>0.5444336772390643</v>
       </c>
       <c r="C32">
-        <v>-1.017043544892283</v>
+        <v>-1.026589064146168</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>-1.723947405290328</v>
+        <v>1.688427377999622</v>
       </c>
       <c r="B33">
-        <v>-1.318609063952388</v>
+        <v>-1.350199130023485</v>
       </c>
       <c r="C33">
-        <v>-0.4947743917099184</v>
+        <v>-0.4116147223661247</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>-0.6120187479013651</v>
+        <v>0.5861592168838772</v>
       </c>
       <c r="B34">
-        <v>-1.616396009212989</v>
+        <v>-1.496738081438824</v>
       </c>
       <c r="C34">
-        <v>1.411752091302074</v>
+        <v>1.517734256944388</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>-1.047690083976508</v>
+        <v>1.043745948351247</v>
       </c>
       <c r="B35">
-        <v>0.6424092114777226</v>
+        <v>0.8255187079804166</v>
       </c>
       <c r="C35">
-        <v>2.024517405115822</v>
+        <v>1.963365340906446</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>-1.063737923501061</v>
+        <v>1.030532544532956</v>
       </c>
       <c r="B36">
-        <v>0.3986296085614945</v>
+        <v>0.3202945006406112</v>
       </c>
       <c r="C36">
-        <v>-1.488050432657672</v>
+        <v>-1.526626298290259</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>0.6721244394593884</v>
+        <v>-0.6943185379911402</v>
       </c>
       <c r="B37">
-        <v>-1.844556817483517</v>
+        <v>-1.806326510217503</v>
       </c>
       <c r="C37">
-        <v>0.168410731958366</v>
+        <v>0.2852324762870323</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>-0.4507954865909106</v>
+        <v>0.4318424824325049</v>
       </c>
       <c r="B38">
-        <v>0.1841371751791028</v>
+        <v>0.09611826074187386</v>
       </c>
       <c r="C38">
-        <v>-1.10224160485964</v>
+        <v>-1.110234502514321</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>0.937716677065963</v>
+        <v>-0.9676412544842317</v>
       </c>
       <c r="B39">
-        <v>0.679114820420272</v>
+        <v>0.6911666262089664</v>
       </c>
       <c r="C39">
-        <v>-0.6233859264512521</v>
+        <v>-0.6929198864066177</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>-0.1641838785545948</v>
+        <v>0.1535160007288034</v>
       </c>
       <c r="B40">
-        <v>0.2032563678993623</v>
+        <v>0.3099080805874704</v>
       </c>
       <c r="C40">
-        <v>2.2410724501204</v>
+        <v>2.237963981637442</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>-1.16359908380072</v>
+        <v>1.13309705426741</v>
       </c>
       <c r="B41">
-        <v>-0.2215557919078479</v>
+        <v>-0.2988717438835971</v>
       </c>
       <c r="C41">
-        <v>0.1581333540725105</v>
+        <v>0.2016774384312808</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>0.9712547941382772</v>
+        <v>-0.9662646847710773</v>
       </c>
       <c r="B42">
-        <v>-1.134138784437958</v>
+        <v>-1.155371299827112</v>
       </c>
       <c r="C42">
-        <v>-0.802498799603105</v>
+        <v>-0.7328711431812559</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>1.570782850640382</v>
+        <v>-1.549030441455757</v>
       </c>
       <c r="B43">
-        <v>0.9861075028892596</v>
+        <v>1.052309396766923</v>
       </c>
       <c r="C43">
-        <v>-0.1932523311427953</v>
+        <v>-0.286712602626248</v>
       </c>
     </row>
   </sheetData>
@@ -2840,464 +2840,464 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>0.9453809132509055</v>
+        <v>0.5728090100244626</v>
       </c>
       <c r="B2">
-        <v>1.366832012396492</v>
+        <v>1.64292861671813</v>
       </c>
       <c r="C2">
-        <v>0.6139161278183015</v>
+        <v>0.1065813253897504</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>1.04889465698191</v>
+        <v>0.9535968381752509</v>
       </c>
       <c r="B3">
-        <v>-0.06538592042941907</v>
+        <v>-0.03788224158397567</v>
       </c>
       <c r="C3">
-        <v>-0.7534247452373408</v>
+        <v>0.6713375033890595</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>0.7138182328979946</v>
+        <v>0.774504353851921</v>
       </c>
       <c r="B4">
-        <v>-0.5574022141430981</v>
+        <v>-0.59104107465625</v>
       </c>
       <c r="C4">
-        <v>-0.1804789312507243</v>
+        <v>-0.391299297960487</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>-0.2337338064289106</v>
+        <v>-0.4993293625472783</v>
       </c>
       <c r="B5">
-        <v>1.040388845605441</v>
+        <v>0.7153478918791978</v>
       </c>
       <c r="C5">
-        <v>-0.6720757843319802</v>
+        <v>1.2415015505512</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>-0.09006119834380696</v>
+        <v>-0.2453869300226956</v>
       </c>
       <c r="B6">
-        <v>0.5289623590575613</v>
+        <v>0.316959772766852</v>
       </c>
       <c r="C6">
-        <v>0.1167806660528637</v>
+        <v>-0.07419444955799398</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>-0.171947208946366</v>
+        <v>0.3150991410799889</v>
       </c>
       <c r="B7">
-        <v>-0.4647543392871789</v>
+        <v>0.5491229744925555</v>
       </c>
       <c r="C7">
-        <v>1.394370664873155</v>
+        <v>-0.3426148233865098</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>1.171802246852047</v>
+        <v>1.199659469411662</v>
       </c>
       <c r="B8">
-        <v>-0.3407212583508015</v>
+        <v>-0.5566000091080061</v>
       </c>
       <c r="C8">
-        <v>-1.090518656763172</v>
+        <v>0.7796395278996739</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>-0.07828393006947791</v>
+        <v>-0.03239729796403861</v>
       </c>
       <c r="B9">
-        <v>-0.8615815946759297</v>
+        <v>-0.3624407570534492</v>
       </c>
       <c r="C9">
-        <v>0.7632892008668578</v>
+        <v>-1.305135064651462</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>1.524209203949707</v>
+        <v>1.603430222025078</v>
       </c>
       <c r="B10">
-        <v>-0.7431482885475371</v>
+        <v>-0.6899714800746337</v>
       </c>
       <c r="C10">
-        <v>-0.7843450502173224</v>
+        <v>0.2919022198918596</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>-0.3158586495526051</v>
+        <v>0.820844256122565</v>
       </c>
       <c r="B11">
-        <v>-2.030014796709871</v>
+        <v>-1.482995523750859</v>
       </c>
       <c r="C11">
-        <v>0.4800662660571439</v>
+        <v>-0.2990857547363049</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>-1.497131103406732</v>
+        <v>-1.711580015369758</v>
       </c>
       <c r="B12">
-        <v>1.057413646572541</v>
+        <v>0.307083936508753</v>
       </c>
       <c r="C12">
-        <v>-0.5341299508520243</v>
+        <v>0.6606284568515162</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>-1.77944884840738</v>
+        <v>-1.794583674875031</v>
       </c>
       <c r="B13">
-        <v>0.3135311085918847</v>
+        <v>-0.0970929349722521</v>
       </c>
       <c r="C13">
-        <v>0.5532786812320241</v>
+        <v>-0.7219129365345923</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>-1.29319846758707</v>
+        <v>-1.115541828372814</v>
       </c>
       <c r="B14">
-        <v>-0.9099044642523776</v>
+        <v>-1.29172034536347</v>
       </c>
       <c r="C14">
-        <v>-0.4364484542569314</v>
+        <v>-0.3696221246179337</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>-1.486084517247671</v>
+        <v>-1.363912879207503</v>
       </c>
       <c r="B15">
-        <v>-0.5331079402314903</v>
+        <v>-1.311582786650184</v>
       </c>
       <c r="C15">
-        <v>-1.161171001463871</v>
+        <v>0.3957527157570295</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>-0.2418902721529417</v>
+        <v>-0.4726245574523488</v>
       </c>
       <c r="B16">
-        <v>0.8821888903764062</v>
+        <v>0.3565972293797871</v>
       </c>
       <c r="C16">
-        <v>-0.6862385082964766</v>
+        <v>0.8290074219097234</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>-0.1746321657280628</v>
+        <v>-0.1517117411444125</v>
       </c>
       <c r="B17">
-        <v>-0.6857102786550135</v>
+        <v>-0.8352475533124866</v>
       </c>
       <c r="C17">
-        <v>-0.7355449182546874</v>
+        <v>0.1637479266701873</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>-1.368959824516337</v>
+        <v>-1.40593655310519</v>
       </c>
       <c r="B18">
-        <v>0.1363498765194833</v>
+        <v>-0.04870346941524439</v>
       </c>
       <c r="C18">
-        <v>0.6327595791476892</v>
+        <v>-0.8704045569282902</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>1.147713819963544</v>
+        <v>0.8893420670285895</v>
       </c>
       <c r="B19">
-        <v>0.7572293078498451</v>
+        <v>0.7761411243494412</v>
       </c>
       <c r="C19">
-        <v>-0.7301022336398597</v>
+        <v>1.221541131807019</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>-0.8328061244375612</v>
+        <v>-0.9889639321976593</v>
       </c>
       <c r="B20">
-        <v>0.3870023303148236</v>
+        <v>0.3262019001353625</v>
       </c>
       <c r="C20">
-        <v>0.1231085716708131</v>
+        <v>-0.01681825892607833</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>-0.3090164538193179</v>
+        <v>-0.6304878610945004</v>
       </c>
       <c r="B21">
-        <v>1.559822084757682</v>
+        <v>0.677092399396905</v>
       </c>
       <c r="C21">
-        <v>-1.256570418577696</v>
+        <v>1.858988421045086</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>0.1717584501528579</v>
+        <v>0.06976231089796192</v>
       </c>
       <c r="B22">
-        <v>-0.154202838228379</v>
+        <v>0.2760051893338227</v>
       </c>
       <c r="C22">
-        <v>0.988678503735243</v>
+        <v>-1.185971564871986</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>-0.5271707575503614</v>
+        <v>0.3176225662573585</v>
       </c>
       <c r="B23">
-        <v>-1.579048368896913</v>
+        <v>-1.18938474742869</v>
       </c>
       <c r="C23">
-        <v>0.8124483406676469</v>
+        <v>-0.2100155694581503</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>0.4722241956596184</v>
+        <v>0.2346473258415616</v>
       </c>
       <c r="B24">
-        <v>0.3711443345298803</v>
+        <v>1.280402722497483</v>
       </c>
       <c r="C24">
-        <v>2.197466264007384</v>
+        <v>-2.004875300326476</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>-0.9579538374815255</v>
+        <v>-1.310858475244391</v>
       </c>
       <c r="B25">
-        <v>1.823659998461806</v>
+        <v>1.77294400905622</v>
       </c>
       <c r="C25">
-        <v>1.088791721080465</v>
+        <v>-0.0495779727091918</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>0.2946444578235065</v>
+        <v>0.3991980782982296</v>
       </c>
       <c r="B26">
-        <v>-0.7897809634361493</v>
+        <v>-1.355790224072934</v>
       </c>
       <c r="C26">
-        <v>-1.851093661600472</v>
+        <v>1.278082533859932</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>0.4867074665119867</v>
+        <v>0.3754590717588022</v>
       </c>
       <c r="B27">
-        <v>-0.4477700339251224</v>
+        <v>0.4726589469525614</v>
       </c>
       <c r="C27">
-        <v>1.665476873982686</v>
+        <v>-1.868717148442609</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>1.522151044132707</v>
+        <v>1.462780056711453</v>
       </c>
       <c r="B28">
-        <v>-0.3791162263561279</v>
+        <v>0.09902846717556525</v>
       </c>
       <c r="C28">
-        <v>0.1581682351538917</v>
+        <v>-0.4817191725488937</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>1.505071596433946</v>
+        <v>1.208259787365264</v>
       </c>
       <c r="B29">
-        <v>0.8680044021904904</v>
+        <v>1.745942971496144</v>
       </c>
       <c r="C29">
-        <v>1.387771856390505</v>
+        <v>-0.5476368824322552</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>-1.025816373802357</v>
+        <v>-0.9561328942224979</v>
       </c>
       <c r="B30">
-        <v>-0.863462877833886</v>
+        <v>-0.824588957507418</v>
       </c>
       <c r="C30">
-        <v>0.5362445283296522</v>
+        <v>-1.471026004965043</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>-0.6783576340354158</v>
+        <v>-1.047306180849386</v>
       </c>
       <c r="B31">
-        <v>1.747211206525883</v>
+        <v>1.783051808266659</v>
       </c>
       <c r="C31">
-        <v>1.159820426466341</v>
+        <v>-0.1705351420092343</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>0.8582417436678161</v>
+        <v>0.6776196895052923</v>
       </c>
       <c r="B32">
-        <v>0.04223002559307402</v>
+        <v>0.5809527379547619</v>
       </c>
       <c r="C32">
-        <v>0.5403566785335702</v>
+        <v>-0.3110544654868584</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>1.567828301621303</v>
+        <v>1.658704303772955</v>
       </c>
       <c r="B33">
-        <v>-1.037742345404405</v>
+        <v>-0.6365635047882091</v>
       </c>
       <c r="C33">
-        <v>-0.05901771089475077</v>
+        <v>-0.7181880813336455</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>1.189031608704187</v>
+        <v>1.133715929169669</v>
       </c>
       <c r="B34">
-        <v>0.13710277434957</v>
+        <v>-0.3130550127870269</v>
       </c>
       <c r="C34">
-        <v>-1.509497419030642</v>
+        <v>1.526757604997049</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>-0.09695874577505736</v>
+        <v>0.778981758270365</v>
       </c>
       <c r="B35">
-        <v>-1.844800829594929</v>
+        <v>-1.929436329854763</v>
       </c>
       <c r="C35">
-        <v>-1.060651414822292</v>
+        <v>1.392000219073352</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>1.829545455820378</v>
+        <v>1.577342687391419</v>
       </c>
       <c r="B36">
-        <v>0.3542528905564072</v>
+        <v>1.256134528011781</v>
       </c>
       <c r="C36">
-        <v>1.149650445960433</v>
+        <v>-1.059301458601876</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>-0.8928069208061297</v>
+        <v>-1.14856808331405</v>
       </c>
       <c r="B37">
-        <v>0.8065854716609665</v>
+        <v>0.2496962986250494</v>
       </c>
       <c r="C37">
-        <v>-0.6897804566754127</v>
+        <v>0.6364649289698963</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>-0.7011846911946339</v>
+        <v>-0.5486223483518963</v>
       </c>
       <c r="B38">
-        <v>-1.4300746969646</v>
+        <v>-1.577874777159743</v>
       </c>
       <c r="C38">
-        <v>-0.6517629199022948</v>
+        <v>-0.648116674945537</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>-0.8087827665395823</v>
+        <v>0.1496879704933144</v>
       </c>
       <c r="B39">
-        <v>-1.513239727552062</v>
+        <v>-0.9041312865817369</v>
       </c>
       <c r="C39">
-        <v>1.780491577019677</v>
+        <v>-1.816288463859241</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>-0.5193400730419445</v>
+        <v>-0.4981399396358238</v>
       </c>
       <c r="B40">
-        <v>-0.4849100496893642</v>
+        <v>-1.39016606933185</v>
       </c>
       <c r="C40">
-        <v>-1.480938965278019</v>
+        <v>0.5775870936392764</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>1.517499078612192</v>
+        <v>1.125018092187506</v>
       </c>
       <c r="B41">
-        <v>1.366605816430001</v>
+        <v>1.486358096935537</v>
       </c>
       <c r="C41">
-        <v>-0.6196960096621645</v>
+        <v>1.556998996159073</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>-0.6973462674160846</v>
+        <v>-1.008099857870622</v>
       </c>
       <c r="B42">
-        <v>1.52460713472733</v>
+        <v>0.7258326682474651</v>
       </c>
       <c r="C42">
-        <v>-1.10079240193404</v>
+        <v>1.829878662467547</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>-1.187751834749272</v>
+        <v>-1.36790057279877</v>
       </c>
       <c r="B43">
-        <v>0.6447555360970851</v>
+        <v>0.02978479527315371</v>
       </c>
       <c r="C43">
-        <v>-0.0986555961041696</v>
+        <v>-0.08428707103758031</v>
       </c>
     </row>
   </sheetData>
@@ -3326,464 +3326,464 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>-1.431957826010966</v>
+        <v>-1.302524607688938</v>
       </c>
       <c r="B2">
-        <v>-0.1573981010043661</v>
+        <v>-1.006701462058606</v>
       </c>
       <c r="C2">
-        <v>1.160964907114296</v>
+        <v>0.9347639916278357</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>-0.5736027403615104</v>
+        <v>-0.07646516665098037</v>
       </c>
       <c r="B3">
-        <v>-1.145402970262875</v>
+        <v>-1.662709480212619</v>
       </c>
       <c r="C3">
-        <v>1.507358328174877</v>
+        <v>1.261089510757022</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>0.7253107103831635</v>
+        <v>0.2531206461322456</v>
       </c>
       <c r="B4">
-        <v>0.3834008814777037</v>
+        <v>-1.299642044068687</v>
       </c>
       <c r="C4">
-        <v>1.207662144732512</v>
+        <v>0.1496343726911785</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>-0.8807315197561402</v>
+        <v>-1.595583000122191</v>
       </c>
       <c r="B5">
-        <v>1.380260283745752</v>
+        <v>0.9118624624491279</v>
       </c>
       <c r="C5">
-        <v>-1.110903015815803</v>
+        <v>0.2959174627692504</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>0.07798036809849604</v>
+        <v>0.5783622675147935</v>
       </c>
       <c r="B6">
-        <v>-0.7581011225005152</v>
+        <v>1.665841471589664</v>
       </c>
       <c r="C6">
-        <v>-1.562276926725901</v>
+        <v>0.98068812961305</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>0.6343747648936509</v>
+        <v>0.9750471528130658</v>
       </c>
       <c r="B7">
-        <v>-0.9294084263735209</v>
+        <v>-0.5464796607539003</v>
       </c>
       <c r="C7">
-        <v>0.7415218036324746</v>
+        <v>0.2029261170053602</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>-1.216967665896066</v>
+        <v>-0.8423476821407947</v>
       </c>
       <c r="B8">
-        <v>-0.5955051729868973</v>
+        <v>-0.7746279107036662</v>
       </c>
       <c r="C8">
-        <v>1.011010089330617</v>
+        <v>1.097935136754119</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>-0.1205180953094648</v>
+        <v>0.3913436712756948</v>
       </c>
       <c r="B9">
-        <v>-0.9512522511287153</v>
+        <v>0.1545841222962099</v>
       </c>
       <c r="C9">
-        <v>0.2029126870081922</v>
+        <v>1.0819771393492</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>1.235244183720228</v>
+        <v>0.5209186711027977</v>
       </c>
       <c r="B10">
-        <v>0.5013775200594225</v>
+        <v>-1.330182823000164</v>
       </c>
       <c r="C10">
-        <v>0.9024023070487452</v>
+        <v>-0.9521696312192143</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>0.8275518416183815</v>
+        <v>1.23212510031973</v>
       </c>
       <c r="B11">
-        <v>-0.5842925312767945</v>
+        <v>1.985092957670607</v>
       </c>
       <c r="C11">
-        <v>-2.282418232271286</v>
+        <v>-0.5286866737432213</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>-0.6303139092549684</v>
+        <v>-0.781314799261474</v>
       </c>
       <c r="B12">
-        <v>1.133745189239875</v>
+        <v>1.26389291507762</v>
       </c>
       <c r="C12">
-        <v>-1.176296341898529</v>
+        <v>-1.229881559695111</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>-0.002689441546922507</v>
+        <v>0.02820857454342339</v>
       </c>
       <c r="B13">
-        <v>0.5982985470010126</v>
+        <v>1.532719280553822</v>
       </c>
       <c r="C13">
-        <v>-1.287600010334479</v>
+        <v>-0.9595625870166372</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>0.8825496557912251</v>
+        <v>1.389563944657506</v>
       </c>
       <c r="B14">
-        <v>-1.004857077813634</v>
+        <v>1.370404542520403</v>
       </c>
       <c r="C14">
-        <v>-1.527547918373582</v>
+        <v>-0.1817900782741642</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>0.9216642585648736</v>
+        <v>-0.09167941104930159</v>
       </c>
       <c r="B15">
-        <v>1.914680770529571</v>
+        <v>0.2119097250676185</v>
       </c>
       <c r="C15">
-        <v>-0.2143817759336925</v>
+        <v>-1.615628105145358</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>0.7474463574221993</v>
+        <v>-0.2484931350960331</v>
       </c>
       <c r="B16">
-        <v>1.812092522661287</v>
+        <v>0.1796862962993011</v>
       </c>
       <c r="C16">
-        <v>-0.4112090725055597</v>
+        <v>-2.368608660817718</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>0.08063428006201943</v>
+        <v>0.2025714308979985</v>
       </c>
       <c r="B17">
-        <v>0.2294117740143803</v>
+        <v>0.4045172909019263</v>
       </c>
       <c r="C17">
-        <v>-0.2198840505512276</v>
+        <v>-0.8444738275829893</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>-0.687294110000879</v>
+        <v>-0.1201659696283647</v>
       </c>
       <c r="B18">
-        <v>-0.9795884204206784</v>
+        <v>0.8322493003833696</v>
       </c>
       <c r="C18">
-        <v>-0.9970372745840143</v>
+        <v>1.070867864017135</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>-0.8961350646548998</v>
+        <v>-0.6922582728366214</v>
       </c>
       <c r="B19">
-        <v>-0.1195470685021316</v>
+        <v>-0.7873071574545579</v>
       </c>
       <c r="C19">
-        <v>0.6139341783975812</v>
+        <v>-0.9916794276720361</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>-1.602069202288131</v>
+        <v>-1.394540065657577</v>
       </c>
       <c r="B20">
-        <v>0.04192593614832395</v>
+        <v>0.4174837015055974</v>
       </c>
       <c r="C20">
-        <v>-0.3957957473820332</v>
+        <v>-0.01688461460970935</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>1.232138529231107</v>
+        <v>0.3863531500092046</v>
       </c>
       <c r="B21">
-        <v>1.257066586714101</v>
+        <v>-1.496067079620407</v>
       </c>
       <c r="C21">
-        <v>1.447367684548273</v>
+        <v>-1.754257764161763</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>1.132416837574793</v>
+        <v>0.1557001276498908</v>
       </c>
       <c r="B22">
-        <v>1.202378291437668</v>
+        <v>-1.009739002346928</v>
       </c>
       <c r="C22">
-        <v>0.5132715931200962</v>
+        <v>-1.09313070449052</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>0.8136263003851406</v>
+        <v>1.399357578826525</v>
       </c>
       <c r="B23">
-        <v>-1.334706368164225</v>
+        <v>0.6001383196216308</v>
       </c>
       <c r="C23">
-        <v>-0.5061141850305644</v>
+        <v>1.206865051439336</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>0.2021920192599478</v>
+        <v>0.6665698544445458</v>
       </c>
       <c r="B24">
-        <v>-0.914757735332187</v>
+        <v>0.2600139602915006</v>
       </c>
       <c r="C24">
-        <v>0.04550666274023742</v>
+        <v>1.109243461404679</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>-0.9532119970140922</v>
+        <v>-0.7282395005909982</v>
       </c>
       <c r="B25">
-        <v>0.01931791819651276</v>
+        <v>-0.2776251109305005</v>
       </c>
       <c r="C25">
-        <v>0.9125107083707542</v>
+        <v>0.7147256667524318</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>-0.6462509085052931</v>
+        <v>-0.2327166270080354</v>
       </c>
       <c r="B26">
-        <v>-0.5654536349220685</v>
+        <v>-0.7267022482733972</v>
       </c>
       <c r="C26">
-        <v>0.8817545110469585</v>
+        <v>-0.112936830021797</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>0.9736748437442974</v>
+        <v>0.3571796810396931</v>
       </c>
       <c r="B27">
-        <v>1.225918004563607</v>
+        <v>-1.202282259140789</v>
       </c>
       <c r="C27">
-        <v>1.129916230718031</v>
+        <v>-0.2692700120400583</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>1.269955388975424</v>
+        <v>1.528299812674433</v>
       </c>
       <c r="B28">
-        <v>-0.5476406873511689</v>
+        <v>0.2633398064216368</v>
       </c>
       <c r="C28">
-        <v>-0.4790590262485292</v>
+        <v>-1.013066446880504</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>1.114252420265309</v>
+        <v>1.718720031185373</v>
       </c>
       <c r="B29">
-        <v>-1.720163137214969</v>
+        <v>-1.237838326956321</v>
       </c>
       <c r="C29">
-        <v>1.412457803835792</v>
+        <v>1.321631488184289</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>0.1732035673779272</v>
+        <v>0.6028931962793486</v>
       </c>
       <c r="B30">
-        <v>-0.6407339274828094</v>
+        <v>1.175787421554</v>
       </c>
       <c r="C30">
-        <v>-1.167739346195336</v>
+        <v>0.3377863726491861</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>-1.533097440222047</v>
+        <v>-1.307097182042229</v>
       </c>
       <c r="B31">
-        <v>0.2306810120134201</v>
+        <v>1.153016909994366</v>
       </c>
       <c r="C31">
-        <v>-0.5865238258234623</v>
+        <v>1.082026959450749</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>-0.1305586072528846</v>
+        <v>-1.332653984163237</v>
       </c>
       <c r="B32">
-        <v>1.675850030044385</v>
+        <v>-0.1830330501107597</v>
       </c>
       <c r="C32">
-        <v>0.1361833536806557</v>
+        <v>0.9596816858427462</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>1.85290903417431</v>
+        <v>1.779727710635708</v>
       </c>
       <c r="B33">
-        <v>-0.9694189770184768</v>
+        <v>-1.059272388061925</v>
       </c>
       <c r="C33">
-        <v>0.6553666321323149</v>
+        <v>0.6726646092342418</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>-0.9832948391705207</v>
+        <v>-0.5478606183496508</v>
       </c>
       <c r="B34">
-        <v>-0.4203252842308177</v>
+        <v>0.9190075258552501</v>
       </c>
       <c r="C34">
-        <v>-1.103853599689937</v>
+        <v>0.3357253286757141</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>0.5385404322326893</v>
+        <v>1.066370657594056</v>
       </c>
       <c r="B35">
-        <v>-1.073102007213955</v>
+        <v>0.7871144630870913</v>
       </c>
       <c r="C35">
-        <v>-0.9122398353426678</v>
+        <v>0.588803149929461</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>-1.620316880316168</v>
+        <v>-1.096043177122253</v>
       </c>
       <c r="B36">
-        <v>-1.034033969698639</v>
+        <v>-0.5147060229940051</v>
       </c>
       <c r="C36">
-        <v>0.6274252465562056</v>
+        <v>1.995707852450723</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>-1.364395841074024</v>
+        <v>-1.497809879968694</v>
       </c>
       <c r="B37">
-        <v>1.216597215956561</v>
+        <v>0.8543764579038003</v>
       </c>
       <c r="C37">
-        <v>-0.716798274784525</v>
+        <v>-1.447069289586568</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>1.498429746712528</v>
+        <v>0.5368283694868712</v>
       </c>
       <c r="B38">
-        <v>0.9306004114247259</v>
+        <v>-1.294267328670647</v>
       </c>
       <c r="C38">
-        <v>0.6010970653446079</v>
+        <v>-0.7803875825989902</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>1.067077871289558</v>
+        <v>1.576593922105203</v>
       </c>
       <c r="B39">
-        <v>-1.175375770958356</v>
+        <v>0.9846338618486917</v>
       </c>
       <c r="C39">
-        <v>-1.231868832514786</v>
+        <v>0.1046825864305982</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>-0.7927447263099967</v>
+        <v>-0.6422057735640453</v>
       </c>
       <c r="B40">
-        <v>0.1119117166943661</v>
+        <v>-0.8823051448346274</v>
       </c>
       <c r="C40">
-        <v>0.989327683046455</v>
+        <v>-0.9305046884449378</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>-1.871666228236815</v>
+        <v>-1.776764014052828</v>
       </c>
       <c r="B41">
-        <v>0.1103822346851991</v>
+        <v>-0.4474721452920207</v>
       </c>
       <c r="C41">
-        <v>0.7902836739032887</v>
+        <v>0.1735526609489753</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>0.1214892467360041</v>
+        <v>0.2867614620129004</v>
       </c>
       <c r="B42">
-        <v>-0.2376615973880538</v>
+        <v>-0.9417318147964857</v>
       </c>
       <c r="C42">
-        <v>1.20964680367666</v>
+        <v>-0.5371284216943875</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>-0.1848456153314817</v>
+        <v>-1.32585414620676</v>
       </c>
       <c r="B43">
-        <v>1.882829392637982</v>
+        <v>0.7530196673877777</v>
       </c>
       <c r="C43">
-        <v>-0.8103348061537062</v>
+        <v>-0.05177969228159279</v>
       </c>
     </row>
   </sheetData>
@@ -3812,464 +3812,464 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>1.118778880939222</v>
+        <v>1.283693690161093</v>
       </c>
       <c r="B2">
-        <v>-0.5310603883160618</v>
+        <v>-0.06799625941274511</v>
       </c>
       <c r="C2">
-        <v>0.7828346588373315</v>
+        <v>-0.2237865931022688</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>0.2055902859559393</v>
+        <v>0.03385441001978638</v>
       </c>
       <c r="B3">
-        <v>0.04674184308356659</v>
+        <v>0.09372984236254209</v>
       </c>
       <c r="C3">
-        <v>-0.4467799298514656</v>
+        <v>-1.883650886532972</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>0.2647639846784458</v>
+        <v>1.04531890765368</v>
       </c>
       <c r="B4">
-        <v>-0.08759424403313149</v>
+        <v>-0.8378393247291074</v>
       </c>
       <c r="C4">
-        <v>1.930159123033095</v>
+        <v>-0.2899815602950644</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>-1.166116989839013</v>
+        <v>-1.46840306047364</v>
       </c>
       <c r="B5">
-        <v>1.696422787357636</v>
+        <v>-1.223539595227075</v>
       </c>
       <c r="C5">
-        <v>-0.1684548871454876</v>
+        <v>-0.7006407680371149</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>-0.2550669422961732</v>
+        <v>0.5893636505984925</v>
       </c>
       <c r="B6">
-        <v>-0.7385291912209455</v>
+        <v>0.1403453137468453</v>
       </c>
       <c r="C6">
-        <v>1.312060381802526</v>
+        <v>1.166158583111748</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>-0.6268658684321733</v>
+        <v>-1.009894966750478</v>
       </c>
       <c r="B7">
-        <v>0.372632469302787</v>
+        <v>0.4422320628298967</v>
       </c>
       <c r="C7">
-        <v>-1.713495528404251</v>
+        <v>-0.1757905137913166</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>1.530274464842189</v>
+        <v>1.256864336066777</v>
       </c>
       <c r="B8">
-        <v>0.5625238369495384</v>
+        <v>-0.4800751106652014</v>
       </c>
       <c r="C8">
-        <v>0.0989339893513748</v>
+        <v>-0.0006250856440176262</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>1.552547468570877</v>
+        <v>1.452217054950605</v>
       </c>
       <c r="B9">
-        <v>-0.3262288710368175</v>
+        <v>0.7179855425095838</v>
       </c>
       <c r="C9">
-        <v>-0.6626147073493508</v>
+        <v>-0.2642887031836333</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>-0.9457346713418492</v>
+        <v>-1.011245362122489</v>
       </c>
       <c r="B10">
-        <v>-0.9248030684522019</v>
+        <v>1.37442401366685</v>
       </c>
       <c r="C10">
-        <v>-0.9319867336844007</v>
+        <v>-0.5311173185997258</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>-1.250567239399376</v>
+        <v>-1.25480124675395</v>
       </c>
       <c r="B11">
-        <v>0.2516494907994746</v>
+        <v>-0.1602673704123208</v>
       </c>
       <c r="C11">
-        <v>-0.1502748786091664</v>
+        <v>1.252672441932013</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>-0.9482061657272663</v>
+        <v>-0.8726807793498295</v>
       </c>
       <c r="B12">
-        <v>-0.1774341199338181</v>
+        <v>0.4142479995883392</v>
       </c>
       <c r="C12">
-        <v>-0.4815991369794305</v>
+        <v>1.278350191551842</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>0.01391674347424284</v>
+        <v>-0.4098780238376017</v>
       </c>
       <c r="B13">
-        <v>0.8619225154016338</v>
+        <v>-0.5214293990042835</v>
       </c>
       <c r="C13">
-        <v>-0.9970112196548313</v>
+        <v>2.190632754780225</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>0.2470275295702629</v>
+        <v>-0.3409870034786334</v>
       </c>
       <c r="B14">
-        <v>-0.9302317941821954</v>
+        <v>1.309921740872835</v>
       </c>
       <c r="C14">
-        <v>-1.604734010582212</v>
+        <v>0.873747132339481</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>-0.7057910156324678</v>
+        <v>-0.4816938681339368</v>
       </c>
       <c r="B15">
-        <v>0.8751112019269467</v>
+        <v>-1.042200310768256</v>
       </c>
       <c r="C15">
-        <v>0.7373882072756572</v>
+        <v>0.8080926173637589</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>-0.8449881896936877</v>
+        <v>-0.7940814897023072</v>
       </c>
       <c r="B16">
-        <v>-0.6923830093527983</v>
+        <v>0.8670944423804361</v>
       </c>
       <c r="C16">
-        <v>-0.4955336023575783</v>
+        <v>0.4247337024236368</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>-0.8864389265835866</v>
+        <v>-0.5448835617153496</v>
       </c>
       <c r="B17">
-        <v>-1.534407393952114</v>
+        <v>1.331091268491907</v>
       </c>
       <c r="C17">
-        <v>0.04037639022322034</v>
+        <v>0.7703157561190037</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>-1.039681729612565</v>
+        <v>-0.6124614587535983</v>
       </c>
       <c r="B18">
-        <v>-0.5571386282232833</v>
+        <v>0.3831898579580795</v>
       </c>
       <c r="C18">
-        <v>0.5274662230077805</v>
+        <v>0.8323750708678979</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>1.327692560948621</v>
+        <v>1.507094867715514</v>
       </c>
       <c r="B19">
-        <v>-0.9276632704466045</v>
+        <v>0.1873539227998497</v>
       </c>
       <c r="C19">
-        <v>0.3002940774485073</v>
+        <v>1.256133405906346</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>1.21177770955085</v>
+        <v>1.023937364683014</v>
       </c>
       <c r="B20">
-        <v>1.186727532428515</v>
+        <v>-1.845228079780109</v>
       </c>
       <c r="C20">
-        <v>1.426424695919901</v>
+        <v>0.5213627972128613</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>-1.201995789312815</v>
+        <v>-0.8092015391575846</v>
       </c>
       <c r="B21">
-        <v>-1.375816797089132</v>
+        <v>1.522947323064834</v>
       </c>
       <c r="C21">
-        <v>-0.1695398635716353</v>
+        <v>-0.7607888984538638</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>-0.4940802797663064</v>
+        <v>-0.25380218463591</v>
       </c>
       <c r="B22">
-        <v>-0.1912544866098892</v>
+        <v>0.1183542362027802</v>
       </c>
       <c r="C22">
-        <v>0.5969099700720606</v>
+        <v>-1.043675669537685</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>0.5529645636178276</v>
+        <v>0.4953446217498184</v>
       </c>
       <c r="B23">
-        <v>0.8463006349622737</v>
+        <v>-1.035155408647725</v>
       </c>
       <c r="C23">
-        <v>0.9090615525886906</v>
+        <v>-1.702191353174246</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>0.5303293417978524</v>
+        <v>-0.5846531885546769</v>
       </c>
       <c r="B24">
-        <v>1.918374375021808</v>
+        <v>-0.9907327675057376</v>
       </c>
       <c r="C24">
-        <v>-1.044139553971858</v>
+        <v>-1.789171474830582</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>1.644020504513895</v>
+        <v>1.290192749795134</v>
       </c>
       <c r="B25">
-        <v>0.6844393103159998</v>
+        <v>-0.5837218506839437</v>
       </c>
       <c r="C25">
-        <v>-0.2070651567284084</v>
+        <v>-0.1245343455424983</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>1.209481620312188</v>
+        <v>0.9546877320568982</v>
       </c>
       <c r="B26">
-        <v>-0.1364620401855085</v>
+        <v>0.07544727547477588</v>
       </c>
       <c r="C26">
-        <v>-0.1549165130422937</v>
+        <v>-0.6142647966479625</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>0.8545261578320631</v>
+        <v>1.512791434140657</v>
       </c>
       <c r="B27">
-        <v>-1.047548273273846</v>
+        <v>0.05199978663016552</v>
       </c>
       <c r="C27">
-        <v>1.751974760817197</v>
+        <v>0.3472478342365072</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>-0.78219993350387</v>
+        <v>-0.5892997724993996</v>
       </c>
       <c r="B28">
-        <v>0.7211469354021331</v>
+        <v>-1.09315959921272</v>
       </c>
       <c r="C28">
-        <v>1.115547368928077</v>
+        <v>-0.6489825899643487</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>-0.3976503235724349</v>
+        <v>-0.2969243389769182</v>
       </c>
       <c r="B29">
-        <v>-1.199047879485653</v>
+        <v>1.528075919488888</v>
       </c>
       <c r="C29">
-        <v>-0.4446519008344144</v>
+        <v>-2.345660094250976</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>0.8780164116516097</v>
+        <v>-0.09827748168077384</v>
       </c>
       <c r="B30">
-        <v>0.09084252918236287</v>
+        <v>0.3121982482975679</v>
       </c>
       <c r="C30">
-        <v>-1.495797240277617</v>
+        <v>-1.005190321745031</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>1.388658346902479</v>
+        <v>1.523499452283535</v>
       </c>
       <c r="B31">
-        <v>0.01291070338305285</v>
+        <v>0.004833041259160844</v>
       </c>
       <c r="C31">
-        <v>-0.04456697715949789</v>
+        <v>-0.5372875376737253</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>-0.02817900541730904</v>
+        <v>0.04856627236524935</v>
       </c>
       <c r="B32">
-        <v>0.4770201496173869</v>
+        <v>-0.9886084603380281</v>
       </c>
       <c r="C32">
-        <v>1.012816752140574</v>
+        <v>1.102535352798792</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>-1.907692530169277</v>
+        <v>-1.831811551869523</v>
       </c>
       <c r="B33">
-        <v>0.6371639748247832</v>
+        <v>-0.3391488403297359</v>
       </c>
       <c r="C33">
-        <v>-0.3850866904690269</v>
+        <v>0.2846611299774792</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>-1.238116825540711</v>
+        <v>-1.315385703813509</v>
       </c>
       <c r="B34">
-        <v>1.654003214187024</v>
+        <v>-1.729384019472198</v>
       </c>
       <c r="C34">
-        <v>0.8294337252613041</v>
+        <v>-0.1554281521272374</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>-0.2558554922624974</v>
+        <v>-1.040210755282674</v>
       </c>
       <c r="B35">
-        <v>1.659639491094493</v>
+        <v>-0.7155251996036182</v>
       </c>
       <c r="C35">
-        <v>-1.360597601980324</v>
+        <v>-1.066664188269995</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>0.09872395332267214</v>
+        <v>-0.432035403748264</v>
       </c>
       <c r="B36">
-        <v>2.144430749713014</v>
+        <v>-1.816867633706437</v>
       </c>
       <c r="C36">
-        <v>-0.4027321769496403</v>
+        <v>-0.7668235189249335</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>0.9705213228441218</v>
+        <v>0.7465783447826496</v>
       </c>
       <c r="B37">
-        <v>-0.1219383585191244</v>
+        <v>-0.1361436170577216</v>
       </c>
       <c r="C37">
-        <v>-0.4331243012603994</v>
+        <v>1.484626159738293</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>-1.582750364566258</v>
+        <v>-1.20522529293229</v>
       </c>
       <c r="B38">
-        <v>-0.9024178944570427</v>
+        <v>0.6580582275784578</v>
       </c>
       <c r="C38">
-        <v>0.3450984073738946</v>
+        <v>0.3047216071036446</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>-1.157603460809184</v>
+        <v>-0.820039077978448</v>
       </c>
       <c r="B39">
-        <v>-1.875542996538905</v>
+        <v>1.89047302842261</v>
       </c>
       <c r="C39">
-        <v>-0.3929353349437542</v>
+        <v>0.5549375406934014</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>1.132685443658653</v>
+        <v>2.155348645751899</v>
       </c>
       <c r="B40">
-        <v>-1.426302098375398</v>
+        <v>0.549957528346671</v>
       </c>
       <c r="C40">
-        <v>1.701869554016207</v>
+        <v>-0.3474018361919168</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>1.19190814786922</v>
+        <v>0.8438006058597882</v>
       </c>
       <c r="B41">
-        <v>-0.9223304448857993</v>
+        <v>1.515515191090216</v>
       </c>
       <c r="C41">
-        <v>-1.442623484330921</v>
+        <v>-0.1936836796225508</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>0.5796449817015559</v>
+        <v>0.444960071492791</v>
       </c>
       <c r="B42">
-        <v>-0.7960667797618515</v>
+        <v>1.58598208283025</v>
       </c>
       <c r="C42">
-        <v>-1.624069473203956</v>
+        <v>0.3297481169841415</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>-0.7882686810759655</v>
+        <v>-0.1302370999255975</v>
       </c>
       <c r="B43">
-        <v>0.7221982833776887</v>
+        <v>-1.468435049336578</v>
       </c>
       <c r="C43">
-        <v>1.835681065244521</v>
+        <v>1.388577691002592</v>
       </c>
     </row>
   </sheetData>
@@ -4298,464 +4298,464 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>0.5145371186413557</v>
+        <v>-0.3967646650811228</v>
       </c>
       <c r="B2">
-        <v>1.66169642343918</v>
+        <v>-1.637968031493006</v>
       </c>
       <c r="C2">
-        <v>0.4416838335172738</v>
+        <v>0.2668498214678671</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>0.6284663174202659</v>
+        <v>-0.6007569127919182</v>
       </c>
       <c r="B3">
-        <v>0.8823664090354433</v>
+        <v>-0.8517566353378018</v>
       </c>
       <c r="C3">
-        <v>-0.3240392109798284</v>
+        <v>-0.9507276646257642</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>-0.214510070642696</v>
+        <v>0.3982685618565828</v>
       </c>
       <c r="B4">
-        <v>1.027752104861069</v>
+        <v>-0.4939445129219712</v>
       </c>
       <c r="C4">
-        <v>-1.806553021334</v>
+        <v>-1.148887460661387</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>0.4955354134507943</v>
+        <v>-0.5234237422637036</v>
       </c>
       <c r="B5">
-        <v>0.3119713871219271</v>
+        <v>-0.2282848167574109</v>
       </c>
       <c r="C5">
-        <v>-0.3893799133664875</v>
+        <v>-1.125697334956191</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>-0.284786142522388</v>
+        <v>0.2235682565661356</v>
       </c>
       <c r="B6">
-        <v>-1.09913322582268</v>
+        <v>0.6761632540254749</v>
       </c>
       <c r="C6">
-        <v>1.46433899727403</v>
+        <v>0.9348890008393432</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>1.51515906763539</v>
+        <v>-1.575738718558467</v>
       </c>
       <c r="B7">
-        <v>-0.6305673769881899</v>
+        <v>0.469839459049033</v>
       </c>
       <c r="C7">
-        <v>-0.108887445708019</v>
+        <v>-0.653054801324247</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>-0.208806110140841</v>
+        <v>0.3969066981684045</v>
       </c>
       <c r="B8">
-        <v>1.791315985333432</v>
+        <v>-1.627623980286615</v>
       </c>
       <c r="C8">
-        <v>-0.6591781033019779</v>
+        <v>0.6346822264399701</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>-0.3452979531366318</v>
+        <v>0.3610019172575354</v>
       </c>
       <c r="B9">
-        <v>-0.01517199290583621</v>
+        <v>0.2448590747583421</v>
       </c>
       <c r="C9">
-        <v>0.02142597894025265</v>
+        <v>0.4238484738763826</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>-1.054501951630217</v>
+        <v>1.169147055038317</v>
       </c>
       <c r="B10">
-        <v>0.1033047389612287</v>
+        <v>0.4400876152184307</v>
       </c>
       <c r="C10">
-        <v>-1.372013147095813</v>
+        <v>0.3295508902567318</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>0.937318679122521</v>
+        <v>-1.034378434806339</v>
       </c>
       <c r="B11">
-        <v>0.1776398007776436</v>
+        <v>-0.9503648044677364</v>
       </c>
       <c r="C11">
-        <v>1.374903048553876</v>
+        <v>0.95059454203959</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>-0.2926866566164514</v>
+        <v>0.1319986492020914</v>
       </c>
       <c r="B12">
-        <v>-2.308247548233995</v>
+        <v>2.158379073134716</v>
       </c>
       <c r="C12">
-        <v>-0.4019509728069627</v>
+        <v>-0.3841025777815321</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>1.769526165537785</v>
+        <v>-1.849664581357333</v>
       </c>
       <c r="B13">
-        <v>0.08581792726155382</v>
+        <v>-0.4566080749571196</v>
       </c>
       <c r="C13">
-        <v>1.029984798622867</v>
+        <v>-0.4729100133056089</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>0.2285377255180774</v>
+        <v>-0.2306293039336046</v>
       </c>
       <c r="B14">
-        <v>-0.3100713589874274</v>
+        <v>0.4614366164933466</v>
       </c>
       <c r="C14">
-        <v>-0.4936880814427832</v>
+        <v>0.4783641734707902</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>-0.4323572518160983</v>
+        <v>0.4519615906448905</v>
       </c>
       <c r="B15">
-        <v>0.1709928236943704</v>
+        <v>0.3161462801745097</v>
       </c>
       <c r="C15">
-        <v>-1.114450040589156</v>
+        <v>-0.9896904438500779</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>0.57614824722606</v>
+        <v>-0.6230596024337678</v>
       </c>
       <c r="B16">
-        <v>-1.080832436015395</v>
+        <v>1.043075821389376</v>
       </c>
       <c r="C16">
-        <v>0.8071918444926636</v>
+        <v>1.150654238403322</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>-0.6065345320206665</v>
+        <v>0.4780468594022337</v>
       </c>
       <c r="B17">
-        <v>-2.009027185734248</v>
+        <v>1.753397900685857</v>
       </c>
       <c r="C17">
-        <v>0.6363805232161334</v>
+        <v>0.3656467950138498</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>-0.4345786602456251</v>
+        <v>0.1886014164654479</v>
       </c>
       <c r="B18">
-        <v>-2.372273916642209</v>
+        <v>1.947435788449998</v>
       </c>
       <c r="C18">
-        <v>1.082911736394936</v>
+        <v>1.353128238287367</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>-0.7162851724694399</v>
+        <v>0.7456378471588199</v>
       </c>
       <c r="B19">
-        <v>-0.9434176585374905</v>
+        <v>1.371604200924172</v>
       </c>
       <c r="C19">
-        <v>-1.56095316273528</v>
+        <v>0.6922068043846507</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>-0.2069909328910562</v>
+        <v>0.1606254213851324</v>
       </c>
       <c r="B20">
-        <v>-0.1467865457402354</v>
+        <v>0.1015270971615879</v>
       </c>
       <c r="C20">
-        <v>0.5599428501235385</v>
+        <v>1.111504834775235</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>-0.5128538008859934</v>
+        <v>0.4677911103581177</v>
       </c>
       <c r="B21">
-        <v>-1.904207922139266</v>
+        <v>2.234926044586866</v>
       </c>
       <c r="C21">
-        <v>-1.356540703680314</v>
+        <v>0.8459045320697598</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>-0.9513771522094754</v>
+        <v>0.9894809799132334</v>
       </c>
       <c r="B22">
-        <v>0.9926383126589721</v>
+        <v>-0.8771298138311737</v>
       </c>
       <c r="C22">
-        <v>-0.4459540846058324</v>
+        <v>0.3424935059638194</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>-1.436216594102515</v>
+        <v>1.477864786339257</v>
       </c>
       <c r="B23">
-        <v>0.705146336970351</v>
+        <v>-1.158061126677885</v>
       </c>
       <c r="C23">
-        <v>1.807522249303729</v>
+        <v>0.1647264880627749</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>-0.3532950393203256</v>
+        <v>0.3353353974636347</v>
       </c>
       <c r="B24">
-        <v>1.158680355345646</v>
+        <v>-1.283844121339949</v>
       </c>
       <c r="C24">
-        <v>1.046386618284751</v>
+        <v>-0.7190947735890009</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>-1.099735410161669</v>
+        <v>1.017751400835267</v>
       </c>
       <c r="B25">
-        <v>1.191471152298341</v>
+        <v>-1.16205325043961</v>
       </c>
       <c r="C25">
-        <v>1.078659314955158</v>
+        <v>-1.063493647004066</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>-1.701751448533151</v>
+        <v>1.7091846187973</v>
       </c>
       <c r="B26">
-        <v>0.9861325240904563</v>
+        <v>-0.9954582257031255</v>
       </c>
       <c r="C26">
-        <v>0.4156496423891083</v>
+        <v>0.8957172379281347</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>-1.566135977721256</v>
+        <v>1.639635953261135</v>
       </c>
       <c r="B27">
-        <v>0.9556285763412554</v>
+        <v>-0.6177302313164902</v>
       </c>
       <c r="C27">
-        <v>-0.1076855722243854</v>
+        <v>-0.4932116729886211</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>-1.69025533096708</v>
+        <v>1.540597983768188</v>
       </c>
       <c r="B28">
-        <v>-0.2383499317625697</v>
+        <v>-0.1878735743445938</v>
       </c>
       <c r="C28">
-        <v>1.368843675307957</v>
+        <v>1.144171555805947</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>-1.452904017591237</v>
+        <v>1.472935083843674</v>
       </c>
       <c r="B29">
-        <v>-0.4978948041286796</v>
+        <v>0.3841795330143833</v>
       </c>
       <c r="C29">
-        <v>0.6013468681207335</v>
+        <v>-1.329603880723512</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>-0.1842854568704376</v>
+        <v>0.1169406200183487</v>
       </c>
       <c r="B30">
-        <v>0.5423989109193252</v>
+        <v>-0.3340111494954413</v>
       </c>
       <c r="C30">
-        <v>0.2693007107458599</v>
+        <v>-1.65465823692065</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>0.2268347411270316</v>
+        <v>-0.2074541570436851</v>
       </c>
       <c r="B31">
-        <v>-0.1886057595854838</v>
+        <v>0.6100385804138824</v>
       </c>
       <c r="C31">
-        <v>-1.288797732874639</v>
+        <v>-2.509767844291784</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>0.3237793812966804</v>
+        <v>-0.3930277592247218</v>
       </c>
       <c r="B32">
-        <v>0.1283296568641108</v>
+        <v>0.05828039814253826</v>
       </c>
       <c r="C32">
-        <v>0.1062970718263608</v>
+        <v>-1.377368175059564</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>1.380975756445498</v>
+        <v>-1.383900610405145</v>
       </c>
       <c r="B33">
-        <v>0.3027166349728562</v>
+        <v>-0.2251190359272666</v>
       </c>
       <c r="C33">
-        <v>-0.3172077561357806</v>
+        <v>-0.6733694435372893</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>0.6220498010928233</v>
+        <v>-0.4688996416973323</v>
       </c>
       <c r="B34">
-        <v>0.7155873295944741</v>
+        <v>-1.470331259499194</v>
       </c>
       <c r="C34">
-        <v>1.184533548961811</v>
+        <v>1.299255357624499</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>2.014410558699519</v>
+        <v>-1.904746679687596</v>
       </c>
       <c r="B35">
-        <v>-0.06083836873640781</v>
+        <v>0.2222109451607492</v>
       </c>
       <c r="C35">
-        <v>-0.6092113044183609</v>
+        <v>-0.3846118818772724</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>1.650573018164336</v>
+        <v>-1.666827032734544</v>
       </c>
       <c r="B36">
-        <v>0.3792912576910247</v>
+        <v>-0.6301308060116756</v>
       </c>
       <c r="C36">
-        <v>0.2520368218093144</v>
+        <v>-0.03703326307326912</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>0.2444136693251133</v>
+        <v>-0.2826124495987996</v>
       </c>
       <c r="B37">
-        <v>-0.6253234889688065</v>
+        <v>0.876189321696846</v>
       </c>
       <c r="C37">
-        <v>-2.061074659822847</v>
+        <v>-0.8778715106940471</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>1.350642558154212</v>
+        <v>-1.328190342319293</v>
       </c>
       <c r="B38">
-        <v>-0.05879526246883533</v>
+        <v>-0.04170034729881598</v>
       </c>
       <c r="C38">
-        <v>0.5215152067535267</v>
+        <v>1.496926568129857</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>0.9495022292666885</v>
+        <v>-0.9983181767899537</v>
       </c>
       <c r="B39">
-        <v>-1.064136941449401</v>
+        <v>0.6467065458120539</v>
       </c>
       <c r="C39">
-        <v>1.163988087729781</v>
+        <v>0.2438729213235</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>-1.715897404724289</v>
+        <v>1.76947048435135</v>
       </c>
       <c r="B40">
-        <v>-0.374398481460548</v>
+        <v>0.43640626763646</v>
       </c>
       <c r="C40">
-        <v>-1.047343611767817</v>
+        <v>-0.7748246671327446</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>0.1876896286864814</v>
+        <v>-0.07297733320652285</v>
       </c>
       <c r="B41">
-        <v>1.373473197525236</v>
+        <v>-1.316091043878206</v>
       </c>
       <c r="C41">
-        <v>-1.206160449256259</v>
+        <v>1.073782381005774</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>0.9431585918175199</v>
+        <v>-0.8768253908701859</v>
       </c>
       <c r="B42">
-        <v>-0.3545563345550081</v>
+        <v>0.7042418639406842</v>
       </c>
       <c r="C42">
-        <v>-1.276907240828861</v>
+        <v>-0.5681079168180463</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>0.9027843985913865</v>
+        <v>-0.8245571572910623</v>
       </c>
       <c r="B43">
-        <v>0.6382846951048139</v>
+        <v>-0.611046839884218</v>
       </c>
       <c r="C43">
-        <v>0.7131327876517396</v>
+        <v>1.989316623045509</v>
       </c>
     </row>
   </sheetData>
@@ -4784,464 +4784,464 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>0.5529604400481247</v>
+        <v>0.9075501539108702</v>
       </c>
       <c r="B2">
-        <v>1.094648354993246</v>
+        <v>0.915133644187706</v>
       </c>
       <c r="C2">
-        <v>-0.5190613821429102</v>
+        <v>1.115637602125484</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>-0.3841780178958115</v>
+        <v>0.8833915854531398</v>
       </c>
       <c r="B3">
-        <v>1.140205378507189</v>
+        <v>0.4833485886803441</v>
       </c>
       <c r="C3">
-        <v>0.4288273384167955</v>
+        <v>1.283537566893768</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>0.03128780192266201</v>
+        <v>0.1515626825420573</v>
       </c>
       <c r="B4">
-        <v>0.2202117965200288</v>
+        <v>0.6950429109789327</v>
       </c>
       <c r="C4">
-        <v>-0.6250651059833957</v>
+        <v>-0.3107589049810567</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>-1.114330459416469</v>
+        <v>-0.8207311104611964</v>
       </c>
       <c r="B5">
-        <v>-0.8795852073064102</v>
+        <v>-1.059229966977794</v>
       </c>
       <c r="C5">
-        <v>1.108946895425167</v>
+        <v>-0.5096293093806457</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>0.5414548183845742</v>
+        <v>-0.5044523481259157</v>
       </c>
       <c r="B6">
-        <v>-0.7099579722346182</v>
+        <v>-1.557291565865609</v>
       </c>
       <c r="C6">
-        <v>1.44340292217646</v>
+        <v>0.2448915177445471</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>0.2413752751627139</v>
+        <v>-0.7501173255162228</v>
       </c>
       <c r="B7">
-        <v>-0.9623899958592714</v>
+        <v>-0.4675005324408713</v>
       </c>
       <c r="C7">
-        <v>-0.2033900823453645</v>
+        <v>-0.9468525840521677</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>0.5999943970192908</v>
+        <v>0.4148949662869171</v>
       </c>
       <c r="B8">
-        <v>0.5045617479941567</v>
+        <v>1.48692666550264</v>
       </c>
       <c r="C8">
-        <v>-1.540881943568979</v>
+        <v>0.08409104284357019</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>-1.052777039146891</v>
+        <v>1.218358536557923</v>
       </c>
       <c r="B9">
-        <v>1.406609052972107</v>
+        <v>0.794690516960656</v>
       </c>
       <c r="C9">
-        <v>-0.540562952382286</v>
+        <v>0.4963389650912031</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>-0.3153886189658603</v>
+        <v>0.6534390818992212</v>
       </c>
       <c r="B10">
-        <v>0.6046835116358468</v>
+        <v>0.8413405470956752</v>
       </c>
       <c r="C10">
-        <v>-0.5615614872072353</v>
+        <v>1.066147881401385</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>0.2857921774906022</v>
+        <v>-0.7102327665293449</v>
       </c>
       <c r="B11">
-        <v>-0.8319747981082107</v>
+        <v>0.06724725376120877</v>
       </c>
       <c r="C11">
-        <v>-0.8922784422145436</v>
+        <v>-1.582925745481922</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>0.875341422274434</v>
+        <v>-0.9745218387850908</v>
       </c>
       <c r="B12">
-        <v>-1.237510946990999</v>
+        <v>-1.363153884219346</v>
       </c>
       <c r="C12">
-        <v>0.8979454886746094</v>
+        <v>0.02068384832991466</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>0.3285286498692719</v>
+        <v>-0.6984416076473414</v>
       </c>
       <c r="B13">
-        <v>-0.7818212342331119</v>
+        <v>0.8447698790737724</v>
       </c>
       <c r="C13">
-        <v>-1.714641048906691</v>
+        <v>-1.724905549692038</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>0.3866779155464913</v>
+        <v>-0.4009462534073127</v>
       </c>
       <c r="B14">
-        <v>-0.5003792049072364</v>
+        <v>-0.5911710777183519</v>
       </c>
       <c r="C14">
-        <v>0.3054539002813645</v>
+        <v>-0.1716292912800084</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>-1.282840664142345</v>
+        <v>0.6130045779390735</v>
       </c>
       <c r="B15">
-        <v>0.4617902427424699</v>
+        <v>0.9768296419932507</v>
       </c>
       <c r="C15">
-        <v>-1.029217685625077</v>
+        <v>-0.5734987893143381</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>-0.555354834724309</v>
+        <v>-0.7103019797604078</v>
       </c>
       <c r="B16">
-        <v>-0.976215072028967</v>
+        <v>-1.854526074449348</v>
       </c>
       <c r="C16">
-        <v>1.695051119215617</v>
+        <v>-0.1689925130148079</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>0.7214545771654166</v>
+        <v>-1.072564410380323</v>
       </c>
       <c r="B17">
-        <v>-1.23632552027725</v>
+        <v>-0.4718594898571053</v>
       </c>
       <c r="C17">
-        <v>-0.3033934911248279</v>
+        <v>-1.109738166351556</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>0.869344714402451</v>
+        <v>-0.7055027713376912</v>
       </c>
       <c r="B18">
-        <v>-0.9393765487601015</v>
+        <v>-1.827849287563652</v>
       </c>
       <c r="C18">
-        <v>1.694121105450719</v>
+        <v>0.6940993229868125</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>0.9126683381334927</v>
+        <v>0.1853239535186542</v>
       </c>
       <c r="B19">
-        <v>0.06733826912015997</v>
+        <v>-0.9153783662481565</v>
       </c>
       <c r="C19">
-        <v>1.016599008880936</v>
+        <v>1.111929732396409</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>-0.2424639621474598</v>
+        <v>0.2367815832188283</v>
       </c>
       <c r="B20">
-        <v>0.06665790952976303</v>
+        <v>-1.689956038996375</v>
       </c>
       <c r="C20">
-        <v>2.086690459499018</v>
+        <v>1.145065308680643</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>-0.4144593933507067</v>
+        <v>0.118262363751525</v>
       </c>
       <c r="B21">
-        <v>-0.07334916541807444</v>
+        <v>-1.915090799169595</v>
       </c>
       <c r="C21">
-        <v>2.406919918850143</v>
+        <v>1.189670277045676</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>-1.128879158289835</v>
+        <v>1.476651005311271</v>
       </c>
       <c r="B22">
-        <v>1.46428137178817</v>
+        <v>0.3801758533410891</v>
       </c>
       <c r="C22">
-        <v>0.1027601318865012</v>
+        <v>-0.1254417317158882</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>0.6276543970745133</v>
+        <v>0.01971099856211636</v>
       </c>
       <c r="B23">
-        <v>-0.08941102501605955</v>
+        <v>-0.7971885103007035</v>
       </c>
       <c r="C23">
-        <v>0.1810020339272247</v>
+        <v>-1.31430367520396</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>0.4642353972241832</v>
+        <v>1.045980328669598</v>
       </c>
       <c r="B24">
-        <v>1.143119296844861</v>
+        <v>0.8407280767881711</v>
       </c>
       <c r="C24">
-        <v>-1.363010459772697</v>
+        <v>-1.799995269373748</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>0.4296098679763616</v>
+        <v>0.9307279416279814</v>
       </c>
       <c r="B25">
-        <v>0.8582193583342859</v>
+        <v>-1.00375280290234</v>
       </c>
       <c r="C25">
-        <v>0.8063519037643185</v>
+        <v>-0.7683330675373188</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>-0.8607047367259484</v>
+        <v>0.8200853131331476</v>
       </c>
       <c r="B26">
-        <v>0.7567906845699376</v>
+        <v>-0.7970293250677312</v>
       </c>
       <c r="C26">
-        <v>0.7916997561634128</v>
+        <v>-0.2725676734671931</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>-0.654564183232324</v>
+        <v>1.600416066442135</v>
       </c>
       <c r="B27">
-        <v>1.639649935669444</v>
+        <v>0.183045831728629</v>
       </c>
       <c r="C27">
-        <v>-0.02375194066290685</v>
+        <v>0.1258430327349782</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>0.5221786760046692</v>
+        <v>-0.01058199258723081</v>
       </c>
       <c r="B28">
-        <v>-0.03529719829306739</v>
+        <v>-0.6084815768146236</v>
       </c>
       <c r="C28">
-        <v>0.3789559324826787</v>
+        <v>-0.3402843087337846</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>0.7720552985866146</v>
+        <v>1.53445526603484</v>
       </c>
       <c r="B29">
-        <v>1.594655086640919</v>
+        <v>0.2079488702662649</v>
       </c>
       <c r="C29">
-        <v>-0.4427518434747186</v>
+        <v>-1.093227247786912</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>0.6802545829568276</v>
+        <v>0.07543809147509023</v>
       </c>
       <c r="B30">
-        <v>0.02322076068436223</v>
+        <v>-0.5045231542843002</v>
       </c>
       <c r="C30">
-        <v>-0.07761585712888643</v>
+        <v>-1.727070712021482</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>-1.656959028706117</v>
+        <v>-1.419095856378965</v>
       </c>
       <c r="B31">
-        <v>-1.320306289481353</v>
+        <v>1.070329966303788</v>
       </c>
       <c r="C31">
-        <v>-1.056287383707311</v>
+        <v>-0.7483956767954111</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>-2.034854064781533</v>
+        <v>-0.5299146376206244</v>
       </c>
       <c r="B32">
-        <v>-0.6134642400603687</v>
+        <v>0.4871837072505185</v>
       </c>
       <c r="C32">
-        <v>-0.5376120384747157</v>
+        <v>-1.304245554169271</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>-2.053856921196573</v>
+        <v>-1.164259750164759</v>
       </c>
       <c r="B33">
-        <v>-0.9207427091101135</v>
+        <v>1.268486734889782</v>
       </c>
       <c r="C33">
-        <v>-0.795812522896138</v>
+        <v>-0.4390879233004844</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>1.202023228306574</v>
+        <v>-1.683998419539551</v>
       </c>
       <c r="B34">
-        <v>-1.397378108257284</v>
+        <v>1.137494234165376</v>
       </c>
       <c r="C34">
-        <v>-1.305842402176377</v>
+        <v>0.09240291587585904</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>1.225659576152648</v>
+        <v>-1.825609980242838</v>
       </c>
       <c r="B35">
-        <v>-1.588464288285437</v>
+        <v>1.213738786831777</v>
       </c>
       <c r="C35">
-        <v>-1.309563149952901</v>
+        <v>0.4535820853711521</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>1.187718596585718</v>
+        <v>1.207751936509644</v>
       </c>
       <c r="B36">
-        <v>1.321205637040946</v>
+        <v>0.8784203564523703</v>
       </c>
       <c r="C36">
-        <v>-0.6642344097917113</v>
+        <v>0.4787486087976185</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>-1.315996604760221</v>
+        <v>1.304422451426151</v>
       </c>
       <c r="B37">
-        <v>0.9808149266744908</v>
+        <v>0.4114730991742512</v>
       </c>
       <c r="C37">
-        <v>-0.3021500916687027</v>
+        <v>-0.09332785983075177</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>-1.733005619389481</v>
+        <v>-0.7366978474620587</v>
       </c>
       <c r="B38">
-        <v>-0.6056267837510838</v>
+        <v>0.3768146817780031</v>
       </c>
       <c r="C38">
-        <v>0.0004302849785279017</v>
+        <v>0.8789073855669869</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>1.653040435173048</v>
+        <v>-1.369189534545134</v>
       </c>
       <c r="B39">
-        <v>-0.8611326326988775</v>
+        <v>1.247321667751348</v>
       </c>
       <c r="C39">
-        <v>-0.8259028202742211</v>
+        <v>1.46057890045995</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>0.8660569188446651</v>
+        <v>2.01852575113762</v>
       </c>
       <c r="B40">
-        <v>2.000750865908459</v>
+        <v>-0.5427051443120442</v>
       </c>
       <c r="C40">
-        <v>0.6646637250359562</v>
+        <v>-0.03182234884546852</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>1.214099899758599</v>
+        <v>0.7229669813832538</v>
       </c>
       <c r="B41">
-        <v>0.969295569125061</v>
+        <v>0.9536174881295434</v>
       </c>
       <c r="C41">
-        <v>-0.2952193040808896</v>
+        <v>1.619016043504907</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>1.066690697973501</v>
+        <v>-0.6888251968742022</v>
       </c>
       <c r="B42">
-        <v>-0.5431978857520383</v>
+        <v>-0.7437468442799405</v>
       </c>
       <c r="C42">
-        <v>1.152401022540124</v>
+        <v>1.753239222826292</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>-1.457544793165563</v>
+        <v>-1.363715989424849</v>
       </c>
       <c r="B43">
-        <v>-1.214802930465967</v>
+        <v>0.9483254383827889</v>
       </c>
       <c r="C43">
-        <v>-0.2324151020860866</v>
+        <v>1.842622641653055</v>
       </c>
     </row>
   </sheetData>
@@ -5270,464 +5270,464 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>-0.3178920869023248</v>
+        <v>1.167783596004253</v>
       </c>
       <c r="B2">
-        <v>-1.60030442347176</v>
+        <v>0.334504372111582</v>
       </c>
       <c r="C2">
-        <v>0.03607466051252155</v>
+        <v>1.502485573045014</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>0.3542581491802471</v>
+        <v>1.121832966910604</v>
       </c>
       <c r="B3">
-        <v>-1.375869384431593</v>
+        <v>0.3956490585328874</v>
       </c>
       <c r="C3">
-        <v>0.2923909455303466</v>
+        <v>1.813748591931803</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>0.5641148882997099</v>
+        <v>1.659292018550435</v>
       </c>
       <c r="B4">
-        <v>-1.66379392438018</v>
+        <v>-0.09151129995310285</v>
       </c>
       <c r="C4">
-        <v>-0.519613814643394</v>
+        <v>0.9911323523365498</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>0.5067877194020994</v>
+        <v>-0.006339659885687397</v>
       </c>
       <c r="B5">
-        <v>0.06928732054369315</v>
+        <v>-0.4299517242998421</v>
       </c>
       <c r="C5">
-        <v>-0.1974663174152414</v>
+        <v>-0.7399711421218933</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>0.6979244523742983</v>
+        <v>0.2090167963310114</v>
       </c>
       <c r="B6">
-        <v>0.1450568659491364</v>
+        <v>-0.8319533704862647</v>
       </c>
       <c r="C6">
-        <v>-0.7617087413784277</v>
+        <v>-1.64286143694964</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>-1.048171112626113</v>
+        <v>-1.543218811196903</v>
       </c>
       <c r="B7">
-        <v>1.604416388337227</v>
+        <v>-0.1713797376874675</v>
       </c>
       <c r="C7">
-        <v>0.08535688330146174</v>
+        <v>-0.6413122776885292</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>-1.176797872506389</v>
+        <v>-0.1815517563655323</v>
       </c>
       <c r="B8">
-        <v>0.1146469749858159</v>
+        <v>1.173488695710149</v>
       </c>
       <c r="C8">
-        <v>0.752916065994113</v>
+        <v>0.03630829169887505</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>0.2397208906139289</v>
+        <v>-0.7785491407626183</v>
       </c>
       <c r="B9">
-        <v>0.8042726434347059</v>
+        <v>-0.09226676583540669</v>
       </c>
       <c r="C9">
-        <v>0.5018577258970742</v>
+        <v>1.477343204049173</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>0.3485085100933507</v>
+        <v>-0.9130562500081078</v>
       </c>
       <c r="B10">
-        <v>1.362379230863572</v>
+        <v>-0.714072404210682</v>
       </c>
       <c r="C10">
-        <v>-0.2957186592314769</v>
+        <v>-0.3041886218711876</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>0.154957580038926</v>
+        <v>-2.226853700073622</v>
       </c>
       <c r="B11">
-        <v>2.146557819886556</v>
+        <v>0.232926564992455</v>
       </c>
       <c r="C11">
-        <v>1.378176811685631</v>
+        <v>-0.1387077772945925</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>-1.066729611314744</v>
+        <v>-1.05556654677426</v>
       </c>
       <c r="B12">
-        <v>1.078613320365307</v>
+        <v>0.4635897919063837</v>
       </c>
       <c r="C12">
-        <v>0.3631403177338773</v>
+        <v>-1.163935736839369</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>-1.154338651807302</v>
+        <v>-0.4222080639436699</v>
       </c>
       <c r="B13">
-        <v>1.10152247506847</v>
+        <v>-0.6862039798887393</v>
       </c>
       <c r="C13">
-        <v>-0.9382966171666713</v>
+        <v>-0.3947055562245484</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>-0.6479535774947629</v>
+        <v>1.065115072671402</v>
       </c>
       <c r="B14">
-        <v>-0.792189786903885</v>
+        <v>0.01471680700289952</v>
       </c>
       <c r="C14">
-        <v>-0.8039365689746596</v>
+        <v>-1.390416924777562</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>0.2222315664342971</v>
+        <v>-1.237553507276353</v>
       </c>
       <c r="B15">
-        <v>1.329271336932917</v>
+        <v>0.1545587996747042</v>
       </c>
       <c r="C15">
-        <v>0.6061903607011622</v>
+        <v>-0.05074489545253315</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>0.5705357338637922</v>
+        <v>-0.560399030559504</v>
       </c>
       <c r="B16">
-        <v>0.9490339277188271</v>
+        <v>-0.8118547125227932</v>
       </c>
       <c r="C16">
-        <v>-0.7537017251149277</v>
+        <v>-1.853937530178944</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>0.3805476047417151</v>
+        <v>0.01582309378007896</v>
       </c>
       <c r="B17">
-        <v>-0.1228792230413592</v>
+        <v>0.4668406046431244</v>
       </c>
       <c r="C17">
-        <v>0.322087966295349</v>
+        <v>-1.416186891941029</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>-0.1078157638069318</v>
+        <v>1.494221936242978</v>
       </c>
       <c r="B18">
-        <v>-0.8593663318785766</v>
+        <v>-0.7489683663055856</v>
       </c>
       <c r="C18">
-        <v>-1.740309979650178</v>
+        <v>-1.045670541331407</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>-0.8176172378205387</v>
+        <v>0.2343983093898448</v>
       </c>
       <c r="B19">
-        <v>0.4160021780585011</v>
+        <v>-0.9741557455779771</v>
       </c>
       <c r="C19">
-        <v>-1.666440619241309</v>
+        <v>-0.2471647675833719</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>0.6908265524215333</v>
+        <v>1.486325145940493</v>
       </c>
       <c r="B20">
-        <v>-1.050655783656541</v>
+        <v>-0.7783760579433897</v>
       </c>
       <c r="C20">
-        <v>-1.472976169094152</v>
+        <v>-0.5237823797851477</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>0.7358651887198681</v>
+        <v>0.897377567852177</v>
       </c>
       <c r="B21">
-        <v>-0.8010950721333041</v>
+        <v>-0.125588301706586</v>
       </c>
       <c r="C21">
-        <v>-0.5256043523541835</v>
+        <v>-2.077690136437714</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>0.3085857524039537</v>
+        <v>-0.3580819132633076</v>
       </c>
       <c r="B22">
-        <v>-0.5906772188397222</v>
+        <v>1.660241688451002</v>
       </c>
       <c r="C22">
-        <v>1.916579059009767</v>
+        <v>-1.02339838545354</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>-1.159490879724451</v>
+        <v>-0.5361937413968305</v>
       </c>
       <c r="B23">
-        <v>0.3320165654504216</v>
+        <v>0.7502697682035596</v>
       </c>
       <c r="C23">
-        <v>0.5058601072482065</v>
+        <v>0.2182298141028851</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>-1.636738940565221</v>
+        <v>-0.691093766677616</v>
       </c>
       <c r="B24">
-        <v>-0.1003746710791774</v>
+        <v>1.592615639159905</v>
       </c>
       <c r="C24">
-        <v>1.227498301885044</v>
+        <v>1.281181483243615</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>-1.005615456846302</v>
+        <v>0.8705564038054427</v>
       </c>
       <c r="B25">
-        <v>-1.25932787924546</v>
+        <v>1.119669907657657</v>
       </c>
       <c r="C25">
-        <v>0.4526325628930662</v>
+        <v>-0.2628392941342246</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>0.2688988022401354</v>
+        <v>-0.07504078783069268</v>
       </c>
       <c r="B26">
-        <v>-0.6997218644676989</v>
+        <v>1.583648112113224</v>
       </c>
       <c r="C26">
-        <v>1.771449342837405</v>
+        <v>0.5067924277955755</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>0.5802389871030345</v>
+        <v>-0.7573025276422932</v>
       </c>
       <c r="B27">
-        <v>-0.1169385982208958</v>
+        <v>1.379477342181185</v>
       </c>
       <c r="C27">
-        <v>1.83939244840393</v>
+        <v>0.03770170775421607</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>0.5840204971889811</v>
+        <v>-0.3746356321908453</v>
       </c>
       <c r="B28">
-        <v>-0.5452908923751341</v>
+        <v>1.59824763112924</v>
       </c>
       <c r="C28">
-        <v>1.83460923873288</v>
+        <v>-0.25135544693099</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>-1.568673297591634</v>
+        <v>-0.8019280446967656</v>
       </c>
       <c r="B29">
-        <v>0.1870044892880638</v>
+        <v>1.800533269372265</v>
       </c>
       <c r="C29">
-        <v>1.302139256704709</v>
+        <v>-0.09039274919915198</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>-1.338987589171018</v>
+        <v>-1.113983530870257</v>
       </c>
       <c r="B30">
-        <v>0.9255936766733591</v>
+        <v>0.03622115510166534</v>
       </c>
       <c r="C30">
-        <v>0.2852147601551758</v>
+        <v>0.8212343294415895</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>1.06925713366519</v>
+        <v>-0.5150205134619212</v>
       </c>
       <c r="B31">
-        <v>0.335838602198159</v>
+        <v>-0.5016919136498492</v>
       </c>
       <c r="C31">
-        <v>0.1362998127053216</v>
+        <v>2.184823113979839</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>1.462848965057867</v>
+        <v>-1.520409199656615</v>
       </c>
       <c r="B32">
-        <v>1.52985256132866</v>
+        <v>-1.635381016611752</v>
       </c>
       <c r="C32">
-        <v>-0.3763755281867787</v>
+        <v>0.2784219594717561</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>1.417085571132732</v>
+        <v>-1.085474063538106</v>
       </c>
       <c r="B33">
-        <v>1.097906819219723</v>
+        <v>-1.438817388210911</v>
       </c>
       <c r="C33">
-        <v>-0.3094283191022203</v>
+        <v>0.6903042305509267</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>1.61144642814912</v>
+        <v>-1.17680480740936</v>
       </c>
       <c r="B34">
-        <v>1.186825193775835</v>
+        <v>-1.823615842734309</v>
       </c>
       <c r="C34">
-        <v>-0.5597415218043996</v>
+        <v>0.3419501695487979</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>-1.230427715460377</v>
+        <v>0.2241764896368242</v>
       </c>
       <c r="B35">
-        <v>0.7816742899760073</v>
+        <v>-1.744202218319407</v>
       </c>
       <c r="C35">
-        <v>-1.717014672148636</v>
+        <v>1.069798504378328</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>-0.9995889439662169</v>
+        <v>0.8629236965128589</v>
       </c>
       <c r="B36">
-        <v>-0.1286188826285551</v>
+        <v>-0.6341331280133634</v>
       </c>
       <c r="C36">
-        <v>-1.212748713496187</v>
+        <v>1.862343563550029</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>1.47289388708276</v>
+        <v>0.4617091448604485</v>
       </c>
       <c r="B37">
-        <v>-0.6342714290595434</v>
+        <v>-0.09016220958208471</v>
       </c>
       <c r="C37">
-        <v>0.05920971850270691</v>
+        <v>-0.4318082853266452</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>1.385405906346889</v>
+        <v>0.3467779755841825</v>
       </c>
       <c r="B38">
-        <v>-0.7733610453174824</v>
+        <v>0.6409284823379044</v>
       </c>
       <c r="C38">
-        <v>0.7403663860178783</v>
+        <v>-0.4543092416219758</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>1.389911363059057</v>
+        <v>0.6454871045717564</v>
       </c>
       <c r="B39">
-        <v>-0.6810673680714887</v>
+        <v>-0.005519037761885911</v>
       </c>
       <c r="C39">
-        <v>0.08841528106837074</v>
+        <v>0.638589713518825</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>-1.066611124792454</v>
+        <v>1.705580638075346</v>
       </c>
       <c r="B40">
-        <v>-2.008284250038048</v>
+        <v>1.387827471791819</v>
       </c>
       <c r="C40">
-        <v>0.6373666281104153</v>
+        <v>0.2713915217873099</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>-1.212444924877698</v>
+        <v>1.632024194937601</v>
       </c>
       <c r="B41">
-        <v>-1.211735189315507</v>
+        <v>0.1699284761292285</v>
       </c>
       <c r="C41">
-        <v>-0.5826844482092265</v>
+        <v>0.3046861298436712</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>-1.073556893625329</v>
+        <v>0.8679400231192417</v>
       </c>
       <c r="B42">
-        <v>0.06373673135374695</v>
+        <v>-0.9649724360171561</v>
       </c>
       <c r="C42">
-        <v>-1.435672582519405</v>
+        <v>0.0343801124762612</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>1.612579551286322</v>
+        <v>0.9629028207038891</v>
       </c>
       <c r="B43">
-        <v>-0.5456861928527912</v>
+        <v>-1.661105980884283</v>
       </c>
       <c r="C43">
-        <v>-1.265785292194939</v>
+        <v>-0.2174667753610437</v>
       </c>
     </row>
   </sheetData>
@@ -5756,464 +5756,464 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>0.3571518517222029</v>
+        <v>-0.3787490420552795</v>
       </c>
       <c r="B2">
-        <v>-0.7498531204617822</v>
+        <v>0.8461234807902428</v>
       </c>
       <c r="C2">
-        <v>0.8965075397105108</v>
+        <v>-0.2959319962292119</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>-1.135217834007479</v>
+        <v>1.086514175850134</v>
       </c>
       <c r="B3">
-        <v>-0.4030821738183646</v>
+        <v>0.3828276491968729</v>
       </c>
       <c r="C3">
-        <v>-0.4797824091762597</v>
+        <v>0.7065164155848078</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>-0.6750009036042723</v>
+        <v>0.7442988292324481</v>
       </c>
       <c r="B4">
-        <v>-0.1415603928524197</v>
+        <v>0.1066955252105806</v>
       </c>
       <c r="C4">
-        <v>-0.8155745075033545</v>
+        <v>1.141890011284768</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>1.257488018936734</v>
+        <v>-1.111372098329532</v>
       </c>
       <c r="B5">
-        <v>-1.825520275976911</v>
+        <v>1.845377549751338</v>
       </c>
       <c r="C5">
-        <v>-1.031268092386979</v>
+        <v>1.096015986447994</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>-0.6604689292724439</v>
+        <v>0.6721048791241663</v>
       </c>
       <c r="B6">
-        <v>0.7650705693533345</v>
+        <v>-1.015683676752011</v>
       </c>
       <c r="C6">
-        <v>-1.297326809241458</v>
+        <v>0.2827865248807495</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>-1.199690713716563</v>
+        <v>1.242111258597656</v>
       </c>
       <c r="B7">
-        <v>-1.055790485075163</v>
+        <v>0.9882057484025805</v>
       </c>
       <c r="C7">
-        <v>0.402508813942598</v>
+        <v>-0.0207256309281414</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>-1.250784011067514</v>
+        <v>1.206500887545762</v>
       </c>
       <c r="B8">
-        <v>0.8527849293699831</v>
+        <v>-0.8372764422781466</v>
       </c>
       <c r="C8">
-        <v>-0.1673258644676648</v>
+        <v>0.3319000380190064</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>0.3934781978072542</v>
+        <v>-0.4657088734044835</v>
       </c>
       <c r="B9">
-        <v>-0.5822892764446077</v>
+        <v>0.6495404349446472</v>
       </c>
       <c r="C9">
-        <v>0.3535935322422554</v>
+        <v>0.4132237705625437</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>-0.8682711660335586</v>
+        <v>0.7649878836226888</v>
       </c>
       <c r="B10">
-        <v>1.673016251418498</v>
+        <v>-1.576309467536771</v>
       </c>
       <c r="C10">
-        <v>1.165358503554242</v>
+        <v>-1.561711677454395</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>0.404348837627638</v>
+        <v>-0.008222105628186536</v>
       </c>
       <c r="B11">
-        <v>0.2655971934951626</v>
+        <v>-0.6381587827112507</v>
       </c>
       <c r="C11">
-        <v>-1.671161130537524</v>
+        <v>0.8025954234608764</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>1.818339590353963</v>
+        <v>-1.97307558281052</v>
       </c>
       <c r="B12">
-        <v>-0.3614175154885567</v>
+        <v>0.5967038901240684</v>
       </c>
       <c r="C12">
-        <v>1.341948424791087</v>
+        <v>-0.538789901979189</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>-1.74130926176371</v>
+        <v>1.704504271848912</v>
       </c>
       <c r="B13">
-        <v>-0.42287201273275</v>
+        <v>0.4398922805208179</v>
       </c>
       <c r="C13">
-        <v>1.116437397315208</v>
+        <v>-1.282335503158301</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>-1.341420247037904</v>
+        <v>1.289724279396379</v>
       </c>
       <c r="B14">
-        <v>-1.153244945538646</v>
+        <v>1.214332681668255</v>
       </c>
       <c r="C14">
-        <v>1.656676055481929</v>
+        <v>-1.743711619660117</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>0.09433081176341429</v>
+        <v>-0.1589477516613944</v>
       </c>
       <c r="B15">
-        <v>0.576835029961591</v>
+        <v>-0.4769451446576389</v>
       </c>
       <c r="C15">
-        <v>0.03203007450966464</v>
+        <v>-0.2845613334118113</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>0.6479296318998311</v>
+        <v>-0.5960927366735658</v>
       </c>
       <c r="B16">
-        <v>0.32012911031938</v>
+        <v>-0.3556141344056305</v>
       </c>
       <c r="C16">
-        <v>-0.1466495905297598</v>
+        <v>-0.9148281617103258</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>0.6628284653505168</v>
+        <v>-0.5055332721616506</v>
       </c>
       <c r="B17">
-        <v>-0.1639153565685914</v>
+        <v>-0.04931456175967598</v>
       </c>
       <c r="C17">
-        <v>-2.040936736192169</v>
+        <v>1.760749573444352</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>1.178630864774411</v>
+        <v>-1.246867792932774</v>
       </c>
       <c r="B18">
-        <v>-0.5049568610881652</v>
+        <v>0.6617845792767919</v>
       </c>
       <c r="C18">
-        <v>0.7497003612338062</v>
+        <v>0.1377094688445811</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>0.4171224936591245</v>
+        <v>-0.5382744510778873</v>
       </c>
       <c r="B19">
-        <v>1.74389990637858</v>
+        <v>-1.641342084275017</v>
       </c>
       <c r="C19">
-        <v>0.09717536193790567</v>
+        <v>-0.06659844675814362</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>-0.1910258857795565</v>
+        <v>0.006276416360744033</v>
       </c>
       <c r="B20">
-        <v>0.520394929321576</v>
+        <v>-0.3655339715978623</v>
       </c>
       <c r="C20">
-        <v>1.503228375957528</v>
+        <v>-1.267962041908858</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>0.05435060797056292</v>
+        <v>-0.1726840376776562</v>
       </c>
       <c r="B21">
-        <v>1.94936116179609</v>
+        <v>-1.85690147548237</v>
       </c>
       <c r="C21">
-        <v>0.4403280643939294</v>
+        <v>-0.334321745568877</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>1.068834046501253</v>
+        <v>-0.9926685538752612</v>
       </c>
       <c r="B22">
-        <v>0.4999850757906211</v>
+        <v>-0.8968992897782535</v>
       </c>
       <c r="C22">
-        <v>-1.001272661752424</v>
+        <v>0.5327795042617377</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>0.8279217282983135</v>
+        <v>-0.9797771499545824</v>
       </c>
       <c r="B23">
-        <v>0.9578399928757938</v>
+        <v>-0.7670357872018279</v>
       </c>
       <c r="C23">
-        <v>1.081840488619734</v>
+        <v>-1.259153527594554</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>0.8353699767268012</v>
+        <v>-0.9460965158769312</v>
       </c>
       <c r="B24">
-        <v>1.181521730752616</v>
+        <v>-1.006927484200377</v>
       </c>
       <c r="C24">
-        <v>2.160230805751939</v>
+        <v>-2.149326759308394</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>1.187878956012607</v>
+        <v>-1.224459199059195</v>
       </c>
       <c r="B25">
-        <v>0.9493312046915047</v>
+        <v>-0.8316027332824421</v>
       </c>
       <c r="C25">
-        <v>0.02630823616862065</v>
+        <v>0.8407073763605886</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>-0.8456127265761098</v>
+        <v>0.8857294616428788</v>
       </c>
       <c r="B26">
-        <v>0.2097920342335244</v>
+        <v>-0.2784349264541415</v>
       </c>
       <c r="C26">
-        <v>-1.268841017066675</v>
+        <v>1.172448171871578</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>1.107004567593026</v>
+        <v>-1.01096534541864</v>
       </c>
       <c r="B27">
-        <v>-0.4878735332382815</v>
+        <v>0.2901410750169559</v>
       </c>
       <c r="C27">
-        <v>-0.8529744217759462</v>
+        <v>-0.6209375660698876</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>0.4153727440893909</v>
+        <v>-0.2175661084651408</v>
       </c>
       <c r="B28">
-        <v>-1.700349530441109</v>
+        <v>1.696463216723666</v>
       </c>
       <c r="C28">
-        <v>-0.9357748559513325</v>
+        <v>-0.0364956936098729</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>0.8163708111496218</v>
+        <v>-0.7113312872414479</v>
       </c>
       <c r="B29">
-        <v>0.9677300688355835</v>
+        <v>-0.9202174167067173</v>
       </c>
       <c r="C29">
-        <v>-0.4651491049386849</v>
+        <v>1.155933467451174</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>-0.7944757523682247</v>
+        <v>0.8445824627865951</v>
       </c>
       <c r="B30">
-        <v>-1.147747721575879</v>
+        <v>1.151605195906785</v>
       </c>
       <c r="C30">
-        <v>0.3443422759144278</v>
+        <v>-0.08857586694113433</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>0.1910248812170018</v>
+        <v>-0.1004265731182947</v>
       </c>
       <c r="B31">
-        <v>-1.517402148031802</v>
+        <v>1.52883442240901</v>
       </c>
       <c r="C31">
-        <v>-0.1212452828198376</v>
+        <v>0.8399927765693359</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>-2.149474604523371</v>
+        <v>2.167547465619997</v>
       </c>
       <c r="B32">
-        <v>-0.2665595760243889</v>
+        <v>0.1810925770310849</v>
       </c>
       <c r="C32">
-        <v>-0.279755476834648</v>
+        <v>0.1404043774865979</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>1.560386479440894</v>
+        <v>-1.447844696424579</v>
       </c>
       <c r="B33">
-        <v>-0.1998579049743862</v>
+        <v>0.1054841410681878</v>
       </c>
       <c r="C33">
-        <v>-1.446800886021171</v>
+        <v>1.332321219138788</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>0.5200478533389291</v>
+        <v>-0.4967373660051323</v>
       </c>
       <c r="B34">
-        <v>0.03390890845568002</v>
+        <v>-0.08188769869043536</v>
       </c>
       <c r="C34">
-        <v>1.045002922894376</v>
+        <v>-2.5624166972446</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>-1.31580106052575</v>
+        <v>1.294208509081751</v>
       </c>
       <c r="B35">
-        <v>1.166508436373564</v>
+        <v>-1.169214027152767</v>
       </c>
       <c r="C35">
-        <v>-0.2204512690386604</v>
+        <v>0.03227685783229063</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>0.5463049614909894</v>
+        <v>-0.6651536838215013</v>
       </c>
       <c r="B36">
-        <v>-0.5111339524146273</v>
+        <v>0.6780216272813828</v>
       </c>
       <c r="C36">
-        <v>1.176112997592032</v>
+        <v>-0.2743833757794085</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>0.7720826417544208</v>
+        <v>-0.8959318708978795</v>
       </c>
       <c r="B37">
-        <v>-1.080631781019794</v>
+        <v>1.275697795101951</v>
       </c>
       <c r="C37">
-        <v>0.6166067294163637</v>
+        <v>0.2772672680767338</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>-0.267083360304326</v>
+        <v>0.2816480497420911</v>
       </c>
       <c r="B38">
-        <v>1.143582652629256</v>
+        <v>-1.140898578941739</v>
       </c>
       <c r="C38">
-        <v>-1.233204193038559</v>
+        <v>1.496293699600574</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>0.2292605679211312</v>
+        <v>-0.1461016600750277</v>
       </c>
       <c r="B39">
-        <v>-0.6575281059199215</v>
+        <v>0.3492636615035781</v>
       </c>
       <c r="C39">
-        <v>-0.6645852098375197</v>
+        <v>-0.1022374329938704</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>0.1948104032858818</v>
+        <v>-0.2943418599323409</v>
       </c>
       <c r="B40">
-        <v>0.6445765060334797</v>
+        <v>-0.5930376706553745</v>
       </c>
       <c r="C40">
-        <v>-0.2929519925752352</v>
+        <v>1.077705554192188</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>-0.1116714023252822</v>
+        <v>0.06792897357635598</v>
       </c>
       <c r="B41">
-        <v>-2.037835737354348</v>
+        <v>2.159900138087294</v>
       </c>
       <c r="C41">
-        <v>1.288768540017819</v>
+        <v>-1.091770912544209</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>-0.6743369410384861</v>
+        <v>0.6451199279140919</v>
       </c>
       <c r="B42">
-        <v>1.338454169314066</v>
+        <v>-1.272905894638499</v>
       </c>
       <c r="C42">
-        <v>-0.1232847257077827</v>
+        <v>0.1661502541526373</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>-2.337025190741364</v>
+        <v>2.381141882636234</v>
       </c>
       <c r="B43">
-        <v>-0.7888974543593882</v>
+        <v>0.6241535791428581</v>
       </c>
       <c r="C43">
-        <v>-0.9383892640523321</v>
+        <v>0.7591081513293992</v>
       </c>
     </row>
   </sheetData>

--- a/tables/monthly_tables/detrended_covar/pc_timeseries.xlsx
+++ b/tables/monthly_tables/detrended_covar/pc_timeseries.xlsx
@@ -410,464 +410,464 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>-1.476737590684252</v>
+        <v>-1.741656257912051</v>
       </c>
       <c r="B2">
-        <v>0.0405481481383947</v>
+        <v>0.5863127715847982</v>
       </c>
       <c r="C2">
-        <v>-1.286522276062608</v>
+        <v>-0.6120012620451634</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>-1.242361784654254</v>
+        <v>-1.131523651724899</v>
       </c>
       <c r="B3">
-        <v>-0.01795110278995953</v>
+        <v>-0.07586780925237926</v>
       </c>
       <c r="C3">
-        <v>-0.5913948561737028</v>
+        <v>-0.03906901798752764</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>1.186202576302203</v>
+        <v>2.422782130403071</v>
       </c>
       <c r="B4">
-        <v>1.509600774653263</v>
+        <v>-2.640385429425111</v>
       </c>
       <c r="C4">
-        <v>1.250209211755711</v>
+        <v>-1.471365213159364</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>-1.361231273140449</v>
+        <v>-1.238327107747151</v>
       </c>
       <c r="B5">
-        <v>0.631939502433863</v>
+        <v>-0.1434650696904816</v>
       </c>
       <c r="C5">
-        <v>-0.9091261263403876</v>
+        <v>-0.7333525811957267</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>1.169010054855945</v>
+        <v>0.8336773287223771</v>
       </c>
       <c r="B6">
-        <v>-0.8957105486878738</v>
+        <v>0.903450201821813</v>
       </c>
       <c r="C6">
-        <v>-0.3616136743655165</v>
+        <v>0.6340611760841228</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>0.1526605653867008</v>
+        <v>0.1619648953288587</v>
       </c>
       <c r="B7">
-        <v>0.4075213797729598</v>
+        <v>-0.5505489901064432</v>
       </c>
       <c r="C7">
-        <v>0.9863658122312896</v>
+        <v>0.3291856919523863</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>-1.456129224721284</v>
+        <v>-1.91784629280002</v>
       </c>
       <c r="B8">
-        <v>0.6094190282313532</v>
+        <v>0.7239402971946594</v>
       </c>
       <c r="C8">
-        <v>-1.693965204948385</v>
+        <v>-1.658563437824239</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>-0.549540610959628</v>
+        <v>-0.4397450215387399</v>
       </c>
       <c r="B9">
-        <v>-1.292320330845343</v>
+        <v>-0.2568887118838687</v>
       </c>
       <c r="C9">
-        <v>1.29885628912692</v>
+        <v>1.503920221864168</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>-1.334627610948055</v>
+        <v>-1.2711950200261</v>
       </c>
       <c r="B10">
-        <v>-0.3849189207484812</v>
+        <v>-0.7496227552899806</v>
       </c>
       <c r="C10">
-        <v>0.9087112971180424</v>
+        <v>0.4822036859290058</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>1.146188303557897</v>
+        <v>0.6886264590673724</v>
       </c>
       <c r="B11">
-        <v>-0.1444064908161439</v>
+        <v>1.056023982132777</v>
       </c>
       <c r="C11">
-        <v>-0.8720579984173035</v>
+        <v>-0.1348464543007</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>1.73872020933861</v>
+        <v>1.634776151644571</v>
       </c>
       <c r="B12">
-        <v>-0.9865706837264993</v>
+        <v>1.612205557548058</v>
       </c>
       <c r="C12">
-        <v>-0.7399296665959223</v>
+        <v>0.644294280328119</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>1.266418232880457</v>
+        <v>0.9670600916892492</v>
       </c>
       <c r="B13">
-        <v>-0.5916931239476455</v>
+        <v>0.6372189673280891</v>
       </c>
       <c r="C13">
-        <v>-0.4990182905590459</v>
+        <v>0.4968203791402969</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>1.329022851505155</v>
+        <v>0.9641278281591474</v>
       </c>
       <c r="B14">
-        <v>0.7298179665479997</v>
+        <v>0.2710970232781243</v>
       </c>
       <c r="C14">
-        <v>-0.1877524819339608</v>
+        <v>-0.5828167536350971</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>0.5812455278840524</v>
+        <v>0.3689770417013242</v>
       </c>
       <c r="B15">
-        <v>-0.1902616943603049</v>
+        <v>0.4937166058210218</v>
       </c>
       <c r="C15">
-        <v>-0.3644147065528954</v>
+        <v>-0.04593979202099138</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>1.099850279780919</v>
+        <v>0.7630690731466345</v>
       </c>
       <c r="B16">
-        <v>-0.5381992621660433</v>
+        <v>1.006092637020632</v>
       </c>
       <c r="C16">
-        <v>-0.6606397987202797</v>
+        <v>0.1959424912364789</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>0.733953774567949</v>
+        <v>0.8302132931116307</v>
       </c>
       <c r="B17">
-        <v>1.207386208269671</v>
+        <v>-1.17723573314294</v>
       </c>
       <c r="C17">
-        <v>1.049048495967852</v>
+        <v>-0.02988094637354679</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>-0.1500259633817592</v>
+        <v>-0.1111726903431871</v>
       </c>
       <c r="B18">
-        <v>-1.562078920540477</v>
+        <v>0.1325935019908626</v>
       </c>
       <c r="C18">
-        <v>0.6993283753712141</v>
+        <v>1.59007928785673</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>-0.3545801538047124</v>
+        <v>-0.1715680522803005</v>
       </c>
       <c r="B19">
-        <v>-0.1442287400677662</v>
+        <v>-1.049344104262095</v>
       </c>
       <c r="C19">
-        <v>1.912590481414882</v>
+        <v>1.03350658614901</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>-1.211409082587112</v>
+        <v>-0.9010090891915475</v>
       </c>
       <c r="B20">
-        <v>0.1738230202934877</v>
+        <v>-0.9294324295649135</v>
       </c>
       <c r="C20">
-        <v>1.098964007357876</v>
+        <v>0.4381406208026121</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>1.119197027229504</v>
+        <v>0.8166471701971185</v>
       </c>
       <c r="B21">
-        <v>-0.6701942410159794</v>
+        <v>0.8506156789962653</v>
       </c>
       <c r="C21">
-        <v>-0.298084297626679</v>
+        <v>0.528342384427581</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>0.7774139405041181</v>
+        <v>1.006848490899583</v>
       </c>
       <c r="B22">
-        <v>-0.6743674962977975</v>
+        <v>-0.9272409200509593</v>
       </c>
       <c r="C22">
-        <v>1.902126474809481</v>
+        <v>1.859693944903757</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>-0.3468580639737691</v>
+        <v>-0.2901797101957856</v>
       </c>
       <c r="B23">
-        <v>-0.1855805076232331</v>
+        <v>-0.5894348194196491</v>
       </c>
       <c r="C23">
-        <v>0.9411153010532423</v>
+        <v>0.3035811031814832</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>0.3226590325726201</v>
+        <v>0.4767589993421115</v>
       </c>
       <c r="B24">
-        <v>1.720296536716089</v>
+        <v>-1.318053558524847</v>
       </c>
       <c r="C24">
-        <v>0.8930424868995335</v>
+        <v>-0.9412260691447505</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>-0.269561915028915</v>
+        <v>-0.3990561771897269</v>
       </c>
       <c r="B25">
-        <v>-1.875476714519983</v>
+        <v>0.7732441095991915</v>
       </c>
       <c r="C25">
-        <v>-0.2347446008130622</v>
+        <v>1.305715260014112</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>-0.6914399695432624</v>
+        <v>-0.7815167544221068</v>
       </c>
       <c r="B26">
-        <v>0.7984884262870948</v>
+        <v>-0.04017536846422543</v>
       </c>
       <c r="C26">
-        <v>-0.9864649272407863</v>
+        <v>-1.662230724287593</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>-0.6495299412199862</v>
+        <v>-0.5987751523716618</v>
       </c>
       <c r="B27">
-        <v>-0.9749426032362088</v>
+        <v>-0.1597644164664444</v>
       </c>
       <c r="C27">
-        <v>1.229868323171357</v>
+        <v>0.911303842418577</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>0.8366160381566256</v>
+        <v>0.8202160954363138</v>
       </c>
       <c r="B28">
-        <v>1.327872028298372</v>
+        <v>-0.4583224619074928</v>
       </c>
       <c r="C28">
-        <v>-0.1472519731407436</v>
+        <v>-0.994178657820091</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>-0.2642775955948393</v>
+        <v>-0.5687067001916747</v>
       </c>
       <c r="B29">
-        <v>-0.7843385596231843</v>
+        <v>1.62937424032787</v>
       </c>
       <c r="C29">
-        <v>-2.034168603005036</v>
+        <v>-0.4405247217258633</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>1.144908764500385</v>
+        <v>1.270032302424517</v>
       </c>
       <c r="B30">
-        <v>1.33883175758812</v>
+        <v>-0.4149023100637571</v>
       </c>
       <c r="C30">
-        <v>-0.356801040547042</v>
+        <v>-1.044278220255004</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>1.076085728091101</v>
+        <v>0.6217087877102854</v>
       </c>
       <c r="B31">
-        <v>-0.1991923157352805</v>
+        <v>3.479681810781904</v>
       </c>
       <c r="C31">
-        <v>-2.397809491278903</v>
+        <v>-2.110424714587837</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>-1.157721734416035</v>
+        <v>-0.897368538302377</v>
       </c>
       <c r="B32">
-        <v>0.2166016874575412</v>
+        <v>-0.1403409558572003</v>
       </c>
       <c r="C32">
-        <v>-0.752301419395211</v>
+        <v>-0.1966567495111382</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>-1.56393255892989</v>
+        <v>-1.244205198314116</v>
       </c>
       <c r="B33">
-        <v>1.277010875736301</v>
+        <v>-1.250274657460722</v>
       </c>
       <c r="C33">
-        <v>0.1136576528783934</v>
+        <v>-0.8158837601595242</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>-0.485994314275967</v>
+        <v>-0.3953155431389085</v>
       </c>
       <c r="B34">
-        <v>1.411694879553017</v>
+        <v>-0.7906502876889655</v>
       </c>
       <c r="C34">
-        <v>0.424714510026508</v>
+        <v>-0.8636239577725812</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>0.6061473168357245</v>
+        <v>0.367447381538838</v>
       </c>
       <c r="B35">
-        <v>-1.542074697890401</v>
+        <v>0.9399630677859995</v>
       </c>
       <c r="C35">
-        <v>-0.7311146502868817</v>
+        <v>0.9639653088717525</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>-1.481662132895299</v>
+        <v>-1.335201297232748</v>
       </c>
       <c r="B36">
-        <v>0.6287780346689071</v>
+        <v>-0.200484736028987</v>
       </c>
       <c r="C36">
-        <v>-0.6897512025189594</v>
+        <v>-0.8762798948064879</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>-0.1535168483035659</v>
+        <v>-0.1172623615778069</v>
       </c>
       <c r="B37">
-        <v>0.6633049050270613</v>
+        <v>-0.4121380826180026</v>
       </c>
       <c r="C37">
-        <v>-0.3802644755417861</v>
+        <v>-0.2055193523436314</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>-0.4452674920289469</v>
+        <v>-0.3702908763937436</v>
       </c>
       <c r="B38">
-        <v>-0.5100437235183525</v>
+        <v>-0.4059868981246817</v>
       </c>
       <c r="C38">
-        <v>1.053254711408348</v>
+        <v>0.7534103980271483</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>-0.5322394151295367</v>
+        <v>-0.3345683121297465</v>
       </c>
       <c r="B39">
-        <v>0.8860028305167926</v>
+        <v>-0.5401457425518997</v>
       </c>
       <c r="C39">
-        <v>0.552910776741979</v>
+        <v>-0.3947681262877965</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>-1.116169968455784</v>
+        <v>-1.081227969516085</v>
       </c>
       <c r="B40">
-        <v>-1.413825537118188</v>
+        <v>0.2905286874621205</v>
       </c>
       <c r="C40">
-        <v>-0.1648624168864185</v>
+        <v>1.106086038748216</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>0.5615757410691178</v>
+        <v>0.5613316067747065</v>
       </c>
       <c r="B41">
-        <v>1.641797219814539</v>
+        <v>-0.4096699251599568</v>
       </c>
       <c r="C41">
-        <v>-0.4012102971562526</v>
+        <v>-1.286776801365803</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>-0.2821449429140631</v>
+        <v>-0.335715539731008</v>
       </c>
       <c r="B42">
-        <v>-2.009483792265689</v>
+        <v>0.3342935948839553</v>
       </c>
       <c r="C42">
-        <v>0.6940940174975974</v>
+        <v>2.183491774448625</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>1.729084222572278</v>
+        <v>2.097168186973781</v>
       </c>
       <c r="B43">
-        <v>0.3671247975360081</v>
+        <v>-0.08997656255213854</v>
       </c>
       <c r="C43">
-        <v>0.7324062512775414</v>
+        <v>-0.1235372677737252</v>
       </c>
     </row>
   </sheetData>
@@ -896,464 +896,464 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>0.1205897824236129</v>
+        <v>-0.5348760566681384</v>
       </c>
       <c r="B2">
-        <v>0.2386284666074142</v>
+        <v>2.122705978417591</v>
       </c>
       <c r="C2">
-        <v>1.893420639779824</v>
+        <v>0.147109544300767</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>0.05267158727366774</v>
+        <v>-0.2034289360548698</v>
       </c>
       <c r="B3">
-        <v>0.05425670105349095</v>
+        <v>2.438157799217712</v>
       </c>
       <c r="C3">
-        <v>2.242484340330755</v>
+        <v>0.4313677522305956</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>0.4728698238662378</v>
+        <v>0.8637379173542459</v>
       </c>
       <c r="B4">
-        <v>-0.1890250773545158</v>
+        <v>-0.9122482783826796</v>
       </c>
       <c r="C4">
-        <v>-0.2346253889423799</v>
+        <v>-0.2109977222682926</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>1.652260690857677</v>
+        <v>1.278078374389052</v>
       </c>
       <c r="B5">
-        <v>-0.5386606169352557</v>
+        <v>0.6070286989885144</v>
       </c>
       <c r="C5">
-        <v>-0.06181901762530725</v>
+        <v>1.129959821227846</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>-0.8065314018244232</v>
+        <v>-0.05877991498500605</v>
       </c>
       <c r="B6">
-        <v>-1.078421861231754</v>
+        <v>-1.455959743462704</v>
       </c>
       <c r="C6">
-        <v>-0.4211924146851856</v>
+        <v>0.5827847759096698</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>0.1285169442977064</v>
+        <v>0.05952216058996537</v>
       </c>
       <c r="B7">
-        <v>-0.8242445683248287</v>
+        <v>0.7035590659536016</v>
       </c>
       <c r="C7">
-        <v>2.071674174242666</v>
+        <v>0.7736664750950462</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>1.441000212434676</v>
+        <v>1.74162205770713</v>
       </c>
       <c r="B8">
-        <v>-1.369371059562006</v>
+        <v>-1.190145279758471</v>
       </c>
       <c r="C8">
-        <v>-0.8650199205826173</v>
+        <v>0.8433701741384334</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>0.009344151031934683</v>
+        <v>0.5356636161069419</v>
       </c>
       <c r="B9">
-        <v>1.057284370068251</v>
+        <v>-1.450487646626825</v>
       </c>
       <c r="C9">
-        <v>-1.817508752482306</v>
+        <v>-1.659647435183184</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>-1.062665449202686</v>
+        <v>-1.06758635991056</v>
       </c>
       <c r="B10">
-        <v>0.6827917017334932</v>
+        <v>0.390713343809419</v>
       </c>
       <c r="C10">
-        <v>0.3007352985246184</v>
+        <v>0.1554201378078698</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>-1.026183751070944</v>
+        <v>-1.45156919450357</v>
       </c>
       <c r="B11">
-        <v>2.128444354004027</v>
+        <v>0.5526655596401059</v>
       </c>
       <c r="C11">
-        <v>0.1818524538106873</v>
+        <v>-1.452066251413174</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>-0.357332604480234</v>
+        <v>-0.38358279957088</v>
       </c>
       <c r="B12">
-        <v>-1.069831144943195</v>
+        <v>-0.4115788174220993</v>
       </c>
       <c r="C12">
-        <v>-0.9159887388000247</v>
+        <v>0.6733699343507362</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>-0.3642230735406266</v>
+        <v>-0.9237494785698654</v>
       </c>
       <c r="B13">
-        <v>1.129343788494779</v>
+        <v>-0.1513410677429172</v>
       </c>
       <c r="C13">
-        <v>-1.349900715679226</v>
+        <v>-0.5427294384644518</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>-0.5096498629401685</v>
+        <v>-0.02439393445753306</v>
       </c>
       <c r="B14">
-        <v>1.465142746013615</v>
+        <v>0.1435688775964047</v>
       </c>
       <c r="C14">
-        <v>0.6637095279761318</v>
+        <v>-1.255878175602975</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>-0.0427832153158194</v>
+        <v>-0.1165178587112443</v>
       </c>
       <c r="B15">
-        <v>1.485485901437469</v>
+        <v>-1.175584382622416</v>
       </c>
       <c r="C15">
-        <v>-1.995204028871799</v>
+        <v>-2.173334013715045</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>1.360363782963062</v>
+        <v>0.6154316687167906</v>
       </c>
       <c r="B16">
-        <v>0.255414004945293</v>
+        <v>0.9535076873087514</v>
       </c>
       <c r="C16">
-        <v>-0.1397179032530248</v>
+        <v>-0.03824158324786372</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>-1.623694131512733</v>
+        <v>-1.661931248194006</v>
       </c>
       <c r="B17">
-        <v>0.8007321363951373</v>
+        <v>-0.1671158378334567</v>
       </c>
       <c r="C17">
-        <v>0.06935625055022909</v>
+        <v>-0.3169420605990337</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>0.2324663188632884</v>
+        <v>-0.2567298340999311</v>
       </c>
       <c r="B18">
-        <v>0.9412387550017259</v>
+        <v>0.01331724735403741</v>
       </c>
       <c r="C18">
-        <v>-1.136719811995079</v>
+        <v>-0.4439230612416086</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>0.4799314844123275</v>
+        <v>1.019549911298669</v>
       </c>
       <c r="B19">
-        <v>0.1672225964883492</v>
+        <v>-1.964602458002425</v>
       </c>
       <c r="C19">
-        <v>-1.745618475315381</v>
+        <v>-0.7699507801803941</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>-0.196672288971524</v>
+        <v>0.1545095214494953</v>
       </c>
       <c r="B20">
-        <v>0.5081023195167809</v>
+        <v>-0.9556155839049749</v>
       </c>
       <c r="C20">
-        <v>-0.199328706536588</v>
+        <v>-1.549610635604549</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>0.137051791195651</v>
+        <v>0.5010965794831983</v>
       </c>
       <c r="B21">
-        <v>-1.852765662663818</v>
+        <v>-1.817486395363158</v>
       </c>
       <c r="C21">
-        <v>-1.410481767553944</v>
+        <v>1.290652225829614</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>-0.7222280749140472</v>
+        <v>-0.4704793974712045</v>
       </c>
       <c r="B22">
-        <v>-1.800750922828696</v>
+        <v>-0.3620227311655883</v>
       </c>
       <c r="C22">
-        <v>0.4451897090694151</v>
+        <v>1.515947417665731</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>-0.9219035668060057</v>
+        <v>-0.6472851380917556</v>
       </c>
       <c r="B23">
-        <v>-1.238812975465003</v>
+        <v>-1.056100596708157</v>
       </c>
       <c r="C23">
-        <v>-0.6721553567514118</v>
+        <v>1.452665942669175</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>0.2814031642972804</v>
+        <v>-0.2834495463068226</v>
       </c>
       <c r="B24">
-        <v>0.01622257762428445</v>
+        <v>0.5697319195311483</v>
       </c>
       <c r="C24">
-        <v>-0.3818628470016994</v>
+        <v>0.5884083406001898</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>1.776949003839138</v>
+        <v>2.590051167110055</v>
       </c>
       <c r="B25">
-        <v>0.4563492643681315</v>
+        <v>1.196554495702754</v>
       </c>
       <c r="C25">
-        <v>0.5175015511794764</v>
+        <v>-0.938014682296396</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>0.4229276889983746</v>
+        <v>0.3954738304427838</v>
       </c>
       <c r="B26">
-        <v>0.5918741613973193</v>
+        <v>1.444418235254615</v>
       </c>
       <c r="C26">
-        <v>1.539196922284163</v>
+        <v>0.0784026433526772</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>0.9894557994369181</v>
+        <v>0.4651421249797553</v>
       </c>
       <c r="B27">
-        <v>0.2324328356176306</v>
+        <v>0.8097898003581959</v>
       </c>
       <c r="C27">
-        <v>0.6452268142291189</v>
+        <v>0.1558103264192727</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>-1.126733698018774</v>
+        <v>-1.177822396326401</v>
       </c>
       <c r="B28">
-        <v>-1.45727707703043</v>
+        <v>-0.06041141397562316</v>
       </c>
       <c r="C28">
-        <v>0.3167113681892012</v>
+        <v>1.038444488504656</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>1.496114341901478</v>
+        <v>0.5794618637774619</v>
       </c>
       <c r="B29">
-        <v>-0.305767397670359</v>
+        <v>1.561461037405585</v>
       </c>
       <c r="C29">
-        <v>1.364513534333507</v>
+        <v>0.6645871662382244</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>-2.150385632386759</v>
+        <v>-2.121106389115945</v>
       </c>
       <c r="B30">
-        <v>-0.6998535451643633</v>
+        <v>-0.6134212466196344</v>
       </c>
       <c r="C30">
-        <v>-0.247055923867248</v>
+        <v>0.805017495981864</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>-0.9104853454707845</v>
+        <v>-0.7345021543844701</v>
       </c>
       <c r="B31">
-        <v>-0.980844018244606</v>
+        <v>-1.165549725754931</v>
       </c>
       <c r="C31">
-        <v>-0.9503563035444546</v>
+        <v>0.4044613128347352</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>0.6382033264855465</v>
+        <v>0.9264781709475771</v>
       </c>
       <c r="B32">
-        <v>1.406727876670081</v>
+        <v>0.4011497878331928</v>
       </c>
       <c r="C32">
-        <v>0.2909632448530599</v>
+        <v>-1.817868800446417</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>-0.9626248658975856</v>
+        <v>-0.6081941385609317</v>
       </c>
       <c r="B33">
-        <v>-1.1713924479062</v>
+        <v>-0.594358092472594</v>
       </c>
       <c r="C33">
-        <v>0.3966981950131092</v>
+        <v>0.5452875850655061</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>-1.92002649203934</v>
+        <v>-1.710766195403174</v>
       </c>
       <c r="B34">
-        <v>0.09363268805204752</v>
+        <v>0.2192360968636545</v>
       </c>
       <c r="C34">
-        <v>0.3087216268533907</v>
+        <v>0.1594820600440651</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>-1.23904431363331</v>
+        <v>-0.9231670558773122</v>
       </c>
       <c r="B35">
-        <v>-0.2237044586814698</v>
+        <v>0.1099776564625538</v>
       </c>
       <c r="C35">
-        <v>1.353890083228387</v>
+        <v>0.3182917271450307</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>1.39119810796839</v>
+        <v>0.9857116243448534</v>
       </c>
       <c r="B36">
-        <v>-0.4357224967250682</v>
+        <v>1.033353618381725</v>
       </c>
       <c r="C36">
-        <v>0.8712263203801819</v>
+        <v>0.2532331846161457</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>1.507847957413645</v>
+        <v>1.565441035556023</v>
       </c>
       <c r="B37">
-        <v>-0.9715294531059236</v>
+        <v>-0.1643294585310467</v>
       </c>
       <c r="C37">
-        <v>-0.5567771006428232</v>
+        <v>1.407158413444643</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>1.183516935479377</v>
+        <v>0.8586370631360997</v>
       </c>
       <c r="B38">
-        <v>0.2148157851603461</v>
+        <v>0.5341389091414805</v>
       </c>
       <c r="C38">
-        <v>-0.871071605359602</v>
+        <v>0.2690591995647755</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>0.3025017214742775</v>
+        <v>0.5763662895845809</v>
       </c>
       <c r="B39">
-        <v>-0.2011792695059036</v>
+        <v>-0.2881326377951947</v>
       </c>
       <c r="C39">
-        <v>0.4069305669837306</v>
+        <v>0.7650506200813989</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>-0.3779007711817636</v>
+        <v>-0.4055123990280651</v>
       </c>
       <c r="B40">
-        <v>-0.9271956264391849</v>
+        <v>-0.05692553803312972</v>
       </c>
       <c r="C40">
-        <v>-0.1801351177586401</v>
+        <v>0.6402849582551058</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>-0.950637238493758</v>
+        <v>-1.352340527971317</v>
       </c>
       <c r="B41">
-        <v>2.01439064240648</v>
+        <v>0.9165683480770103</v>
       </c>
       <c r="C41">
-        <v>0.4599435461083363</v>
+        <v>-2.449846034872475</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>0.5323782515584711</v>
+        <v>0.9670379256004067</v>
       </c>
       <c r="B42">
-        <v>0.4562060466455845</v>
+        <v>-0.571113162234191</v>
       </c>
       <c r="C42">
-        <v>-0.1518700799678745</v>
+        <v>-0.6750444523005733</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>0.6621429092285459</v>
+        <v>0.4387580516879191</v>
       </c>
       <c r="B43">
-        <v>0.9396099600808511</v>
+        <v>-0.1370740688858361</v>
       </c>
       <c r="C43">
-        <v>-0.03553619070337473</v>
+        <v>-0.7951985959373432</v>
       </c>
     </row>
   </sheetData>
@@ -1382,464 +1382,464 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>0.4409580042703314</v>
+        <v>-0.04015977692605305</v>
       </c>
       <c r="B2">
-        <v>-0.7175522343446301</v>
+        <v>1.413372952206222</v>
       </c>
       <c r="C2">
-        <v>0.9903022324740146</v>
+        <v>-1.396190678639784</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>-1.254005849466811</v>
+        <v>-1.734007772605173</v>
       </c>
       <c r="B3">
-        <v>-0.8375359871856839</v>
+        <v>-1.187803844671037</v>
       </c>
       <c r="C3">
-        <v>-0.3928605115177323</v>
+        <v>-0.65840921627601</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>0.3329977458052518</v>
+        <v>0.3901681481010889</v>
       </c>
       <c r="B4">
-        <v>0.08904477154353978</v>
+        <v>1.325579141916719</v>
       </c>
       <c r="C4">
-        <v>2.224705727312254</v>
+        <v>-0.2201802928425222</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>1.403365841627552</v>
+        <v>0.9595155225150631</v>
       </c>
       <c r="B5">
-        <v>0.7013800033882918</v>
+        <v>0.6128548185647458</v>
       </c>
       <c r="C5">
-        <v>-0.2237002971114836</v>
+        <v>0.3237122165110272</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>0.0632174235383475</v>
+        <v>-0.2694127982816575</v>
       </c>
       <c r="B6">
-        <v>-0.1131623314307336</v>
+        <v>1.016697409191238</v>
       </c>
       <c r="C6">
-        <v>1.114207818981062</v>
+        <v>-0.4109869498217321</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>1.329243620426009</v>
+        <v>1.13519803550274</v>
       </c>
       <c r="B7">
-        <v>0.8518509629036279</v>
+        <v>0.2068666063898916</v>
       </c>
       <c r="C7">
-        <v>-0.4783225978713462</v>
+        <v>0.5606759977552432</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>1.047303608743932</v>
+        <v>1.849802573638525</v>
       </c>
       <c r="B8">
-        <v>-0.03752776584903682</v>
+        <v>-0.6038326533183846</v>
       </c>
       <c r="C8">
-        <v>0.3676582267969202</v>
+        <v>0.4309643190218899</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>1.626030784529409</v>
+        <v>1.295761540100756</v>
       </c>
       <c r="B9">
-        <v>0.2323905282148155</v>
+        <v>-0.3255696379178981</v>
       </c>
       <c r="C9">
-        <v>-1.357032404039086</v>
+        <v>0.1645108846378248</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>-1.046180913171051</v>
+        <v>-1.022850231156102</v>
       </c>
       <c r="B10">
-        <v>0.8841819570634804</v>
+        <v>1.22324356711157</v>
       </c>
       <c r="C10">
-        <v>1.716442032192687</v>
+        <v>0.6171840632840817</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>-1.141435262655244</v>
+        <v>-1.31879678004999</v>
       </c>
       <c r="B11">
-        <v>0.4604887832776104</v>
+        <v>-0.4711526929134539</v>
       </c>
       <c r="C11">
-        <v>-1.455102405333293</v>
+        <v>0.6644729250311097</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>-0.2009619873624613</v>
+        <v>0.244367888024073</v>
       </c>
       <c r="B12">
-        <v>-1.003222963438334</v>
+        <v>-1.138613976203365</v>
       </c>
       <c r="C12">
-        <v>-1.116667970045773</v>
+        <v>-0.27413067484718</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>0.3695241785874113</v>
+        <v>-0.06076490216514694</v>
       </c>
       <c r="B13">
-        <v>0.7359799704259929</v>
+        <v>1.079882859608205</v>
       </c>
       <c r="C13">
-        <v>0.2724647732596821</v>
+        <v>0.2611209985055977</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>0.2439803081010375</v>
+        <v>0.3833767780097049</v>
       </c>
       <c r="B14">
-        <v>0.5327185381569253</v>
+        <v>-0.5785000487086064</v>
       </c>
       <c r="C14">
-        <v>-1.498559555835604</v>
+        <v>0.5737338036795742</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>-0.2055928425806478</v>
+        <v>0.0806264916377528</v>
       </c>
       <c r="B15">
-        <v>0.8747655548913479</v>
+        <v>-0.3076642954331781</v>
       </c>
       <c r="C15">
-        <v>-0.5623124245622306</v>
+        <v>0.9228672279890567</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>-0.01599826010419443</v>
+        <v>0.8258780088574997</v>
       </c>
       <c r="B16">
-        <v>0.8430731231638674</v>
+        <v>-1.346232530013254</v>
       </c>
       <c r="C16">
-        <v>-1.027839316511882</v>
+        <v>1.564398714037182</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>-0.9199057376085074</v>
+        <v>-0.9326613224123634</v>
       </c>
       <c r="B17">
-        <v>0.7493114934145144</v>
+        <v>0.1540409306118784</v>
       </c>
       <c r="C17">
-        <v>-0.5327149834515413</v>
+        <v>0.788384745009766</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>-1.077595279087652</v>
+        <v>-0.4705835647807708</v>
       </c>
       <c r="B18">
-        <v>-1.439803158713544</v>
+        <v>-2.712745902333738</v>
       </c>
       <c r="C18">
-        <v>-1.195026325526665</v>
+        <v>-0.7356617193397538</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>1.523878408957677</v>
+        <v>1.767902198726935</v>
       </c>
       <c r="B19">
-        <v>-1.223364557527365</v>
+        <v>-0.003268397870812497</v>
       </c>
       <c r="C19">
-        <v>0.3363778780558583</v>
+        <v>-1.6804256693527</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>-0.5636156480706195</v>
+        <v>-0.3257678017047804</v>
       </c>
       <c r="B20">
-        <v>-1.110502352896342</v>
+        <v>-0.8359436831663659</v>
       </c>
       <c r="C20">
-        <v>0.1008328708765495</v>
+        <v>-0.9330879318479868</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>-1.362855733978836</v>
+        <v>-1.096222653700442</v>
       </c>
       <c r="B21">
-        <v>-0.3811591449914775</v>
+        <v>-0.6195814141568058</v>
       </c>
       <c r="C21">
-        <v>0.1951630602497652</v>
+        <v>-0.0349572712039963</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>-1.869002072763183</v>
+        <v>-1.980953554050469</v>
       </c>
       <c r="B22">
-        <v>0.451987173279356</v>
+        <v>-0.05703137235270628</v>
       </c>
       <c r="C22">
-        <v>0.3921070901233583</v>
+        <v>0.86250448468861</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>1.615751906323535</v>
+        <v>1.83559223966844</v>
       </c>
       <c r="B23">
-        <v>0.2802015760150302</v>
+        <v>0.3790660413520822</v>
       </c>
       <c r="C23">
-        <v>0.06325559266117071</v>
+        <v>0.2054040949041828</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>-1.275491290629121</v>
+        <v>-1.186272892508863</v>
       </c>
       <c r="B24">
-        <v>0.7461847699292878</v>
+        <v>-0.169686379465801</v>
       </c>
       <c r="C24">
-        <v>-0.454084277277051</v>
+        <v>1.030486539284779</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>0.2588338619024093</v>
+        <v>0.4733495777224016</v>
       </c>
       <c r="B25">
-        <v>-1.188177357794004</v>
+        <v>-0.7032696181002857</v>
       </c>
       <c r="C25">
-        <v>0.3618517164508204</v>
+        <v>-0.8888800888620928</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>1.591518258499369</v>
+        <v>1.15852672092616</v>
       </c>
       <c r="B26">
-        <v>0.7728651098603453</v>
+        <v>0.3602394543187651</v>
       </c>
       <c r="C26">
-        <v>-0.2370342820096986</v>
+        <v>0.3446399263930019</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>-1.340172958043921</v>
+        <v>-1.397051093958086</v>
       </c>
       <c r="B27">
-        <v>-1.057736724872</v>
+        <v>0.2187942348632983</v>
       </c>
       <c r="C27">
-        <v>0.4600468318205383</v>
+        <v>-1.068593833994851</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>-0.7114522305560849</v>
+        <v>-1.442848843128168</v>
       </c>
       <c r="B28">
-        <v>-1.206832894176838</v>
+        <v>1.11963995722021</v>
       </c>
       <c r="C28">
-        <v>0.7476425397589246</v>
+        <v>-1.914728421873118</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>-0.7025878328094121</v>
+        <v>-0.2703721000422308</v>
       </c>
       <c r="B29">
-        <v>0.630424926203785</v>
+        <v>-0.6451066085052035</v>
       </c>
       <c r="C29">
-        <v>-0.7693408972745548</v>
+        <v>0.8986950423048944</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>-1.875556895189936</v>
+        <v>-1.461568521101826</v>
       </c>
       <c r="B30">
-        <v>-0.1123025340736774</v>
+        <v>-1.639521647403485</v>
       </c>
       <c r="C30">
-        <v>-1.205203559867147</v>
+        <v>0.5048434801317353</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>-0.4223000680651462</v>
+        <v>-0.8549878465436375</v>
       </c>
       <c r="B31">
-        <v>-2.089622507519624</v>
+        <v>0.2748732232308588</v>
       </c>
       <c r="C31">
-        <v>0.6029715342078531</v>
+        <v>-2.451577438584976</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>0.05793844182720362</v>
+        <v>-0.2227946893516017</v>
       </c>
       <c r="B32">
-        <v>0.8663264929544783</v>
+        <v>2.852273346227793</v>
       </c>
       <c r="C32">
-        <v>2.197807180711294</v>
+        <v>0.3605079878742618</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>0.2750154055164382</v>
+        <v>-0.04068610196331279</v>
       </c>
       <c r="B33">
-        <v>-0.3549719053123397</v>
+        <v>1.055642302102434</v>
       </c>
       <c r="C33">
-        <v>1.429948827407933</v>
+        <v>-0.6876607036812979</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>-0.0987662813716433</v>
+        <v>-0.08025585993725283</v>
       </c>
       <c r="B34">
-        <v>1.56718966689952</v>
+        <v>0.2239105280935338</v>
       </c>
       <c r="C34">
-        <v>-0.7312174012095702</v>
+        <v>1.603947183279735</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>1.108642477449266</v>
+        <v>1.237224738139928</v>
       </c>
       <c r="B35">
-        <v>1.241847507755989</v>
+        <v>0.5030317390863454</v>
       </c>
       <c r="C35">
-        <v>0.8291115449515392</v>
+        <v>1.019759390810199</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>1.062965919204653</v>
+        <v>0.6343736469542298</v>
       </c>
       <c r="B36">
-        <v>-1.81774355692682</v>
+        <v>0.191683018095988</v>
       </c>
       <c r="C36">
-        <v>0.2884477478110096</v>
+        <v>-1.964423381267124</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>0.9934521466607543</v>
+        <v>0.8795987485281577</v>
       </c>
       <c r="B37">
-        <v>-0.2841803348721101</v>
+        <v>-0.677730938503369</v>
       </c>
       <c r="C37">
-        <v>-1.502348390117168</v>
+        <v>-0.166918976423992</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>-0.1822918843402527</v>
+        <v>-0.1260000475642103</v>
       </c>
       <c r="B38">
-        <v>1.816046775738964</v>
+        <v>1.038965439578521</v>
       </c>
       <c r="C38">
-        <v>0.9132195528971373</v>
+        <v>1.31159586960121</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>-1.209409956003968</v>
+        <v>-0.903700887767656</v>
       </c>
       <c r="B39">
-        <v>1.195365605946569</v>
+        <v>0.6908131912143302</v>
       </c>
       <c r="C39">
-        <v>1.477593467468623</v>
+        <v>1.207950679411592</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>0.4092866245020601</v>
+        <v>0.5319930475013067</v>
       </c>
       <c r="B40">
-        <v>-0.5995684527098268</v>
+        <v>-0.7032316877658368</v>
       </c>
       <c r="C40">
-        <v>-0.4919751102085704</v>
+        <v>-0.1916812405948834</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>0.329971155948124</v>
+        <v>0.7214920219566888</v>
       </c>
       <c r="B41">
-        <v>-1.048246501735339</v>
+        <v>-1.587102831898074</v>
       </c>
       <c r="C41">
-        <v>-1.450081271284495</v>
+        <v>-0.5468609359655974</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>1.176581671822016</v>
+        <v>0.7763497040354083</v>
       </c>
       <c r="B42">
-        <v>-1.535787361688436</v>
+        <v>0.02179487333060077</v>
       </c>
       <c r="C42">
-        <v>0.4826090872298287</v>
+        <v>-1.235478888901774</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>0.2147211896159049</v>
+        <v>0.05762241115293432</v>
       </c>
       <c r="B43">
-        <v>1.635375337030823</v>
+        <v>0.3503245263864295</v>
       </c>
       <c r="C43">
-        <v>-0.883343352643932</v>
+        <v>1.238473740174817</v>
       </c>
     </row>
   </sheetData>
@@ -1868,464 +1868,464 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>-0.6888244733742739</v>
+        <v>1.385854181037038</v>
       </c>
       <c r="B2">
-        <v>2.094950249043845</v>
+        <v>-2.22410567412578</v>
       </c>
       <c r="C2">
-        <v>0.3398211664035223</v>
+        <v>0.925779723608515</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>-1.349150036381845</v>
+        <v>2.60441442487623</v>
       </c>
       <c r="B3">
-        <v>0.858731457561542</v>
+        <v>-2.175069495210406</v>
       </c>
       <c r="C3">
-        <v>0.3494795078765716</v>
+        <v>-0.8169392005475514</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>1.279441101209438</v>
+        <v>-1.34738194773398</v>
       </c>
       <c r="B4">
-        <v>0.3236215833868269</v>
+        <v>-0.9096126517100073</v>
       </c>
       <c r="C4">
-        <v>-0.5923905087032861</v>
+        <v>-1.123635386568675</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>-0.6191886654087086</v>
+        <v>0.1061683626216858</v>
       </c>
       <c r="B5">
-        <v>-0.6124333486462797</v>
+        <v>1.160625452976922</v>
       </c>
       <c r="C5">
-        <v>-1.57155587110203</v>
+        <v>-0.4767055412315835</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>1.390603791849648</v>
+        <v>-1.433324930137425</v>
       </c>
       <c r="B6">
-        <v>-1.398362549707103</v>
+        <v>0.728700213936353</v>
       </c>
       <c r="C6">
-        <v>0.05234279953484312</v>
+        <v>-0.5505602790203482</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>-0.8634930187057793</v>
+        <v>0.5107919803099629</v>
       </c>
       <c r="B7">
-        <v>-1.093209869344859</v>
+        <v>1.17934400718293</v>
       </c>
       <c r="C7">
-        <v>-1.55127978400686</v>
+        <v>-0.387860215122856</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>0.2332059690196311</v>
+        <v>-0.5282827613229177</v>
       </c>
       <c r="B8">
-        <v>-1.579157926136675</v>
+        <v>0.9180773102560935</v>
       </c>
       <c r="C8">
-        <v>0.4769863149195305</v>
+        <v>-1.182962188282733</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>-2.055582335816868</v>
+        <v>1.853182319203198</v>
       </c>
       <c r="B9">
-        <v>0.06696105030481322</v>
+        <v>0.5965341168278141</v>
       </c>
       <c r="C9">
-        <v>-0.5305507122556944</v>
+        <v>-0.6356944570958099</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>0.6572280031803825</v>
+        <v>-0.5682832468213387</v>
       </c>
       <c r="B10">
-        <v>0.3605767278574372</v>
+        <v>-0.02873498617984952</v>
       </c>
       <c r="C10">
-        <v>-0.1504533212983979</v>
+        <v>1.034721842698054</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>0.4293396170811224</v>
+        <v>-0.09808123870506676</v>
       </c>
       <c r="B11">
-        <v>1.512486461140076</v>
+        <v>-0.7008261810471176</v>
       </c>
       <c r="C11">
-        <v>1.052531227343067</v>
+        <v>1.252193077596694</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>-0.0931343580644939</v>
+        <v>-0.03677452180869108</v>
       </c>
       <c r="B12">
-        <v>-0.4523230911956466</v>
+        <v>0.08754823422338277</v>
       </c>
       <c r="C12">
-        <v>1.339959486195578</v>
+        <v>-1.013456620875597</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>-0.2525129105539043</v>
+        <v>-0.07470541068940864</v>
       </c>
       <c r="B13">
-        <v>-0.05693701237055845</v>
+        <v>0.4585269454109398</v>
       </c>
       <c r="C13">
-        <v>-1.009733287672455</v>
+        <v>-0.2953426869179952</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>-0.3513846303242176</v>
+        <v>0.2680949795359165</v>
       </c>
       <c r="B14">
-        <v>1.290919237082383</v>
+        <v>-0.244206111765994</v>
       </c>
       <c r="C14">
-        <v>0.1797129235753312</v>
+        <v>1.406295368931699</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>0.2310009200331247</v>
+        <v>-0.8067566606994663</v>
       </c>
       <c r="B15">
-        <v>-1.938801326219239</v>
+        <v>2.218528778536478</v>
       </c>
       <c r="C15">
-        <v>-0.4448335648728209</v>
+        <v>0.2950387868629017</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>-0.7039560092231731</v>
+        <v>0.3011639235799147</v>
       </c>
       <c r="B16">
-        <v>-0.8106811565786691</v>
+        <v>1.589834414222928</v>
       </c>
       <c r="C16">
-        <v>1.269689442891276</v>
+        <v>0.6833469085384881</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>-0.009611636243237357</v>
+        <v>-0.1777372957155397</v>
       </c>
       <c r="B17">
-        <v>-1.152226622818989</v>
+        <v>1.14244367111825</v>
       </c>
       <c r="C17">
-        <v>1.402534131084326</v>
+        <v>0.5672555706804846</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>0.6944873280004601</v>
+        <v>-0.4320338411554309</v>
       </c>
       <c r="B18">
-        <v>0.687597448619316</v>
+        <v>-0.6362061770334131</v>
       </c>
       <c r="C18">
-        <v>1.424615497392461</v>
+        <v>0.2467651174592905</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>0.8172052492697083</v>
+        <v>-0.261583066130424</v>
       </c>
       <c r="B19">
-        <v>0.4160685801908289</v>
+        <v>-1.208960028202886</v>
       </c>
       <c r="C19">
-        <v>-0.4643285300333382</v>
+        <v>-0.5987611331417296</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>0.3667765892003579</v>
+        <v>-0.2701760203296233</v>
       </c>
       <c r="B20">
-        <v>0.8501626372885691</v>
+        <v>-0.5784266883103405</v>
       </c>
       <c r="C20">
-        <v>-0.1370967322199639</v>
+        <v>0.9354946862543535</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>1.433150304668266</v>
+        <v>-1.189027371152389</v>
       </c>
       <c r="B21">
-        <v>0.4841413323625293</v>
+        <v>-0.4299062210004753</v>
       </c>
       <c r="C21">
-        <v>-0.8526412386388365</v>
+        <v>0.543386246595344</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>0.4926793105854946</v>
+        <v>-0.3604250384776364</v>
       </c>
       <c r="B22">
-        <v>1.262312362015008</v>
+        <v>-1.10008017150884</v>
       </c>
       <c r="C22">
-        <v>-1.116206065798094</v>
+        <v>0.59051010098866</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>-0.005277149390061303</v>
+        <v>-0.05894177856386014</v>
       </c>
       <c r="B23">
-        <v>-1.266233654904301</v>
+        <v>0.2164561646392768</v>
       </c>
       <c r="C23">
-        <v>0.711430407851135</v>
+        <v>-2.285773623064748</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>1.218411471009283</v>
+        <v>-1.290910857729769</v>
       </c>
       <c r="B24">
-        <v>0.5257092309976096</v>
+        <v>-0.4587943778404465</v>
       </c>
       <c r="C24">
-        <v>-0.8558482525108282</v>
+        <v>1.804721152473305</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>-0.2771585217158442</v>
+        <v>0.005923759701245787</v>
       </c>
       <c r="B25">
-        <v>0.8041851066725254</v>
+        <v>0.6522730285342482</v>
       </c>
       <c r="C25">
-        <v>0.5081221748498507</v>
+        <v>2.869475037984852</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>-0.6868655085734147</v>
+        <v>0.5608124847616431</v>
       </c>
       <c r="B26">
-        <v>-0.1613024026349753</v>
+        <v>-0.1967655282242077</v>
       </c>
       <c r="C26">
-        <v>0.555734887163268</v>
+        <v>-0.4886535818630656</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>-1.016561810018879</v>
+        <v>0.6576491629492439</v>
       </c>
       <c r="B27">
-        <v>0.5664438860069605</v>
+        <v>0.4431646069693962</v>
       </c>
       <c r="C27">
-        <v>1.258183577129425</v>
+        <v>1.067698827262007</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>1.504048688254829</v>
+        <v>-1.173444674558467</v>
       </c>
       <c r="B28">
-        <v>0.01998005668121724</v>
+        <v>-0.7706624189346669</v>
       </c>
       <c r="C28">
-        <v>-0.01654726608003575</v>
+        <v>-0.8589938763313402</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>-2.04079812205236</v>
+        <v>2.049904666581103</v>
       </c>
       <c r="B29">
-        <v>-0.5844485487817207</v>
+        <v>1.413716243919977</v>
       </c>
       <c r="C29">
-        <v>-0.8581912992469096</v>
+        <v>-0.3669979836499619</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>0.432470554161122</v>
+        <v>-0.3482410702189389</v>
       </c>
       <c r="B30">
-        <v>-1.222271529121771</v>
+        <v>0.5679902587765903</v>
       </c>
       <c r="C30">
-        <v>0.4601797702155402</v>
+        <v>-0.3805575387158016</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>0.02936636622010056</v>
+        <v>0.1596448474624433</v>
       </c>
       <c r="B31">
-        <v>-0.9062824925190225</v>
+        <v>-0.03768814562776634</v>
       </c>
       <c r="C31">
-        <v>0.8363942544019285</v>
+        <v>-0.5220096804999746</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>1.726155821223287</v>
+        <v>-1.748640280829714</v>
       </c>
       <c r="B32">
-        <v>-0.5073505672017197</v>
+        <v>-0.1811977027252981</v>
       </c>
       <c r="C32">
-        <v>-1.262256462481101</v>
+        <v>-1.225621158678794</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>1.746578650644136</v>
+        <v>-2.010406598306325</v>
       </c>
       <c r="B33">
-        <v>0.4104848894187354</v>
+        <v>-1.353366274786614</v>
       </c>
       <c r="C33">
-        <v>-1.524696261662462</v>
+        <v>-1.300209908907667</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>-1.28895233607635</v>
+        <v>1.007702834011054</v>
       </c>
       <c r="B34">
-        <v>0.4013632196448162</v>
+        <v>0.4178643449389371</v>
       </c>
       <c r="C34">
-        <v>-0.1516114067571159</v>
+        <v>0.5737383270403569</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>0.8890521766255989</v>
+        <v>-0.8656895507428142</v>
       </c>
       <c r="B35">
-        <v>-0.3439183985915197</v>
+        <v>0.4550754037037013</v>
       </c>
       <c r="C35">
-        <v>-1.320268427366794</v>
+        <v>0.2937854139197927</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>0.1144877697315968</v>
+        <v>-0.08450465253503468</v>
       </c>
       <c r="B36">
-        <v>-1.128056373672358</v>
+        <v>0.4123052660148334</v>
       </c>
       <c r="C36">
-        <v>2.16179768573729</v>
+        <v>-0.2704959425703587</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>-0.2598003763384725</v>
+        <v>0.5090330456760292</v>
       </c>
       <c r="B37">
-        <v>1.847567578456786</v>
+        <v>-1.260130743617987</v>
       </c>
       <c r="C37">
-        <v>-0.2363139591683742</v>
+        <v>0.2967020901865986</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>-1.258681318836397</v>
+        <v>0.6705001265565871</v>
       </c>
       <c r="B38">
-        <v>-1.423533922050715</v>
+        <v>1.570132865459909</v>
       </c>
       <c r="C38">
-        <v>-1.57250524420149</v>
+        <v>-0.6059439696986517</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>0.7238682473230523</v>
+        <v>-0.6032344394358907</v>
       </c>
       <c r="B39">
-        <v>-1.033592985552248</v>
+        <v>0.7142438791140908</v>
       </c>
       <c r="C39">
-        <v>1.622157614555329</v>
+        <v>0.7104997696849223</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>0.06561732329107792</v>
+        <v>0.3212414643768919</v>
       </c>
       <c r="B40">
-        <v>1.127407023376887</v>
+        <v>-1.293430238232179</v>
       </c>
       <c r="C40">
-        <v>1.263118948197565</v>
+        <v>-0.3534156461822667</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>0.522532568296919</v>
+        <v>-0.08273921265765144</v>
       </c>
       <c r="B41">
-        <v>1.428298074446366</v>
+        <v>-1.133756222885163</v>
       </c>
       <c r="C41">
-        <v>0.6086506392718192</v>
+        <v>1.17388349946488</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>-1.356389951738053</v>
+        <v>1.29336116193129</v>
       </c>
       <c r="B42">
-        <v>-0.08979350446432614</v>
+        <v>-0.2702994798469333</v>
       </c>
       <c r="C42">
-        <v>-1.094931474618148</v>
+        <v>-1.626641443894029</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>-1.820384652042301</v>
+        <v>1.585882741286324</v>
       </c>
       <c r="B43">
-        <v>0.4209490899576162</v>
+        <v>0.2488403120533206</v>
       </c>
       <c r="C43">
-        <v>-0.5592027858946195</v>
+        <v>0.09594051463033959</v>
       </c>
     </row>
   </sheetData>
@@ -2354,464 +2354,464 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>0.8691572256929377</v>
+        <v>-1.135509753672229</v>
       </c>
       <c r="B2">
-        <v>-1.259224784980933</v>
+        <v>-1.935441856291409</v>
       </c>
       <c r="C2">
-        <v>-1.592602104169903</v>
+        <v>-1.61424554708528</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>0.8354752822328078</v>
+        <v>-1.103320162609204</v>
       </c>
       <c r="B3">
-        <v>-1.580954986249071</v>
+        <v>-1.154273368003459</v>
       </c>
       <c r="C3">
-        <v>1.022147813834634</v>
+        <v>1.341474173254268</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>-0.9365332387598935</v>
+        <v>1.281263125325736</v>
       </c>
       <c r="B4">
-        <v>1.30709478188745</v>
+        <v>1.434764730490223</v>
       </c>
       <c r="C4">
-        <v>-0.2538331335395734</v>
+        <v>-0.47646282957224</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>0.04755959748269137</v>
+        <v>-0.1618642347749344</v>
       </c>
       <c r="B5">
-        <v>-1.77654653680748</v>
+        <v>-1.383348695449708</v>
       </c>
       <c r="C5">
-        <v>0.665653070944731</v>
+        <v>1.063047644943163</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>0.2403862620947001</v>
+        <v>-0.2589416984487675</v>
       </c>
       <c r="B6">
-        <v>1.180493465443805</v>
+        <v>0.7949987782685326</v>
       </c>
       <c r="C6">
-        <v>-0.843863234684626</v>
+        <v>-1.004153083185044</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>-0.3004799672128327</v>
+        <v>0.273785685985008</v>
       </c>
       <c r="B7">
-        <v>0.2190972615813714</v>
+        <v>0.4523543156676447</v>
       </c>
       <c r="C7">
-        <v>0.7427712940257627</v>
+        <v>0.766418925996234</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>1.379486598828304</v>
+        <v>-1.304503291950609</v>
       </c>
       <c r="B8">
-        <v>-0.08637839442931436</v>
+        <v>-0.120119124310425</v>
       </c>
       <c r="C8">
-        <v>-0.2616197190009709</v>
+        <v>-0.2505260609051588</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>1.096992072168397</v>
+        <v>-1.107432169000072</v>
       </c>
       <c r="B9">
-        <v>-0.3116121628298118</v>
+        <v>-0.4604597271358875</v>
       </c>
       <c r="C9">
-        <v>-0.6854237591371831</v>
+        <v>-0.546455208709721</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>1.16112041842799</v>
+        <v>-0.8282210059666408</v>
       </c>
       <c r="B10">
-        <v>1.181165712836366</v>
+        <v>1.167285013642301</v>
       </c>
       <c r="C10">
-        <v>0.3273455352169147</v>
+        <v>-0.2366930849653051</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>-0.1024854036655401</v>
+        <v>0.04231441703780361</v>
       </c>
       <c r="B11">
-        <v>-1.14437335490495</v>
+        <v>-0.47428050105502</v>
       </c>
       <c r="C11">
-        <v>1.546625571938238</v>
+        <v>1.35431810403812</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>-1.857965948096007</v>
+        <v>1.789134404210269</v>
       </c>
       <c r="B12">
-        <v>-1.004314079204938</v>
+        <v>-1.181876828554848</v>
       </c>
       <c r="C12">
-        <v>0.05488825642361239</v>
+        <v>0.6903093497250943</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>-1.422057943503894</v>
+        <v>1.308969260345132</v>
       </c>
       <c r="B13">
-        <v>-0.2730916793403179</v>
+        <v>-0.2679293993584895</v>
       </c>
       <c r="C13">
-        <v>0.1881490225470936</v>
+        <v>0.4336007501128618</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>0.3496691868596046</v>
+        <v>-0.2158703770767384</v>
       </c>
       <c r="B14">
-        <v>1.616240487982375</v>
+        <v>1.664268055621589</v>
       </c>
       <c r="C14">
-        <v>0.931323349526471</v>
+        <v>0.3022351459480098</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>-0.9581824069355918</v>
+        <v>1.054473421512068</v>
       </c>
       <c r="B15">
-        <v>1.62078450905467</v>
+        <v>1.549681281034458</v>
       </c>
       <c r="C15">
-        <v>0.8342959577563102</v>
+        <v>0.3891037714190252</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>-0.676076030070783</v>
+        <v>0.6920141827358943</v>
       </c>
       <c r="B16">
-        <v>-0.5666765973225321</v>
+        <v>-1.083531016132153</v>
       </c>
       <c r="C16">
-        <v>-1.163743732819495</v>
+        <v>-0.9421461046562301</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>-0.2882464374857411</v>
+        <v>0.1975682308404628</v>
       </c>
       <c r="B17">
-        <v>-0.179731014735011</v>
+        <v>-0.2004416550782948</v>
       </c>
       <c r="C17">
-        <v>0.03502273631204092</v>
+        <v>0.07638947817753476</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>-1.420269738222588</v>
+        <v>1.640758863474756</v>
       </c>
       <c r="B18">
-        <v>0.8202301627888648</v>
+        <v>0.6383300245136525</v>
       </c>
       <c r="C18">
-        <v>-0.4830806877920903</v>
+        <v>-0.5877356338347512</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>1.067938835268035</v>
+        <v>-0.8501993901774777</v>
       </c>
       <c r="B19">
-        <v>0.8811554772343745</v>
+        <v>0.6831788767586534</v>
       </c>
       <c r="C19">
-        <v>-0.1798336866127469</v>
+        <v>-0.5955708130915429</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>-1.131180447929488</v>
+        <v>0.8081224172432379</v>
       </c>
       <c r="B20">
-        <v>-0.06848509544026703</v>
+        <v>-0.08457256106034726</v>
       </c>
       <c r="C20">
-        <v>0.7649076086256803</v>
+        <v>0.7547743704336654</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>-1.329700791809035</v>
+        <v>1.199519585049101</v>
       </c>
       <c r="B21">
-        <v>0.5071549939056788</v>
+        <v>0.6432150477720745</v>
       </c>
       <c r="C21">
-        <v>1.46731659823755</v>
+        <v>1.431178837698959</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>0.2613069067621389</v>
+        <v>0.09708994127409878</v>
       </c>
       <c r="B22">
-        <v>1.871061421209289</v>
+        <v>1.668124629557986</v>
       </c>
       <c r="C22">
-        <v>-1.067573258497877</v>
+        <v>-1.998715403468132</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>-0.7327840127703179</v>
+        <v>0.6316794757468404</v>
       </c>
       <c r="B23">
-        <v>0.5007665634094463</v>
+        <v>0.3905588646447543</v>
       </c>
       <c r="C23">
-        <v>-0.07367266321271755</v>
+        <v>0.1589170290208581</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>0.2559286005367044</v>
+        <v>-0.1960890564184867</v>
       </c>
       <c r="B24">
-        <v>-1.067107530710382</v>
+        <v>-0.7947224116638567</v>
       </c>
       <c r="C24">
-        <v>-0.1637697681980717</v>
+        <v>0.02443875168910099</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>-1.369036034818013</v>
+        <v>1.554132307256183</v>
       </c>
       <c r="B25">
-        <v>-0.06779943473539506</v>
+        <v>-0.325797145029748</v>
       </c>
       <c r="C25">
-        <v>-1.282754568335999</v>
+        <v>-1.013600666885585</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>1.511850855814745</v>
+        <v>-1.766834252673711</v>
       </c>
       <c r="B26">
-        <v>-0.2701002649539458</v>
+        <v>-0.1095385232115735</v>
       </c>
       <c r="C26">
-        <v>0.3328199908602538</v>
+        <v>0.2425341301992258</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>0.3344202371363516</v>
+        <v>-0.08007088427663343</v>
       </c>
       <c r="B27">
-        <v>-0.07311304458135204</v>
+        <v>-0.3415038275135509</v>
       </c>
       <c r="C27">
-        <v>-1.929346271181072</v>
+        <v>-1.46999265941104</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>0.8588188501810655</v>
+        <v>-1.13977612996356</v>
       </c>
       <c r="B28">
-        <v>1.328759874813481</v>
+        <v>1.90834124978102</v>
       </c>
       <c r="C28">
-        <v>1.319349688666608</v>
+        <v>1.112491480469646</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>1.34496274775557</v>
+        <v>-1.154739954694171</v>
       </c>
       <c r="B29">
-        <v>0.7393292144792396</v>
+        <v>0.7659451959377392</v>
       </c>
       <c r="C29">
-        <v>0.1409585337792915</v>
+        <v>-0.3907037177801039</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>-0.3313539953302695</v>
+        <v>0.2912654590943389</v>
       </c>
       <c r="B30">
-        <v>-0.7681859339282816</v>
+        <v>-0.9618187671917811</v>
       </c>
       <c r="C30">
-        <v>-1.336616396554359</v>
+        <v>-0.9296963779533238</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>-1.418301519283121</v>
+        <v>1.077234267961222</v>
       </c>
       <c r="B31">
-        <v>-1.007881516247234</v>
+        <v>-1.116646625207607</v>
       </c>
       <c r="C31">
-        <v>0.5257526803658977</v>
+        <v>1.290668836524153</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>0.7695145321568554</v>
+        <v>-0.3542309780842712</v>
       </c>
       <c r="B32">
-        <v>0.5444336772390643</v>
+        <v>0.2874822359880779</v>
       </c>
       <c r="C32">
-        <v>-1.026589064146168</v>
+        <v>-1.19806202954412</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>1.688427377999622</v>
+        <v>-1.832103807000227</v>
       </c>
       <c r="B33">
-        <v>-1.350199130023485</v>
+        <v>-1.260286449613046</v>
       </c>
       <c r="C33">
-        <v>-0.4116147223661247</v>
+        <v>-0.271850392422375</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>0.5861592168838772</v>
+        <v>-0.7346657306971063</v>
       </c>
       <c r="B34">
-        <v>-1.496738081438824</v>
+        <v>-0.7784413995630761</v>
       </c>
       <c r="C34">
-        <v>1.517734256944388</v>
+        <v>1.34675003491852</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>1.043745948351247</v>
+        <v>-1.521145497130643</v>
       </c>
       <c r="B35">
-        <v>0.8255187079804166</v>
+        <v>1.473572319427539</v>
       </c>
       <c r="C35">
-        <v>1.963365340906446</v>
+        <v>2.03698547425547</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>1.030532544532956</v>
+        <v>-0.7666770941392473</v>
       </c>
       <c r="B36">
-        <v>0.3202945006406112</v>
+        <v>0.06116406848182613</v>
       </c>
       <c r="C36">
-        <v>-1.526626298290259</v>
+        <v>-1.667571993555012</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>-0.6943185379911402</v>
+        <v>0.3821823423390877</v>
       </c>
       <c r="B37">
-        <v>-1.806326510217503</v>
+        <v>-1.57474648740838</v>
       </c>
       <c r="C37">
-        <v>0.2852324762870323</v>
+        <v>0.8822865909019699</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>0.4318424824325049</v>
+        <v>-0.2223882447789645</v>
       </c>
       <c r="B38">
-        <v>0.09611826074187386</v>
+        <v>-0.06844351192393973</v>
       </c>
       <c r="C38">
-        <v>-1.110234502514321</v>
+        <v>-1.137824265961703</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>-0.9676412544842317</v>
+        <v>1.020266968440575</v>
       </c>
       <c r="B39">
-        <v>0.6911666262089664</v>
+        <v>0.4337395833111977</v>
       </c>
       <c r="C39">
-        <v>-0.6929198864066177</v>
+        <v>-0.6345550478168749</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>0.1535160007288034</v>
+        <v>-0.2531346972053478</v>
       </c>
       <c r="B40">
-        <v>0.3099080805874704</v>
+        <v>0.6859652595030301</v>
       </c>
       <c r="C40">
-        <v>2.237963981637442</v>
+        <v>1.800472187761317</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>1.13309705426741</v>
+        <v>-0.8068655349422863</v>
       </c>
       <c r="B41">
-        <v>-0.2988717438835971</v>
+        <v>-0.1116123823498458</v>
       </c>
       <c r="C41">
-        <v>0.2016774384312808</v>
+        <v>-0.07590690970263254</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>-0.9662646847710773</v>
+        <v>0.8958119015492182</v>
       </c>
       <c r="B42">
-        <v>-1.155371299827112</v>
+        <v>-1.665513248901333</v>
       </c>
       <c r="C42">
-        <v>-0.7328711431812559</v>
+        <v>-0.1896255870401839</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>-1.549030441455757</v>
+        <v>1.556997688260293</v>
       </c>
       <c r="B43">
-        <v>1.052309396766923</v>
+        <v>0.7523759816054821</v>
       </c>
       <c r="C43">
-        <v>-0.286712602626248</v>
+        <v>-0.2663016499408367</v>
       </c>
     </row>
   </sheetData>
@@ -2840,464 +2840,464 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>0.5728090100244626</v>
+        <v>0.5568979959450909</v>
       </c>
       <c r="B2">
-        <v>1.64292861671813</v>
+        <v>-2.040790772498684</v>
       </c>
       <c r="C2">
-        <v>0.1065813253897504</v>
+        <v>-0.6341852865626643</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>0.9535968381752509</v>
+        <v>0.8140553228154567</v>
       </c>
       <c r="B3">
-        <v>-0.03788224158397567</v>
+        <v>-0.06950466731085995</v>
       </c>
       <c r="C3">
-        <v>0.6713375033890595</v>
+        <v>-0.3786760654884231</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>0.774504353851921</v>
+        <v>1.090760159050251</v>
       </c>
       <c r="B4">
-        <v>-0.59104107465625</v>
+        <v>0.4902100648320932</v>
       </c>
       <c r="C4">
-        <v>-0.391299297960487</v>
+        <v>0.5270180146898579</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>-0.4993293625472783</v>
+        <v>-0.6021238972662382</v>
       </c>
       <c r="B5">
-        <v>0.7153478918791978</v>
+        <v>-0.4619348859896656</v>
       </c>
       <c r="C5">
-        <v>1.2415015505512</v>
+        <v>-1.339414852537556</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>-0.2453869300226956</v>
+        <v>-0.2100263806743854</v>
       </c>
       <c r="B6">
-        <v>0.316959772766852</v>
+        <v>-0.1404286017549286</v>
       </c>
       <c r="C6">
-        <v>-0.07419444955799398</v>
+        <v>-0.007469175776856041</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>0.3150991410799889</v>
+        <v>0.3111795468843072</v>
       </c>
       <c r="B7">
-        <v>0.5491229744925555</v>
+        <v>-0.5873021310815582</v>
       </c>
       <c r="C7">
-        <v>-0.3426148233865098</v>
+        <v>0.3153844650671283</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>1.199659469411662</v>
+        <v>1.253593766520463</v>
       </c>
       <c r="B8">
-        <v>-0.5566000091080061</v>
+        <v>0.3895125264611917</v>
       </c>
       <c r="C8">
-        <v>0.7796395278996739</v>
+        <v>-0.4756923769794889</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>-0.03239729796403861</v>
+        <v>-0.2378274296332271</v>
       </c>
       <c r="B9">
-        <v>-0.3624407570534492</v>
+        <v>0.1662407599830308</v>
       </c>
       <c r="C9">
-        <v>-1.305135064651462</v>
+        <v>1.238465542706439</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>1.603430222025078</v>
+        <v>1.86217978598841</v>
       </c>
       <c r="B10">
-        <v>-0.6899714800746337</v>
+        <v>0.4913608488414442</v>
       </c>
       <c r="C10">
-        <v>0.2919022198918596</v>
+        <v>0.06959126916337571</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>0.820844256122565</v>
+        <v>0.6856955187931097</v>
       </c>
       <c r="B11">
-        <v>-1.482995523750859</v>
+        <v>1.056381711065671</v>
       </c>
       <c r="C11">
-        <v>-0.2990857547363049</v>
+        <v>0.6694702912684317</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>-1.711580015369758</v>
+        <v>-1.558587983718902</v>
       </c>
       <c r="B12">
-        <v>0.307083936508753</v>
+        <v>0.09843597329872561</v>
       </c>
       <c r="C12">
-        <v>0.6606284568515162</v>
+        <v>-0.5802556568501034</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>-1.794583674875031</v>
+        <v>-1.823806909643769</v>
       </c>
       <c r="B13">
-        <v>-0.0970929349722521</v>
+        <v>0.3852691246071255</v>
       </c>
       <c r="C13">
-        <v>-0.7219129365345923</v>
+        <v>0.7095604913746429</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>-1.115541828372814</v>
+        <v>-0.8687396210866211</v>
       </c>
       <c r="B14">
-        <v>-1.29172034536347</v>
+        <v>1.120590091064871</v>
       </c>
       <c r="C14">
-        <v>-0.3696221246179337</v>
+        <v>0.518520663986299</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>-1.363912879207503</v>
+        <v>-1.334436691815808</v>
       </c>
       <c r="B15">
-        <v>-1.311582786650184</v>
+        <v>1.688089839703473</v>
       </c>
       <c r="C15">
-        <v>0.3957527157570295</v>
+        <v>-0.09039192758808852</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>-0.4726245574523488</v>
+        <v>-0.4261434115531632</v>
       </c>
       <c r="B16">
-        <v>0.3565972293797871</v>
+        <v>-0.07735821334655739</v>
       </c>
       <c r="C16">
-        <v>0.8290074219097234</v>
+        <v>-0.9149445337363927</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>-0.1517117411444125</v>
+        <v>-0.1161832400323679</v>
       </c>
       <c r="B17">
-        <v>-0.8352475533124866</v>
+        <v>0.73639315570896</v>
       </c>
       <c r="C17">
-        <v>0.1637479266701873</v>
+        <v>-0.02124625571999824</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>-1.40593655310519</v>
+        <v>-1.298072039356847</v>
       </c>
       <c r="B18">
-        <v>-0.04870346941524439</v>
+        <v>0.2447139558910309</v>
       </c>
       <c r="C18">
-        <v>-0.8704045569282902</v>
+        <v>0.7325079517503265</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>0.8893420670285895</v>
+        <v>0.7151594674024735</v>
       </c>
       <c r="B19">
-        <v>0.7761411243494412</v>
+        <v>-0.6316150977027581</v>
       </c>
       <c r="C19">
-        <v>1.221541131807019</v>
+        <v>-1.029603357394199</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>-0.9889639321976593</v>
+        <v>-0.9081251625697887</v>
       </c>
       <c r="B20">
-        <v>0.3262019001353625</v>
+        <v>-0.0241594956979171</v>
       </c>
       <c r="C20">
-        <v>-0.01681825892607833</v>
+        <v>0.113866300190846</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>-0.6304878610945004</v>
+        <v>-0.5031121586775991</v>
       </c>
       <c r="B21">
-        <v>0.677092399396905</v>
+        <v>-0.3742191146236331</v>
       </c>
       <c r="C21">
-        <v>1.858988421045086</v>
+        <v>-3.084769575945908</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>0.06976231089796192</v>
+        <v>-0.06232978908198674</v>
       </c>
       <c r="B22">
-        <v>0.2760051893338227</v>
+        <v>-0.2754999139757746</v>
       </c>
       <c r="C22">
-        <v>-1.185971564871986</v>
+        <v>0.9608143911501776</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>0.3176225662573585</v>
+        <v>0.4353396271029775</v>
       </c>
       <c r="B23">
-        <v>-1.18938474742869</v>
+        <v>1.341160887379965</v>
       </c>
       <c r="C23">
-        <v>-0.2100155694581503</v>
+        <v>0.3662723148548794</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>0.2346473258415616</v>
+        <v>-0.0910478860971857</v>
       </c>
       <c r="B24">
-        <v>1.280402722497483</v>
+        <v>-1.233782860920841</v>
       </c>
       <c r="C24">
-        <v>-2.004875300326476</v>
+        <v>1.439528272106814</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>-1.310858475244391</v>
+        <v>-2.009663314140111</v>
       </c>
       <c r="B25">
-        <v>1.77294400905622</v>
+        <v>-1.78230802439367</v>
       </c>
       <c r="C25">
-        <v>-0.0495779727091918</v>
+        <v>-0.1482043880078121</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>0.3991980782982296</v>
+        <v>0.5684638567969744</v>
       </c>
       <c r="B26">
-        <v>-1.355790224072934</v>
+        <v>1.379975721604124</v>
       </c>
       <c r="C26">
-        <v>1.278082533859932</v>
+        <v>-1.052042725682907</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>0.3754590717588022</v>
+        <v>-0.01929023054459865</v>
       </c>
       <c r="B27">
-        <v>0.4726589469525614</v>
+        <v>-0.5041183379946548</v>
       </c>
       <c r="C27">
-        <v>-1.868717148442609</v>
+        <v>1.505148111389033</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>1.462780056711453</v>
+        <v>1.363324143586912</v>
       </c>
       <c r="B28">
-        <v>0.09902846717556525</v>
+        <v>-0.4301283744001438</v>
       </c>
       <c r="C28">
-        <v>-0.4817191725488937</v>
+        <v>0.6191320853593086</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>1.208259787365264</v>
+        <v>0.8092801608964914</v>
       </c>
       <c r="B29">
-        <v>1.745942971496144</v>
+        <v>-2.115695273742771</v>
       </c>
       <c r="C29">
-        <v>-0.5476368824322552</v>
+        <v>0.4554621277920284</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>-0.9561328942224979</v>
+        <v>-0.8099790887640499</v>
       </c>
       <c r="B30">
-        <v>-0.824588957507418</v>
+        <v>0.647156752864114</v>
       </c>
       <c r="C30">
-        <v>-1.471026004965043</v>
+        <v>1.37198895531959</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>-1.047306180849386</v>
+        <v>-1.398830875235566</v>
       </c>
       <c r="B31">
-        <v>1.783051808266659</v>
+        <v>-1.48370288882808</v>
       </c>
       <c r="C31">
-        <v>-0.1705351420092343</v>
+        <v>-0.1146570442783842</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>0.6776196895052923</v>
+        <v>0.2941827757457188</v>
       </c>
       <c r="B32">
-        <v>0.5809527379547619</v>
+        <v>-0.4770541858145465</v>
       </c>
       <c r="C32">
-        <v>-0.3110544654868584</v>
+        <v>0.2585860001042567</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>1.658704303772955</v>
+        <v>1.752185427489112</v>
       </c>
       <c r="B33">
-        <v>-0.6365635047882091</v>
+        <v>0.2121166430361046</v>
       </c>
       <c r="C33">
-        <v>-0.7181880813336455</v>
+        <v>1.108721933671366</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>1.133715929169669</v>
+        <v>1.246432190590019</v>
       </c>
       <c r="B34">
-        <v>-0.3130550127870269</v>
+        <v>0.2793958623306735</v>
       </c>
       <c r="C34">
-        <v>1.526757604997049</v>
+        <v>-1.324509021508072</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>0.778981758270365</v>
+        <v>1.325265309608306</v>
       </c>
       <c r="B35">
-        <v>-1.929436329854763</v>
+        <v>2.16009839502771</v>
       </c>
       <c r="C35">
-        <v>1.392000219073352</v>
+        <v>-1.282937423844363</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>1.577342687391419</v>
+        <v>1.520059536741684</v>
       </c>
       <c r="B36">
-        <v>1.256134528011781</v>
+        <v>-1.8956521370105</v>
       </c>
       <c r="C36">
-        <v>-1.059301458601876</v>
+        <v>1.151311220868644</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>-1.14856808331405</v>
+        <v>-0.9074045761787812</v>
       </c>
       <c r="B37">
-        <v>0.2496962986250494</v>
+        <v>0.01443160756186697</v>
       </c>
       <c r="C37">
-        <v>0.6364649289698963</v>
+        <v>-0.3144509908656558</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>-0.5486223483518963</v>
+        <v>-0.4064122302653133</v>
       </c>
       <c r="B38">
-        <v>-1.577874777159743</v>
+        <v>1.27283304752554</v>
       </c>
       <c r="C38">
-        <v>-0.648116674945537</v>
+        <v>0.867587035505093</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>0.1496879704933144</v>
+        <v>-0.09409162645064985</v>
       </c>
       <c r="B39">
-        <v>-0.9041312865817369</v>
+        <v>0.4770868834392488</v>
       </c>
       <c r="C39">
-        <v>-1.816288463859241</v>
+        <v>1.550155747934701</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>-0.4981399396358238</v>
+        <v>0.004075878695259449</v>
       </c>
       <c r="B40">
-        <v>-1.39016606933185</v>
+        <v>1.329063129396512</v>
       </c>
       <c r="C40">
-        <v>0.5775870936392764</v>
+        <v>-0.6244233339872294</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>1.125018092187506</v>
+        <v>0.9161306536871892</v>
       </c>
       <c r="B41">
-        <v>1.486358096935537</v>
+        <v>-1.320620449550227</v>
       </c>
       <c r="C41">
-        <v>1.556998996159073</v>
+        <v>-1.512543713886172</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>-1.008099857870622</v>
+        <v>-0.834500393891386</v>
       </c>
       <c r="B42">
-        <v>0.7258326682474651</v>
+        <v>-0.2282800684430291</v>
       </c>
       <c r="C42">
-        <v>1.829878662467547</v>
+        <v>-1.735489753555819</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>-1.36790057279877</v>
+        <v>-1.003526187661861</v>
       </c>
       <c r="B43">
-        <v>0.02978479527315371</v>
+        <v>0.1736385134573242</v>
       </c>
       <c r="C43">
-        <v>-0.08428707103758031</v>
+        <v>0.1168142739428555</v>
       </c>
     </row>
   </sheetData>
@@ -3326,464 +3326,464 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>-1.302524607688938</v>
+        <v>-1.890445263410743</v>
       </c>
       <c r="B2">
-        <v>-1.006701462058606</v>
+        <v>0.02215193522176912</v>
       </c>
       <c r="C2">
-        <v>0.9347639916278357</v>
+        <v>0.6354191246744848</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>-0.07646516665098037</v>
+        <v>-1.301255150484258</v>
       </c>
       <c r="B3">
-        <v>-1.662709480212619</v>
+        <v>-1.468148287986264</v>
       </c>
       <c r="C3">
-        <v>1.261089510757022</v>
+        <v>1.373089695728496</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>0.2531206461322456</v>
+        <v>-0.9599324410975204</v>
       </c>
       <c r="B4">
-        <v>-1.299642044068687</v>
+        <v>-1.440820894819715</v>
       </c>
       <c r="C4">
-        <v>0.1496343726911785</v>
+        <v>0.3869346625338263</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>-1.595583000122191</v>
+        <v>-1.176426477876605</v>
       </c>
       <c r="B5">
-        <v>0.9118624624491279</v>
+        <v>1.650262202615548</v>
       </c>
       <c r="C5">
-        <v>0.2959174627692504</v>
+        <v>0.1369155850762526</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>0.5783622675147935</v>
+        <v>1.344136043001481</v>
       </c>
       <c r="B6">
-        <v>1.665841471589664</v>
+        <v>1.10123879666692</v>
       </c>
       <c r="C6">
-        <v>0.98068812961305</v>
+        <v>1.417930020663618</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>0.9750471528130658</v>
+        <v>0.7616730512718392</v>
       </c>
       <c r="B7">
-        <v>-0.5464796607539003</v>
+        <v>-0.8094490396332239</v>
       </c>
       <c r="C7">
-        <v>0.2029261170053602</v>
+        <v>-0.07742396344721307</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>-0.8423476821407947</v>
+        <v>-0.8539329642834765</v>
       </c>
       <c r="B8">
-        <v>-0.7746279107036662</v>
+        <v>-0.06806792075839491</v>
       </c>
       <c r="C8">
-        <v>1.097935136754119</v>
+        <v>0.5238597647178439</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>0.3913436712756948</v>
+        <v>0.3540851674601193</v>
       </c>
       <c r="B9">
-        <v>0.1545841222962099</v>
+        <v>-0.07023255838260868</v>
       </c>
       <c r="C9">
-        <v>1.0819771393492</v>
+        <v>0.5452276517845133</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>0.5209186711027977</v>
+        <v>-0.2416030149055727</v>
       </c>
       <c r="B10">
-        <v>-1.330182823000164</v>
+        <v>-1.856726409071852</v>
       </c>
       <c r="C10">
-        <v>-0.9521696312192143</v>
+        <v>-1.734643627992433</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>1.23212510031973</v>
+        <v>2.187897580490468</v>
       </c>
       <c r="B11">
-        <v>1.985092957670607</v>
+        <v>0.8744855126174745</v>
       </c>
       <c r="C11">
-        <v>-0.5286866737432213</v>
+        <v>-0.1092089394270146</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>-0.781314799261474</v>
+        <v>0.3325990920989121</v>
       </c>
       <c r="B12">
-        <v>1.26389291507762</v>
+        <v>1.483617712652835</v>
       </c>
       <c r="C12">
-        <v>-1.229881559695111</v>
+        <v>-1.037025725718034</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>0.02820857454342339</v>
+        <v>1.225357026579473</v>
       </c>
       <c r="B13">
-        <v>1.532719280553822</v>
+        <v>1.217802382099829</v>
       </c>
       <c r="C13">
-        <v>-0.9595625870166372</v>
+        <v>-0.8738305425945038</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>1.389563944657506</v>
+        <v>1.613135743921868</v>
       </c>
       <c r="B14">
-        <v>1.370404542520403</v>
+        <v>0.2295749066820192</v>
       </c>
       <c r="C14">
-        <v>-0.1817900782741642</v>
+        <v>0.09595936214223619</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>-0.09167941104930159</v>
+        <v>0.2684560204794167</v>
       </c>
       <c r="B15">
-        <v>0.2119097250676185</v>
+        <v>0.4164414391988945</v>
       </c>
       <c r="C15">
-        <v>-1.615628105145358</v>
+        <v>-1.048684478648175</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>-0.2484931350960331</v>
+        <v>0.1935714625255759</v>
       </c>
       <c r="B16">
-        <v>0.1796862962993011</v>
+        <v>0.45601876889745</v>
       </c>
       <c r="C16">
-        <v>-2.368608660817718</v>
+        <v>-2.676906442504679</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>0.2025714308979985</v>
+        <v>0.5857920493607869</v>
       </c>
       <c r="B17">
-        <v>0.4045172909019263</v>
+        <v>0.3479438720736687</v>
       </c>
       <c r="C17">
-        <v>-0.8444738275829893</v>
+        <v>-0.5334347292413164</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>-0.1201659696283647</v>
+        <v>-0.3443296140922958</v>
       </c>
       <c r="B18">
-        <v>0.8322493003833696</v>
+        <v>0.7946626523491895</v>
       </c>
       <c r="C18">
-        <v>1.070867864017135</v>
+        <v>2.312728008896662</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>-0.6922582728366214</v>
+        <v>-1.220349520262012</v>
       </c>
       <c r="B19">
-        <v>-0.7873071574545579</v>
+        <v>-0.2136150579491155</v>
       </c>
       <c r="C19">
-        <v>-0.9916794276720361</v>
+        <v>-0.7483700582739676</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>-1.394540065657577</v>
+        <v>-1.117170843599848</v>
       </c>
       <c r="B20">
-        <v>0.4174837015055974</v>
+        <v>1.169902519554279</v>
       </c>
       <c r="C20">
-        <v>-0.01688461460970935</v>
+        <v>-0.06241193161916115</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>0.3863531500092046</v>
+        <v>-0.4507056895276809</v>
       </c>
       <c r="B21">
-        <v>-1.496067079620407</v>
+        <v>-1.524717571665196</v>
       </c>
       <c r="C21">
-        <v>-1.754257764161763</v>
+        <v>-2.146878199744592</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>0.1557001276498908</v>
+        <v>-0.3498335411325065</v>
       </c>
       <c r="B22">
-        <v>-1.009739002346928</v>
+        <v>-0.716079932821109</v>
       </c>
       <c r="C22">
-        <v>-1.09313070449052</v>
+        <v>-0.8113032761828226</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>1.399357578826525</v>
+        <v>1.332673043567012</v>
       </c>
       <c r="B23">
-        <v>0.6001383196216308</v>
+        <v>-0.2236222474834308</v>
       </c>
       <c r="C23">
-        <v>1.206865051439336</v>
+        <v>1.182805828299681</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>0.6665698544445458</v>
+        <v>0.5909373261778272</v>
       </c>
       <c r="B24">
-        <v>0.2600139602915006</v>
+        <v>-0.05837140196705743</v>
       </c>
       <c r="C24">
-        <v>1.109243461404679</v>
+        <v>0.6365959265946433</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>-0.7282395005909982</v>
+        <v>-0.4855280227010672</v>
       </c>
       <c r="B25">
-        <v>-0.2776251109305005</v>
+        <v>0.2597486750470744</v>
       </c>
       <c r="C25">
-        <v>0.7147256667524318</v>
+        <v>0.1261803180821717</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>-0.2327166270080354</v>
+        <v>-0.6219603514796869</v>
       </c>
       <c r="B26">
-        <v>-0.7267022482733972</v>
+        <v>-0.4068708795723243</v>
       </c>
       <c r="C26">
-        <v>-0.112936830021797</v>
+        <v>-0.3532357685759981</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>0.3571796810396931</v>
+        <v>-0.1740915904963705</v>
       </c>
       <c r="B27">
-        <v>-1.202282259140789</v>
+        <v>-0.8132319488318379</v>
       </c>
       <c r="C27">
-        <v>-0.2692700120400583</v>
+        <v>-0.3008586851486301</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>1.528299812674433</v>
+        <v>1.309972274048327</v>
       </c>
       <c r="B28">
-        <v>0.2633398064216368</v>
+        <v>-0.5368568750685507</v>
       </c>
       <c r="C28">
-        <v>-1.013066446880504</v>
+        <v>-0.6376358338429922</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>1.718720031185373</v>
+        <v>0.7918613459016828</v>
       </c>
       <c r="B29">
-        <v>-1.237838326956321</v>
+        <v>-1.719457902186001</v>
       </c>
       <c r="C29">
-        <v>1.321631488184289</v>
+        <v>1.137153946695969</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>0.6028931962793486</v>
+        <v>0.9508335244332724</v>
       </c>
       <c r="B30">
-        <v>1.175787421554</v>
+        <v>0.5228551467773886</v>
       </c>
       <c r="C30">
-        <v>0.3377863726491861</v>
+        <v>0.2441670375227416</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>-1.307097182042229</v>
+        <v>-0.380808348845722</v>
       </c>
       <c r="B31">
-        <v>1.153016909994366</v>
+        <v>1.494654148118775</v>
       </c>
       <c r="C31">
-        <v>1.082026959450749</v>
+        <v>0.6035360567480864</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>-1.332653984163237</v>
+        <v>-0.8807753531123625</v>
       </c>
       <c r="B32">
-        <v>-0.1830330501107597</v>
+        <v>0.5320627483188258</v>
       </c>
       <c r="C32">
-        <v>0.9596816858427462</v>
+        <v>0.4514557604949382</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>1.779727710635708</v>
+        <v>1.004459094622226</v>
       </c>
       <c r="B33">
-        <v>-1.059272388061925</v>
+        <v>-2.768700636593632</v>
       </c>
       <c r="C33">
-        <v>0.6726646092342418</v>
+        <v>0.9326232707743458</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>-0.5478606183496508</v>
+        <v>0.03906285259665709</v>
       </c>
       <c r="B34">
-        <v>0.9190075258552501</v>
+        <v>1.017516827116152</v>
       </c>
       <c r="C34">
-        <v>0.3357253286757141</v>
+        <v>0.3044535489881541</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>1.066370657594056</v>
+        <v>1.184528266773541</v>
       </c>
       <c r="B35">
-        <v>0.7871144630870913</v>
+        <v>-0.05650572216236025</v>
       </c>
       <c r="C35">
-        <v>0.588803149929461</v>
+        <v>0.6181055777837026</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>-1.096043177122253</v>
+        <v>-1.736217833572986</v>
       </c>
       <c r="B36">
-        <v>-0.5147060229940051</v>
+        <v>0.05660111742959349</v>
       </c>
       <c r="C36">
-        <v>1.995707852450723</v>
+        <v>1.969268274611571</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>-1.497809879968694</v>
+        <v>-0.4928175437182147</v>
       </c>
       <c r="B37">
-        <v>0.8543764579038003</v>
+        <v>1.419378390271659</v>
       </c>
       <c r="C37">
-        <v>-1.447069289586568</v>
+        <v>-1.240247909521683</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>0.5368283694868712</v>
+        <v>-0.4130736616591241</v>
       </c>
       <c r="B38">
-        <v>-1.294267328670647</v>
+        <v>-0.9608091418504883</v>
       </c>
       <c r="C38">
-        <v>-0.7803875825989902</v>
+        <v>-0.3324061408314296</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>1.576593922105203</v>
+        <v>1.716730228026832</v>
       </c>
       <c r="B39">
-        <v>0.9846338618486917</v>
+        <v>-0.03016628491026453</v>
       </c>
       <c r="C39">
-        <v>0.1046825864305982</v>
+        <v>0.5747983868950706</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>-0.6422057735640453</v>
+        <v>-0.6653778882872091</v>
       </c>
       <c r="B40">
-        <v>-0.8823051448346274</v>
+        <v>-0.1965078487376198</v>
       </c>
       <c r="C40">
-        <v>-0.9305046884449378</v>
+        <v>-0.7229868149436678</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>-1.776764014052828</v>
+        <v>-1.390757123898331</v>
       </c>
       <c r="B41">
-        <v>-0.4474721452920207</v>
+        <v>0.444289106320009</v>
       </c>
       <c r="C41">
-        <v>0.1735526609489753</v>
+        <v>-0.2248844377783947</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>0.2867614620129004</v>
+        <v>-0.02379936465817702</v>
       </c>
       <c r="B42">
-        <v>-0.9417318147964857</v>
+        <v>-0.4478685234809782</v>
       </c>
       <c r="C42">
-        <v>-0.5371284216943875</v>
+        <v>-0.4595472607187718</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>-1.32585414620676</v>
+        <v>-0.6165695902355494</v>
       </c>
       <c r="B43">
-        <v>0.7530196673877777</v>
+        <v>0.8756182259026681</v>
       </c>
       <c r="C43">
-        <v>-0.05177969228159279</v>
+        <v>-0.07728304295353088</v>
       </c>
     </row>
   </sheetData>
@@ -3812,464 +3812,464 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>1.283693690161093</v>
+        <v>1.551799930259817</v>
       </c>
       <c r="B2">
-        <v>-0.06799625941274511</v>
+        <v>0.2712123731462334</v>
       </c>
       <c r="C2">
-        <v>-0.2237865931022688</v>
+        <v>-0.005580126360807148</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>0.03385441001978638</v>
+        <v>0.3287848063625038</v>
       </c>
       <c r="B3">
-        <v>0.09372984236254209</v>
+        <v>0.4872971746469042</v>
       </c>
       <c r="C3">
-        <v>-1.883650886532972</v>
+        <v>3.567491858209752</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>1.04531890765368</v>
+        <v>1.012640038171865</v>
       </c>
       <c r="B4">
-        <v>-0.8378393247291074</v>
+        <v>-0.92754972820159</v>
       </c>
       <c r="C4">
-        <v>-0.2899815602950644</v>
+        <v>0.9349244495562687</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>-1.46840306047364</v>
+        <v>-1.616721149648653</v>
       </c>
       <c r="B5">
-        <v>-1.223539595227075</v>
+        <v>-1.460475031200418</v>
       </c>
       <c r="C5">
-        <v>-0.7006407680371149</v>
+        <v>0.9045874739670593</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>0.5893636505984925</v>
+        <v>0.3405965342709335</v>
       </c>
       <c r="B6">
-        <v>0.1403453137468453</v>
+        <v>0.3707581140190509</v>
       </c>
       <c r="C6">
-        <v>1.166158583111748</v>
+        <v>-1.372375234683768</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>-1.009894966750478</v>
+        <v>-0.9804328156233931</v>
       </c>
       <c r="B7">
-        <v>0.4422320628298967</v>
+        <v>0.4414680372585951</v>
       </c>
       <c r="C7">
-        <v>-0.1757905137913166</v>
+        <v>0.5711346493827968</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>1.256864336066777</v>
+        <v>1.712085132221137</v>
       </c>
       <c r="B8">
-        <v>-0.4800751106652014</v>
+        <v>-0.5870674228606076</v>
       </c>
       <c r="C8">
-        <v>-0.0006250856440176262</v>
+        <v>0.09299383525457228</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>1.452217054950605</v>
+        <v>1.125970870336719</v>
       </c>
       <c r="B9">
-        <v>0.7179855425095838</v>
+        <v>0.7919828306438679</v>
       </c>
       <c r="C9">
-        <v>-0.2642887031836333</v>
+        <v>-0.2658242028834506</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>-1.011245362122489</v>
+        <v>-1.261951111005813</v>
       </c>
       <c r="B10">
-        <v>1.37442401366685</v>
+        <v>1.316696765402879</v>
       </c>
       <c r="C10">
-        <v>-0.5311173185997258</v>
+        <v>-0.2378456752997784</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>-1.25480124675395</v>
+        <v>-1.042399154533432</v>
       </c>
       <c r="B11">
-        <v>-0.1602673704123208</v>
+        <v>-0.1905028795272813</v>
       </c>
       <c r="C11">
-        <v>1.252672441932013</v>
+        <v>-0.8758610165999824</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>-0.8726807793498295</v>
+        <v>-1.02364077488139</v>
       </c>
       <c r="B12">
-        <v>0.4142479995883392</v>
+        <v>0.3914045346864921</v>
       </c>
       <c r="C12">
-        <v>1.278350191551842</v>
+        <v>-1.188402260724684</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>-0.4098780238376017</v>
+        <v>-0.7630052903504317</v>
       </c>
       <c r="B13">
-        <v>-0.5214293990042835</v>
+        <v>-0.4846761152320014</v>
       </c>
       <c r="C13">
-        <v>2.190632754780225</v>
+        <v>-1.913561324212507</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>-0.3409870034786334</v>
+        <v>-0.2032571597845336</v>
       </c>
       <c r="B14">
-        <v>1.309921740872835</v>
+        <v>0.9372657825622669</v>
       </c>
       <c r="C14">
-        <v>0.873747132339481</v>
+        <v>-0.918478421321771</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>-0.4816938681339368</v>
+        <v>-0.6809917270524797</v>
       </c>
       <c r="B15">
-        <v>-1.042200310768256</v>
+        <v>-0.8897288454339044</v>
       </c>
       <c r="C15">
-        <v>0.8080926173637589</v>
+        <v>-0.5281971005755793</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>-0.7940814897023072</v>
+        <v>-0.9175368525112896</v>
       </c>
       <c r="B16">
-        <v>0.8670944423804361</v>
+        <v>0.8099857143992795</v>
       </c>
       <c r="C16">
-        <v>0.4247337024236368</v>
+        <v>-0.5583336197540335</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>-0.5448835617153496</v>
+        <v>-0.5516068551303236</v>
       </c>
       <c r="B17">
-        <v>1.331091268491907</v>
+        <v>1.050290267746166</v>
       </c>
       <c r="C17">
-        <v>0.7703157561190037</v>
+        <v>-0.6801211123961901</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>-0.6124614587535983</v>
+        <v>-0.4413517297829313</v>
       </c>
       <c r="B18">
-        <v>0.3831898579580795</v>
+        <v>0.1864857136513624</v>
       </c>
       <c r="C18">
-        <v>0.8323750708678979</v>
+        <v>-1.327032526861368</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>1.507094867715514</v>
+        <v>1.705152255569551</v>
       </c>
       <c r="B19">
-        <v>0.1873539227998497</v>
+        <v>0.1016674240093549</v>
       </c>
       <c r="C19">
-        <v>1.256133405906346</v>
+        <v>-1.624813755915456</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>1.023937364683014</v>
+        <v>1.569019541503657</v>
       </c>
       <c r="B20">
-        <v>-1.845228079780109</v>
+        <v>-3.350701733459306</v>
       </c>
       <c r="C20">
-        <v>0.5213627972128613</v>
+        <v>-0.9910946331438113</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>-0.8092015391575846</v>
+        <v>-0.9124625315957545</v>
       </c>
       <c r="B21">
-        <v>1.522947323064834</v>
+        <v>1.540692172479689</v>
       </c>
       <c r="C21">
-        <v>-0.7607888984538638</v>
+        <v>0.3093742716259973</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>-0.25380218463591</v>
+        <v>-0.2322825365657801</v>
       </c>
       <c r="B22">
-        <v>0.1183542362027802</v>
+        <v>-0.1529055983787541</v>
       </c>
       <c r="C22">
-        <v>-1.043675669537685</v>
+        <v>0.3806382284940935</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>0.4953446217498184</v>
+        <v>0.3552465060108134</v>
       </c>
       <c r="B23">
-        <v>-1.035155408647725</v>
+        <v>-0.594245036973054</v>
       </c>
       <c r="C23">
-        <v>-1.702191353174246</v>
+        <v>1.44387149745109</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>-0.5846531885546769</v>
+        <v>-0.5080454669528479</v>
       </c>
       <c r="B24">
-        <v>-0.9907327675057376</v>
+        <v>-0.654968274068334</v>
       </c>
       <c r="C24">
-        <v>-1.789171474830582</v>
+        <v>1.458079810925487</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>1.290192749795134</v>
+        <v>1.062184138613102</v>
       </c>
       <c r="B25">
-        <v>-0.5837218506839437</v>
+        <v>-0.08189231591629488</v>
       </c>
       <c r="C25">
-        <v>-0.1245343455424983</v>
+        <v>0.03144894307837495</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>0.9546877320568982</v>
+        <v>1.221864815359425</v>
       </c>
       <c r="B26">
-        <v>0.07544727547477588</v>
+        <v>0.5644969851039795</v>
       </c>
       <c r="C26">
-        <v>-0.6142647966479625</v>
+        <v>0.758141495813777</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>1.512791434140657</v>
+        <v>1.226903766561021</v>
       </c>
       <c r="B27">
-        <v>0.05199978663016552</v>
+        <v>0.3501353936188613</v>
       </c>
       <c r="C27">
-        <v>0.3472478342365072</v>
+        <v>-0.5792145194539132</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>-0.5892997724993996</v>
+        <v>-0.6102652555246547</v>
       </c>
       <c r="B28">
-        <v>-1.09315959921272</v>
+        <v>-0.8004198869686784</v>
       </c>
       <c r="C28">
-        <v>-0.6489825899643487</v>
+        <v>1.013575841200518</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>-0.2969243389769182</v>
+        <v>-0.1156177542455498</v>
       </c>
       <c r="B29">
-        <v>1.528075919488888</v>
+        <v>1.56036627494438</v>
       </c>
       <c r="C29">
-        <v>-2.345660094250976</v>
+        <v>1.400218305594334</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>-0.09827748168077384</v>
+        <v>-0.1969678378773285</v>
       </c>
       <c r="B30">
-        <v>0.3121982482975679</v>
+        <v>0.3335579634402941</v>
       </c>
       <c r="C30">
-        <v>-1.005190321745031</v>
+        <v>0.5756420054533469</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>1.523499452283535</v>
+        <v>0.9495968551917999</v>
       </c>
       <c r="B31">
-        <v>0.004833041259160844</v>
+        <v>0.08715518978140682</v>
       </c>
       <c r="C31">
-        <v>-0.5372875376737253</v>
+        <v>0.1040723227917352</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>0.04856627236524935</v>
+        <v>-0.1838669595709637</v>
       </c>
       <c r="B32">
-        <v>-0.9886084603380281</v>
+        <v>-0.5275147587309198</v>
       </c>
       <c r="C32">
-        <v>1.102535352798792</v>
+        <v>-0.5904194631775831</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>-1.831811551869523</v>
+        <v>-1.765497562915089</v>
       </c>
       <c r="B33">
-        <v>-0.3391488403297359</v>
+        <v>-0.3928075511349187</v>
       </c>
       <c r="C33">
-        <v>0.2846611299774792</v>
+        <v>-0.02627102319488344</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>-1.315385703813509</v>
+        <v>-1.024855043368699</v>
       </c>
       <c r="B34">
-        <v>-1.729384019472198</v>
+        <v>-1.693868441438004</v>
       </c>
       <c r="C34">
-        <v>-0.1554281521272374</v>
+        <v>0.3744484892527409</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>-1.040210755282674</v>
+        <v>-0.7385764849782932</v>
       </c>
       <c r="B35">
-        <v>-0.7155251996036182</v>
+        <v>-0.418144968869855</v>
       </c>
       <c r="C35">
-        <v>-1.066664188269995</v>
+        <v>0.6668343398694851</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>-0.432035403748264</v>
+        <v>-0.3031996294153395</v>
       </c>
       <c r="B36">
-        <v>-1.816867633706437</v>
+        <v>-1.536105629527914</v>
       </c>
       <c r="C36">
-        <v>-0.7668235189249335</v>
+        <v>0.8954545320803396</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>0.7465783447826496</v>
+        <v>0.4818170868016681</v>
       </c>
       <c r="B37">
-        <v>-0.1361436170577216</v>
+        <v>-0.0585584544988183</v>
       </c>
       <c r="C37">
-        <v>1.484626159738293</v>
+        <v>-0.7761821616115286</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>-1.20522529293229</v>
+        <v>-0.8963568316876516</v>
       </c>
       <c r="B38">
-        <v>0.6580582275784578</v>
+        <v>0.2686511396286594</v>
       </c>
       <c r="C38">
-        <v>0.3047216071036446</v>
+        <v>0.008315976450194032</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>-0.820039077978448</v>
+        <v>-0.712210551780967</v>
       </c>
       <c r="B39">
-        <v>1.89047302842261</v>
+        <v>1.380434214058486</v>
       </c>
       <c r="C39">
-        <v>0.5549375406934014</v>
+        <v>-0.4568774680853561</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>2.155348645751899</v>
+        <v>2.240354652918338</v>
       </c>
       <c r="B40">
-        <v>0.549957528346671</v>
+        <v>0.8069512162882324</v>
       </c>
       <c r="C40">
-        <v>-0.3474018361919168</v>
+        <v>0.3670546534587626</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>0.8438006058597882</v>
+        <v>0.750438940573585</v>
       </c>
       <c r="B41">
-        <v>1.515515191090216</v>
+        <v>1.141672663607613</v>
       </c>
       <c r="C41">
-        <v>-0.1936836796225508</v>
+        <v>0.1048651150939694</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>0.444960071492791</v>
+        <v>0.445756398352685</v>
       </c>
       <c r="B42">
-        <v>1.58598208283025</v>
+        <v>1.195500844510017</v>
       </c>
       <c r="C42">
-        <v>0.3297481169841415</v>
+        <v>-0.2231373456952035</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>-0.1302370999255975</v>
+        <v>-0.3971132022950314</v>
       </c>
       <c r="B43">
-        <v>-1.468435049336578</v>
+        <v>-1.583996117213418</v>
       </c>
       <c r="C43">
-        <v>1.388577691002592</v>
+        <v>-0.8235451030530385</v>
       </c>
     </row>
   </sheetData>
@@ -4298,464 +4298,464 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>-0.3967646650811228</v>
+        <v>0.4171041738966811</v>
       </c>
       <c r="B2">
-        <v>-1.637968031493006</v>
+        <v>1.481485203735097</v>
       </c>
       <c r="C2">
-        <v>0.2668498214678671</v>
+        <v>-0.466058488211289</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>-0.6007569127919182</v>
+        <v>0.6469467332407709</v>
       </c>
       <c r="B3">
-        <v>-0.8517566353378018</v>
+        <v>0.8060059708512931</v>
       </c>
       <c r="C3">
-        <v>-0.9507276646257642</v>
+        <v>0.2502324171919962</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>0.3982685618565828</v>
+        <v>-1.106814790342725</v>
       </c>
       <c r="B4">
-        <v>-0.4939445129219712</v>
+        <v>1.135266312305532</v>
       </c>
       <c r="C4">
-        <v>-1.148887460661387</v>
+        <v>3.313641684551479</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>-0.5234237422637036</v>
+        <v>0.8899541891888987</v>
       </c>
       <c r="B5">
-        <v>-0.2282848167574109</v>
+        <v>0.3327831930835399</v>
       </c>
       <c r="C5">
-        <v>-1.125697334956191</v>
+        <v>0.3889643140958998</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>0.2235682565661356</v>
+        <v>-0.2021605382471491</v>
       </c>
       <c r="B6">
-        <v>0.6761632540254749</v>
+        <v>-1.036838743926175</v>
       </c>
       <c r="C6">
-        <v>0.9348890008393432</v>
+        <v>-1.468567528830102</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>-1.575738718558467</v>
+        <v>1.923450623432501</v>
       </c>
       <c r="B7">
-        <v>0.469839459049033</v>
+        <v>-0.1645861859257491</v>
       </c>
       <c r="C7">
-        <v>-0.653054801324247</v>
+        <v>0.5212864069742278</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>0.3969066981684045</v>
+        <v>-0.8957490359733697</v>
       </c>
       <c r="B8">
-        <v>-1.627623980286615</v>
+        <v>1.966400359611498</v>
       </c>
       <c r="C8">
-        <v>0.6346822264399701</v>
+        <v>0.09730064914034042</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>0.3610019172575354</v>
+        <v>-0.2076919709959019</v>
       </c>
       <c r="B9">
-        <v>0.2448590747583421</v>
+        <v>-0.3382721927964593</v>
       </c>
       <c r="C9">
-        <v>0.4238484738763826</v>
+        <v>-0.450509956997772</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>1.169147055038317</v>
+        <v>-1.37705783405111</v>
       </c>
       <c r="B10">
-        <v>0.4400876152184307</v>
+        <v>-0.522481385865225</v>
       </c>
       <c r="C10">
-        <v>0.3295508902567318</v>
+        <v>0.2102727705306502</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>-1.034378434806339</v>
+        <v>1.066631617711891</v>
       </c>
       <c r="B11">
-        <v>-0.9503648044677364</v>
+        <v>0.5839570529135539</v>
       </c>
       <c r="C11">
-        <v>0.95059454203959</v>
+        <v>-0.3536404688215475</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>0.1319986492020914</v>
+        <v>-0.02497559712970672</v>
       </c>
       <c r="B12">
-        <v>2.158379073134716</v>
+        <v>-1.704485938993139</v>
       </c>
       <c r="C12">
-        <v>-0.3841025777815321</v>
+        <v>0.9777640474896527</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>-1.849664581357333</v>
+        <v>2.284128551891669</v>
       </c>
       <c r="B13">
-        <v>-0.4566080749571196</v>
+        <v>0.5382311042150577</v>
       </c>
       <c r="C13">
-        <v>-0.4729100133056089</v>
+        <v>-0.3295109901211265</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>-0.2306293039336046</v>
+        <v>0.1628030967346905</v>
       </c>
       <c r="B14">
-        <v>0.4614366164933466</v>
+        <v>-0.3530734158216856</v>
       </c>
       <c r="C14">
-        <v>0.4783641734707902</v>
+        <v>0.5512620744878466</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>0.4519615906448905</v>
+        <v>-0.350633835190873</v>
       </c>
       <c r="B15">
-        <v>0.3161462801745097</v>
+        <v>-0.08046302469964088</v>
       </c>
       <c r="C15">
-        <v>-0.9896904438500779</v>
+        <v>1.357478221139507</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>-0.6230596024337678</v>
+        <v>0.8173841649471543</v>
       </c>
       <c r="B16">
-        <v>1.043075821389376</v>
+        <v>-0.9612897332497898</v>
       </c>
       <c r="C16">
-        <v>1.150654238403322</v>
+        <v>-0.9122410229419443</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>0.4780468594022337</v>
+        <v>-0.2937674857894906</v>
       </c>
       <c r="B17">
-        <v>1.753397900685857</v>
+        <v>-1.593050346227006</v>
       </c>
       <c r="C17">
-        <v>0.3656467950138498</v>
+        <v>-0.1172669854378123</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>0.1886014164654479</v>
+        <v>-0.3738900071689666</v>
       </c>
       <c r="B18">
-        <v>1.947435788449998</v>
+        <v>-3.131737168974805</v>
       </c>
       <c r="C18">
-        <v>1.353128238287367</v>
+        <v>-1.769418214916316</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>0.7456378471588199</v>
+        <v>-0.8634602899287086</v>
       </c>
       <c r="B19">
-        <v>1.371604200924172</v>
+        <v>-1.180280675931131</v>
       </c>
       <c r="C19">
-        <v>0.6922068043846507</v>
+        <v>1.511989746545115</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>0.1606254213851324</v>
+        <v>-0.1064826672691618</v>
       </c>
       <c r="B20">
-        <v>0.1015270971615879</v>
+        <v>-0.3795907087750576</v>
       </c>
       <c r="C20">
-        <v>1.111504834775235</v>
+        <v>-1.025157659503408</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>0.4677911103581177</v>
+        <v>-0.4596524006729044</v>
       </c>
       <c r="B21">
-        <v>2.234926044586866</v>
+        <v>-2.37368509463526</v>
       </c>
       <c r="C21">
-        <v>0.8459045320697598</v>
+        <v>0.606822909209678</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>0.9894809799132334</v>
+        <v>-0.5178581350225678</v>
       </c>
       <c r="B22">
-        <v>-0.8771298138311737</v>
+        <v>0.7931546674173858</v>
       </c>
       <c r="C22">
-        <v>0.3424935059638194</v>
+        <v>-0.6305336732912166</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>1.477864786339257</v>
+        <v>-1.449203077152139</v>
       </c>
       <c r="B23">
-        <v>-1.158061126677885</v>
+        <v>1.173462375970735</v>
       </c>
       <c r="C23">
-        <v>0.1647264880627749</v>
+        <v>-1.097542670358042</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>0.3353353974636347</v>
+        <v>0.2164124913224387</v>
       </c>
       <c r="B24">
-        <v>-1.283844121339949</v>
+        <v>1.502910027312995</v>
       </c>
       <c r="C24">
-        <v>-0.7190947735890009</v>
+        <v>-1.369062630027224</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>1.017751400835267</v>
+        <v>-0.3457500992415329</v>
       </c>
       <c r="B25">
-        <v>-1.16205325043961</v>
+        <v>0.8828616930118478</v>
       </c>
       <c r="C25">
-        <v>-1.063493647004066</v>
+        <v>-0.8275843792171991</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>1.7091846187973</v>
+        <v>-1.567386934097667</v>
       </c>
       <c r="B26">
-        <v>-0.9954582257031255</v>
+        <v>0.9225510094681701</v>
       </c>
       <c r="C26">
-        <v>0.8957172379281347</v>
+        <v>-1.398144245536743</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>1.639635953261135</v>
+        <v>-1.694188905775046</v>
       </c>
       <c r="B27">
-        <v>-0.6177302313164902</v>
+        <v>0.6954206794702965</v>
       </c>
       <c r="C27">
-        <v>-0.4932116729886211</v>
+        <v>-0.5715056882531954</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>1.540597983768188</v>
+        <v>-1.367828459682838</v>
       </c>
       <c r="B28">
-        <v>-0.1878735743445938</v>
+        <v>-0.06972098671180406</v>
       </c>
       <c r="C28">
-        <v>1.144171555805947</v>
+        <v>-2.118134392476043</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>1.472935083843674</v>
+        <v>-1.087637475603119</v>
       </c>
       <c r="B29">
-        <v>0.3841795330143833</v>
+        <v>-0.07783376145959385</v>
       </c>
       <c r="C29">
-        <v>-1.329603880723512</v>
+        <v>0.3172124342483665</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>0.1169406200183487</v>
+        <v>0.1740105768724217</v>
       </c>
       <c r="B30">
-        <v>-0.3340111494954413</v>
+        <v>0.3003855703178446</v>
       </c>
       <c r="C30">
-        <v>-1.65465823692065</v>
+        <v>-0.2047098756103701</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>-0.2074541570436851</v>
+        <v>0.6161190529789363</v>
       </c>
       <c r="B31">
-        <v>0.6100385804138824</v>
+        <v>-0.1384649039614499</v>
       </c>
       <c r="C31">
-        <v>-2.509767844291784</v>
+        <v>0.6641472031326082</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>-0.3930277592247218</v>
+        <v>0.4199201070220823</v>
       </c>
       <c r="B32">
-        <v>0.05828039814253826</v>
+        <v>0.02935093412746966</v>
       </c>
       <c r="C32">
-        <v>-1.377368175059564</v>
+        <v>0.08931673111663332</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>-1.383900610405145</v>
+        <v>0.8691097335059874</v>
       </c>
       <c r="B33">
-        <v>-0.2251190359272666</v>
+        <v>0.1171123327709827</v>
       </c>
       <c r="C33">
-        <v>-0.6733694435372893</v>
+        <v>0.2839624642535619</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>-0.4688996416973323</v>
+        <v>0.3876591082294376</v>
       </c>
       <c r="B34">
-        <v>-1.470331259499194</v>
+        <v>0.6273919137424597</v>
       </c>
       <c r="C34">
-        <v>1.299255357624499</v>
+        <v>-0.3912193831854217</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>-1.904746679687596</v>
+        <v>1.756409535710799</v>
       </c>
       <c r="B35">
-        <v>0.2222109451607492</v>
+        <v>0.04725969763589801</v>
       </c>
       <c r="C35">
-        <v>-0.3846118818772724</v>
+        <v>0.5141768903484116</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>-1.666827032734544</v>
+        <v>1.224193837077679</v>
       </c>
       <c r="B36">
-        <v>-0.6301308060116756</v>
+        <v>0.4834556740565759</v>
       </c>
       <c r="C36">
-        <v>-0.03703326307326912</v>
+        <v>0.2538050130303125</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>-0.2826124495987996</v>
+        <v>0.3452817535448291</v>
       </c>
       <c r="B37">
-        <v>0.876189321696846</v>
+        <v>-0.3715697672556277</v>
       </c>
       <c r="C37">
-        <v>-0.8778715106940471</v>
+        <v>0.7142103958725176</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>-1.328190342319293</v>
+        <v>0.9281032213747729</v>
       </c>
       <c r="B38">
-        <v>-0.04170034729881598</v>
+        <v>-0.003443360720719544</v>
       </c>
       <c r="C38">
-        <v>1.496926568129857</v>
+        <v>-0.03353722300225392</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>-0.9983181767899537</v>
+        <v>0.5476269014779258</v>
       </c>
       <c r="B39">
-        <v>0.6467065458120539</v>
+        <v>-0.322069096288898</v>
       </c>
       <c r="C39">
-        <v>0.2438729213235</v>
+        <v>0.4851034217044818</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>1.76947048435135</v>
+        <v>-2.357159014799348</v>
       </c>
       <c r="B40">
-        <v>0.43640626763646</v>
+        <v>-0.1217633022781947</v>
       </c>
       <c r="C40">
-        <v>-0.7748246671327446</v>
+        <v>1.832425856631926</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>-0.07297733320652285</v>
+        <v>-0.1546861365199128</v>
       </c>
       <c r="B41">
-        <v>-1.316091043878206</v>
+        <v>0.8393140003338094</v>
       </c>
       <c r="C41">
-        <v>1.073782381005774</v>
+        <v>0.7413024677439445</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>-0.8768253908701859</v>
+        <v>0.7451967591552394</v>
       </c>
       <c r="B42">
-        <v>0.7042418639406842</v>
+        <v>-0.4230062078936826</v>
       </c>
       <c r="C42">
-        <v>-0.5681079168180463</v>
+        <v>0.1875151255814251</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>-0.8245571572910623</v>
+        <v>0.3655884613374321</v>
       </c>
       <c r="B43">
-        <v>-0.611046839884218</v>
+        <v>0.08894623003905221</v>
       </c>
       <c r="C43">
-        <v>1.989316623045509</v>
+        <v>-0.335847768281555</v>
       </c>
     </row>
   </sheetData>
@@ -4784,464 +4784,464 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>0.9075501539108702</v>
+        <v>-2.742878748586852</v>
       </c>
       <c r="B2">
-        <v>0.915133644187706</v>
+        <v>0.1234992858761147</v>
       </c>
       <c r="C2">
-        <v>1.115637602125484</v>
+        <v>-0.6042902027945838</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>0.8833915854531398</v>
+        <v>-1.843779446668516</v>
       </c>
       <c r="B3">
-        <v>0.4833485886803441</v>
+        <v>-0.5757901807132637</v>
       </c>
       <c r="C3">
-        <v>1.283537566893768</v>
+        <v>-1.655694878059683</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>0.1515626825420573</v>
+        <v>-1.616962963697121</v>
       </c>
       <c r="B4">
-        <v>0.6950429109789327</v>
+        <v>0.08821318567772085</v>
       </c>
       <c r="C4">
-        <v>-0.3107589049810567</v>
+        <v>5.712893254018103</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>-0.8207311104611964</v>
+        <v>1.69043959224983</v>
       </c>
       <c r="B5">
-        <v>-1.059229966977794</v>
+        <v>0.1421617494170427</v>
       </c>
       <c r="C5">
-        <v>-0.5096293093806457</v>
+        <v>-0.3663620029145447</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>-0.5044523481259157</v>
+        <v>1.269208595110942</v>
       </c>
       <c r="B6">
-        <v>-1.557291565865609</v>
+        <v>-0.7485383631573673</v>
       </c>
       <c r="C6">
-        <v>0.2448915177445471</v>
+        <v>-0.2915007170638645</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>-0.7501173255162228</v>
+        <v>1.413286143513412</v>
       </c>
       <c r="B7">
-        <v>-0.4675005324408713</v>
+        <v>0.8541988669962883</v>
       </c>
       <c r="C7">
-        <v>-0.9468525840521677</v>
+        <v>-0.3415920625131732</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>0.4148949662869171</v>
+        <v>-0.9596714243924971</v>
       </c>
       <c r="B8">
-        <v>1.48692666550264</v>
+        <v>1.205395038390174</v>
       </c>
       <c r="C8">
-        <v>0.08409104284357019</v>
+        <v>-0.2778696076308472</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>1.218358536557923</v>
+        <v>-0.89378755898316</v>
       </c>
       <c r="B9">
-        <v>0.794690516960656</v>
+        <v>0.3471551958794654</v>
       </c>
       <c r="C9">
-        <v>0.4963389650912031</v>
+        <v>-1.200724470619398</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>0.6534390818992212</v>
+        <v>-1.840935843480723</v>
       </c>
       <c r="B10">
-        <v>0.8413405470956752</v>
+        <v>-0.3106334306154293</v>
       </c>
       <c r="C10">
-        <v>1.066147881401385</v>
+        <v>-1.380297497660669</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>-0.7102327665293449</v>
+        <v>1.19990284851183</v>
       </c>
       <c r="B11">
-        <v>0.06724725376120877</v>
+        <v>1.112526370957056</v>
       </c>
       <c r="C11">
-        <v>-1.582925745481922</v>
+        <v>-0.1821561845070147</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>-0.9745218387850908</v>
+        <v>1.321933569886893</v>
       </c>
       <c r="B12">
-        <v>-1.363153884219346</v>
+        <v>-0.6420284472292306</v>
       </c>
       <c r="C12">
-        <v>0.02068384832991466</v>
+        <v>-0.231132037210455</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>-0.6984416076473414</v>
+        <v>1.113686168380056</v>
       </c>
       <c r="B13">
-        <v>0.8447698790737724</v>
+        <v>1.705613617642978</v>
       </c>
       <c r="C13">
-        <v>-1.724905549692038</v>
+        <v>0.1420027363455126</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>-0.4009462534073127</v>
+        <v>0.842274215412633</v>
       </c>
       <c r="B14">
-        <v>-0.5911710777183519</v>
+        <v>0.3164407408995105</v>
       </c>
       <c r="C14">
-        <v>-0.1716292912800084</v>
+        <v>-0.1955087020077127</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>0.6130045779390735</v>
+        <v>-0.3069274349907676</v>
       </c>
       <c r="B15">
-        <v>0.9768296419932507</v>
+        <v>0.818369209803552</v>
       </c>
       <c r="C15">
-        <v>-0.5734987893143381</v>
+        <v>-0.04815690349598291</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>-0.7103019797604078</v>
+        <v>1.615423409233308</v>
       </c>
       <c r="B16">
-        <v>-1.854526074449348</v>
+        <v>-1.057561328059583</v>
       </c>
       <c r="C16">
-        <v>-0.1689925130148079</v>
+        <v>0.4948732702488269</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>-1.072564410380323</v>
+        <v>1.268449453154659</v>
       </c>
       <c r="B17">
-        <v>-0.4718594898571053</v>
+        <v>0.6674755010543533</v>
       </c>
       <c r="C17">
-        <v>-1.109738166351556</v>
+        <v>0.2386931028434165</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>-0.7055027713376912</v>
+        <v>1.15300508617636</v>
       </c>
       <c r="B18">
-        <v>-1.827849287563652</v>
+        <v>-1.990527115930091</v>
       </c>
       <c r="C18">
-        <v>0.6940993229868125</v>
+        <v>-0.05862363730917308</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>0.1853239535186542</v>
+        <v>-0.1331480487220872</v>
       </c>
       <c r="B19">
-        <v>-0.9153783662481565</v>
+        <v>-1.256343026649031</v>
       </c>
       <c r="C19">
-        <v>1.111929732396409</v>
+        <v>0.02098186413726377</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>0.2367815832188283</v>
+        <v>-0.09859456252180973</v>
       </c>
       <c r="B20">
-        <v>-1.689956038996375</v>
+        <v>-3.549202158054355</v>
       </c>
       <c r="C20">
-        <v>1.145065308680643</v>
+        <v>0.2559574959921422</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>0.118262363751525</v>
+        <v>0.1194558041029412</v>
       </c>
       <c r="B21">
-        <v>-1.915090799169595</v>
+        <v>-2.92020764103923</v>
       </c>
       <c r="C21">
-        <v>1.189670277045676</v>
+        <v>0.08541300078730225</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>1.476651005311271</v>
+        <v>-0.7410237716800961</v>
       </c>
       <c r="B22">
-        <v>0.3801758533410891</v>
+        <v>0.7623679891414197</v>
       </c>
       <c r="C22">
-        <v>-0.1254417317158882</v>
+        <v>-0.133823414955646</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>0.01971099856211636</v>
+        <v>0.7432119087831</v>
       </c>
       <c r="B23">
-        <v>-0.7971885103007035</v>
+        <v>0.5528137302195428</v>
       </c>
       <c r="C23">
-        <v>-1.31430367520396</v>
+        <v>0.1279474311035199</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>1.045980328669598</v>
+        <v>-0.3034689514446881</v>
       </c>
       <c r="B24">
-        <v>0.8407280767881711</v>
+        <v>1.232145402531</v>
       </c>
       <c r="C24">
-        <v>-1.799995269373748</v>
+        <v>0.4306539531234997</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>0.9307279416279814</v>
+        <v>0.01743166052307593</v>
       </c>
       <c r="B25">
-        <v>-1.00375280290234</v>
+        <v>0.1355266992404974</v>
       </c>
       <c r="C25">
-        <v>-0.7683330675373188</v>
+        <v>-0.3570073968827607</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>0.8200853131331476</v>
+        <v>-0.1896998593540428</v>
       </c>
       <c r="B26">
-        <v>-0.7970293250677312</v>
+        <v>-0.03045519763429519</v>
       </c>
       <c r="C26">
-        <v>-0.2725676734671931</v>
+        <v>-0.2428044093556129</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>1.600416066442135</v>
+        <v>-1.363095554268333</v>
       </c>
       <c r="B27">
-        <v>0.183045831728629</v>
+        <v>0.440288100458451</v>
       </c>
       <c r="C27">
-        <v>0.1258430327349782</v>
+        <v>-1.026887431942394</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>-0.01058199258723081</v>
+        <v>0.3062273491300335</v>
       </c>
       <c r="B28">
-        <v>-0.6084815768146236</v>
+        <v>0.2483030645435605</v>
       </c>
       <c r="C28">
-        <v>-0.3402843087337846</v>
+        <v>-0.3191614529141054</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>1.53445526603484</v>
+        <v>-0.3249681345113987</v>
       </c>
       <c r="B29">
-        <v>0.2079488702662649</v>
+        <v>0.5101149760026372</v>
       </c>
       <c r="C29">
-        <v>-1.093227247786912</v>
+        <v>0.1052831391189787</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>0.07543809147509023</v>
+        <v>0.3711677650737496</v>
       </c>
       <c r="B30">
-        <v>-0.5045231542843002</v>
+        <v>0.3051479376668651</v>
       </c>
       <c r="C30">
-        <v>-1.727070712021482</v>
+        <v>0.4538480720676183</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>-1.419095856378965</v>
+        <v>0.4832182130367748</v>
       </c>
       <c r="B31">
-        <v>1.070329966303788</v>
+        <v>0.6851497605186336</v>
       </c>
       <c r="C31">
-        <v>-0.7483956767954111</v>
+        <v>0.1699614686905937</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>-0.5299146376206244</v>
+        <v>0.3111527783545949</v>
       </c>
       <c r="B32">
-        <v>0.4871837072505185</v>
+        <v>0.5119355586197407</v>
       </c>
       <c r="C32">
-        <v>-1.304245554169271</v>
+        <v>0.115487028738819</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>-1.164259750164759</v>
+        <v>0.2302567192300358</v>
       </c>
       <c r="B33">
-        <v>1.268486734889782</v>
+        <v>0.4893800351344831</v>
       </c>
       <c r="C33">
-        <v>-0.4390879233004844</v>
+        <v>0.1043517628625107</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>-1.683998419539551</v>
+        <v>0.3549907384081813</v>
       </c>
       <c r="B34">
-        <v>1.137494234165376</v>
+        <v>0.4541891031103655</v>
       </c>
       <c r="C34">
-        <v>0.09240291587585904</v>
+        <v>0.1433109601629038</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>-1.825609980242838</v>
+        <v>0.3863801190452267</v>
       </c>
       <c r="B35">
-        <v>1.213738786831777</v>
+        <v>0.4387437978843199</v>
       </c>
       <c r="C35">
-        <v>0.4535820853711521</v>
+        <v>0.1190216230614527</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>1.207751936509644</v>
+        <v>-0.5388240167941643</v>
       </c>
       <c r="B36">
-        <v>0.8784203564523703</v>
+        <v>0.161766589599016</v>
       </c>
       <c r="C36">
-        <v>0.4787486087976185</v>
+        <v>-0.050528194039926</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>1.304422451426151</v>
+        <v>-0.3968633308494879</v>
       </c>
       <c r="B37">
-        <v>0.4114730991742512</v>
+        <v>0.1056638448447538</v>
       </c>
       <c r="C37">
-        <v>-0.09332785983075177</v>
+        <v>-0.04041727987816766</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>-0.7366978474620587</v>
+        <v>-0.02429038323744257</v>
       </c>
       <c r="B38">
-        <v>0.3768146817780031</v>
+        <v>0.03020623784590471</v>
       </c>
       <c r="C38">
-        <v>0.8789073855669869</v>
+        <v>0.051986484161714</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>-1.369189534545134</v>
+        <v>-0.003527957408342942</v>
       </c>
       <c r="B39">
-        <v>1.247321667751348</v>
+        <v>0.0677157884454965</v>
       </c>
       <c r="C39">
-        <v>1.46057890045995</v>
+        <v>0.1147847745987512</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>2.01852575113762</v>
+        <v>-1.036559393760335</v>
       </c>
       <c r="B40">
-        <v>-0.5427051443120442</v>
+        <v>-0.5239121249907032</v>
       </c>
       <c r="C40">
-        <v>-0.03182234884546852</v>
+        <v>0.231554770138547</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>0.7229669813832538</v>
+        <v>-0.6625999060484294</v>
       </c>
       <c r="B41">
-        <v>0.9536174881295434</v>
+        <v>-0.1490791545208081</v>
       </c>
       <c r="C41">
-        <v>1.619016043504907</v>
+        <v>-0.06248514373787038</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>-0.6888251968742022</v>
+        <v>-0.05389103183146032</v>
       </c>
       <c r="B42">
-        <v>-0.7437468442799405</v>
+        <v>-0.5759180391211194</v>
       </c>
       <c r="C42">
-        <v>1.753239222826292</v>
+        <v>-0.1357782588273812</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>-1.363715989424849</v>
+        <v>-0.1356038140858806</v>
       </c>
       <c r="B43">
-        <v>0.9483254383827889</v>
+        <v>-0.1823111706864358</v>
       </c>
       <c r="C43">
-        <v>1.842622641653055</v>
+        <v>0.08379569411948987</v>
       </c>
     </row>
   </sheetData>
@@ -5270,464 +5270,464 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>1.167783596004253</v>
+        <v>2.028530145215644</v>
       </c>
       <c r="B2">
-        <v>0.334504372111582</v>
+        <v>1.940114313471011</v>
       </c>
       <c r="C2">
-        <v>1.502485573045014</v>
+        <v>-0.7087955931753602</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>1.121832966910604</v>
+        <v>1.89292030884025</v>
       </c>
       <c r="B3">
-        <v>0.3956490585328874</v>
+        <v>2.601533645192656</v>
       </c>
       <c r="C3">
-        <v>1.813748591931803</v>
+        <v>-3.547452469492208</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>1.659292018550435</v>
+        <v>3.505954575935747</v>
       </c>
       <c r="B4">
-        <v>-0.09151129995310285</v>
+        <v>0.6962646746925825</v>
       </c>
       <c r="C4">
-        <v>0.9911323523365498</v>
+        <v>4.26640087321735</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>-0.006339659885687397</v>
+        <v>-0.6639137989661946</v>
       </c>
       <c r="B5">
-        <v>-0.4299517242998421</v>
+        <v>-0.4959388588250714</v>
       </c>
       <c r="C5">
-        <v>-0.7399711421218933</v>
+        <v>-1.246902684011496</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>0.2090167963310114</v>
+        <v>-0.5347926204149029</v>
       </c>
       <c r="B6">
-        <v>-0.8319533704862647</v>
+        <v>-2.014384021202364</v>
       </c>
       <c r="C6">
-        <v>-1.64286143694964</v>
+        <v>-1.04940263878304</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>-1.543218811196903</v>
+        <v>-1.590432941637764</v>
       </c>
       <c r="B7">
-        <v>-0.1713797376874675</v>
+        <v>0.002590018108720748</v>
       </c>
       <c r="C7">
-        <v>-0.6413122776885292</v>
+        <v>0.1818864956043538</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>-0.1815517563655323</v>
+        <v>-0.393879901835252</v>
       </c>
       <c r="B8">
-        <v>1.173488695710149</v>
+        <v>0.323266811842013</v>
       </c>
       <c r="C8">
-        <v>0.03630829169887505</v>
+        <v>0.7071630598331636</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>-0.7785491407626183</v>
+        <v>-0.6871069457701782</v>
       </c>
       <c r="B9">
-        <v>-0.09226676583540669</v>
+        <v>0.7211990209087539</v>
       </c>
       <c r="C9">
-        <v>1.477343204049173</v>
+        <v>0.03852449639579136</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>-0.9130562500081078</v>
+        <v>-1.142936859514057</v>
       </c>
       <c r="B10">
-        <v>-0.714072404210682</v>
+        <v>-0.3798471818657661</v>
       </c>
       <c r="C10">
-        <v>-0.3041886218711876</v>
+        <v>-0.07607989649187827</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>-2.226853700073622</v>
+        <v>-1.5695906318858</v>
       </c>
       <c r="B11">
-        <v>0.232926564992455</v>
+        <v>0.4708837252965545</v>
       </c>
       <c r="C11">
-        <v>-0.1387077772945925</v>
+        <v>0.2820479652998659</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>-1.05556654677426</v>
+        <v>-1.12870447065818</v>
       </c>
       <c r="B12">
-        <v>0.4635897919063837</v>
+        <v>-0.1959390562520271</v>
       </c>
       <c r="C12">
-        <v>-1.163935736839369</v>
+        <v>0.7779451778990085</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>-0.4222080639436699</v>
+        <v>-0.7475092525860564</v>
       </c>
       <c r="B13">
-        <v>-0.6862039798887393</v>
+        <v>0.0360497159835893</v>
       </c>
       <c r="C13">
-        <v>-0.3947055562245484</v>
+        <v>0.6934670337945883</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>1.065115072671402</v>
+        <v>0.4634008443852979</v>
       </c>
       <c r="B14">
-        <v>0.01471680700289952</v>
+        <v>-1.402106361639754</v>
       </c>
       <c r="C14">
-        <v>-1.390416924777562</v>
+        <v>0.801788570691884</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>-1.237553507276353</v>
+        <v>-1.000858369819384</v>
       </c>
       <c r="B15">
-        <v>0.1545587996747042</v>
+        <v>0.2584932585299788</v>
       </c>
       <c r="C15">
-        <v>-0.05074489545253315</v>
+        <v>0.5886315609382122</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>-0.560399030559504</v>
+        <v>-0.7584440152537332</v>
       </c>
       <c r="B16">
-        <v>-0.8118547125227932</v>
+        <v>-0.7346233537310984</v>
       </c>
       <c r="C16">
-        <v>-1.853937530178944</v>
+        <v>0.5182741110562283</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>0.01582309378007896</v>
+        <v>-0.4428270511053857</v>
       </c>
       <c r="B17">
-        <v>0.4668406046431244</v>
+        <v>-0.5548818772571972</v>
       </c>
       <c r="C17">
-        <v>-1.416186891941029</v>
+        <v>0.8081583215583357</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>1.494221936242978</v>
+        <v>1.739617899082337</v>
       </c>
       <c r="B18">
-        <v>-0.7489683663055856</v>
+        <v>-2.985408103570193</v>
       </c>
       <c r="C18">
-        <v>-1.045670541331407</v>
+        <v>-1.492844790160486</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>0.2343983093898448</v>
+        <v>-0.2420749341862326</v>
       </c>
       <c r="B19">
-        <v>-0.9741557455779771</v>
+        <v>-0.3232407669881247</v>
       </c>
       <c r="C19">
-        <v>-0.2471647675833719</v>
+        <v>0.4057032782031672</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>1.486325145940493</v>
+        <v>1.861051304383424</v>
       </c>
       <c r="B20">
-        <v>-0.7783760579433897</v>
+        <v>-2.381049390303495</v>
       </c>
       <c r="C20">
-        <v>-0.5237823797851477</v>
+        <v>-0.7459986292931459</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>0.897377567852177</v>
+        <v>0.4847825929723832</v>
       </c>
       <c r="B21">
-        <v>-0.125588301706586</v>
+        <v>-2.072287599551221</v>
       </c>
       <c r="C21">
-        <v>-2.077690136437714</v>
+        <v>-0.4276968753814152</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>-0.3580819132633076</v>
+        <v>-0.5285277790428385</v>
       </c>
       <c r="B22">
-        <v>1.660241688451002</v>
+        <v>0.3472805135854993</v>
       </c>
       <c r="C22">
-        <v>-1.02339838545354</v>
+        <v>-0.03469608746580079</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>-0.5361937413968305</v>
+        <v>-0.585271206046061</v>
       </c>
       <c r="B23">
-        <v>0.7502697682035596</v>
+        <v>0.426109740576562</v>
       </c>
       <c r="C23">
-        <v>0.2182298141028851</v>
+        <v>-0.2465587090679064</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>-0.691093766677616</v>
+        <v>-0.3759256153686147</v>
       </c>
       <c r="B24">
-        <v>1.592615639159905</v>
+        <v>0.8006818225008692</v>
       </c>
       <c r="C24">
-        <v>1.281181483243615</v>
+        <v>0.1753651535275796</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>0.8705564038054427</v>
+        <v>0.1499315995750901</v>
       </c>
       <c r="B25">
-        <v>1.119669907657657</v>
+        <v>0.5455187971451798</v>
       </c>
       <c r="C25">
-        <v>-0.2628392941342246</v>
+        <v>-0.9531824832118874</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>-0.07504078783069268</v>
+        <v>-0.3008971790259519</v>
       </c>
       <c r="B26">
-        <v>1.583648112113224</v>
+        <v>0.9941736883907847</v>
       </c>
       <c r="C26">
-        <v>0.5067924277955755</v>
+        <v>-0.3014744361902467</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>-0.7573025276422932</v>
+        <v>-0.4148092738528833</v>
       </c>
       <c r="B27">
-        <v>1.379477342181185</v>
+        <v>0.5857630951685995</v>
       </c>
       <c r="C27">
-        <v>0.03770170775421607</v>
+        <v>0.0405963937063341</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>-0.3746356321908453</v>
+        <v>-0.241877715269655</v>
       </c>
       <c r="B28">
-        <v>1.59824763112924</v>
+        <v>0.4975814137906124</v>
       </c>
       <c r="C28">
-        <v>-0.25135544693099</v>
+        <v>0.1276621097288191</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>-0.8019280446967656</v>
+        <v>-0.3640282715420704</v>
       </c>
       <c r="B29">
-        <v>1.800533269372265</v>
+        <v>0.4463719966514391</v>
       </c>
       <c r="C29">
-        <v>-0.09039274919915198</v>
+        <v>0.1462564430289213</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>-1.113983530870257</v>
+        <v>-0.3955318567129676</v>
       </c>
       <c r="B30">
-        <v>0.03622115510166534</v>
+        <v>0.3747785817324489</v>
       </c>
       <c r="C30">
-        <v>0.8212343294415895</v>
+        <v>0.1935684484656352</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>-0.5150205134619212</v>
+        <v>-0.08235652099683492</v>
       </c>
       <c r="B31">
-        <v>-0.5016919136498492</v>
+        <v>0.4990803724913426</v>
       </c>
       <c r="C31">
-        <v>2.184823113979839</v>
+        <v>0.1161995652747544</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>-1.520409199656615</v>
+        <v>-0.4775013201022953</v>
       </c>
       <c r="B32">
-        <v>-1.635381016611752</v>
+        <v>0.1052805579704759</v>
       </c>
       <c r="C32">
-        <v>0.2784219594717561</v>
+        <v>0.1135449446306541</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>-1.085474063538106</v>
+        <v>-0.3886911438447158</v>
       </c>
       <c r="B33">
-        <v>-1.438817388210911</v>
+        <v>0.1027816815964731</v>
       </c>
       <c r="C33">
-        <v>0.6903042305509267</v>
+        <v>0.07201379260805631</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>-1.17680480740936</v>
+        <v>-0.3568671971980534</v>
       </c>
       <c r="B34">
-        <v>-1.823615842734309</v>
+        <v>0.03531899106561961</v>
       </c>
       <c r="C34">
-        <v>0.3419501695487979</v>
+        <v>0.1183616562583317</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>0.2241764896368242</v>
+        <v>0.003930117635031616</v>
       </c>
       <c r="B35">
-        <v>-1.744202218319407</v>
+        <v>0.1071168917612175</v>
       </c>
       <c r="C35">
-        <v>1.069798504378328</v>
+        <v>0.005259459796372838</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>0.8629236965128589</v>
+        <v>0.6227425874757236</v>
       </c>
       <c r="B36">
-        <v>-0.6341331280133634</v>
+        <v>0.3352502353511013</v>
       </c>
       <c r="C36">
-        <v>1.862343563550029</v>
+        <v>-0.1573626736852438</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>0.4617091448604485</v>
+        <v>0.1493678252226162</v>
       </c>
       <c r="B37">
-        <v>-0.09016220958208471</v>
+        <v>0.02192744739202428</v>
       </c>
       <c r="C37">
-        <v>-0.4318082853266452</v>
+        <v>0.09251685136072293</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>0.3467779755841825</v>
+        <v>0.1120931469518649</v>
       </c>
       <c r="B38">
-        <v>0.6409284823379044</v>
+        <v>0.1243555589643979</v>
       </c>
       <c r="C38">
-        <v>-0.4543092416219758</v>
+        <v>0.09846687184697124</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>0.6454871045717564</v>
+        <v>0.1886196953445161</v>
       </c>
       <c r="B39">
-        <v>-0.005519037761885911</v>
+        <v>0.08243130890418562</v>
       </c>
       <c r="C39">
-        <v>0.638589713518825</v>
+        <v>-0.009913123182873958</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>1.705580638075346</v>
+        <v>0.8413931679962363</v>
       </c>
       <c r="B40">
-        <v>1.387827471791819</v>
+        <v>0.3505199189640312</v>
       </c>
       <c r="C40">
-        <v>0.2713915217873099</v>
+        <v>-0.1717662499458093</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>1.632024194937601</v>
+        <v>0.6398642292760933</v>
       </c>
       <c r="B41">
-        <v>0.1699284761292285</v>
+        <v>0.08592890965289661</v>
       </c>
       <c r="C41">
-        <v>0.3046861298436712</v>
+        <v>-0.1090797943421943</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>0.8679400231192417</v>
+        <v>0.3868934007105151</v>
       </c>
       <c r="B42">
-        <v>-0.9649724360171561</v>
+        <v>-0.127543438328679</v>
       </c>
       <c r="C42">
-        <v>0.0343801124762612</v>
+        <v>-0.01380215062176714</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>0.9629028207038891</v>
+        <v>0.3442634316332914</v>
       </c>
       <c r="B43">
-        <v>-1.661105980884283</v>
+        <v>-0.2513966981666279</v>
       </c>
       <c r="C43">
-        <v>-0.2174667753610437</v>
+        <v>-0.07679335022234363</v>
       </c>
     </row>
   </sheetData>
@@ -5756,464 +5756,464 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>-0.3787490420552795</v>
+        <v>0.3381610014835841</v>
       </c>
       <c r="B2">
-        <v>0.8461234807902428</v>
+        <v>-0.7690927688877573</v>
       </c>
       <c r="C2">
-        <v>-0.2959319962292119</v>
+        <v>0.8419971199881274</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>1.086514175850134</v>
+        <v>-1.064662053051603</v>
       </c>
       <c r="B3">
-        <v>0.3828276491968729</v>
+        <v>-0.5199104709198429</v>
       </c>
       <c r="C3">
-        <v>0.7065164155848078</v>
+        <v>-0.2739961192980624</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>0.7442988292324481</v>
+        <v>-1.07973316072383</v>
       </c>
       <c r="B4">
-        <v>0.1066955252105806</v>
+        <v>-0.2602958267541413</v>
       </c>
       <c r="C4">
-        <v>1.141890011284768</v>
+        <v>-0.6195483342204421</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>-1.111372098329532</v>
+        <v>1.19459009138531</v>
       </c>
       <c r="B5">
-        <v>1.845377549751338</v>
+        <v>-2.427597278971736</v>
       </c>
       <c r="C5">
-        <v>1.096015986447994</v>
+        <v>-0.9722486707033703</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>0.6721048791241663</v>
+        <v>-0.1737413389811092</v>
       </c>
       <c r="B6">
-        <v>-1.015683676752011</v>
+        <v>0.7966692981541679</v>
       </c>
       <c r="C6">
-        <v>0.2827865248807495</v>
+        <v>-0.475880034399803</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>1.242111258597656</v>
+        <v>-1.380408139124943</v>
       </c>
       <c r="B7">
-        <v>0.9882057484025805</v>
+        <v>-0.6637137791562776</v>
       </c>
       <c r="C7">
-        <v>-0.0207256309281414</v>
+        <v>0.7004812607268029</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>1.206500887545762</v>
+        <v>-1.157956291119409</v>
       </c>
       <c r="B8">
-        <v>-0.8372764422781466</v>
+        <v>0.6141552883243858</v>
       </c>
       <c r="C8">
-        <v>0.3319000380190064</v>
+        <v>-0.3383381611829614</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>-0.4657088734044835</v>
+        <v>0.6452733422900316</v>
       </c>
       <c r="B9">
-        <v>0.6495404349446472</v>
+        <v>-0.7472868934384163</v>
       </c>
       <c r="C9">
-        <v>0.4132237705625437</v>
+        <v>-0.3317877785962863</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>0.7649878836226888</v>
+        <v>-0.6119515941555004</v>
       </c>
       <c r="B10">
-        <v>-1.576309467536771</v>
+        <v>1.173672530778126</v>
       </c>
       <c r="C10">
-        <v>-1.561711677454395</v>
+        <v>0.7860149142787859</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11">
-        <v>-0.008222105628186536</v>
+        <v>-0.604379151260739</v>
       </c>
       <c r="B11">
-        <v>-0.6381587827112507</v>
+        <v>0.2667973693246724</v>
       </c>
       <c r="C11">
-        <v>0.8025954234608764</v>
+        <v>-0.6068634424481456</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12">
-        <v>-1.97307558281052</v>
+        <v>1.820276074294832</v>
       </c>
       <c r="B12">
-        <v>0.5967038901240684</v>
+        <v>-0.4960726151515874</v>
       </c>
       <c r="C12">
-        <v>-0.538789901979189</v>
+        <v>-0.01330224699169239</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13">
-        <v>1.704504271848912</v>
+        <v>-1.383611499911142</v>
       </c>
       <c r="B13">
-        <v>0.4398922805208179</v>
+        <v>-0.2056691353330247</v>
       </c>
       <c r="C13">
-        <v>-1.282335503158301</v>
+        <v>0.9541515288428295</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14">
-        <v>1.289724279396379</v>
+        <v>-1.082234039726289</v>
       </c>
       <c r="B14">
-        <v>1.214332681668255</v>
+        <v>-0.7317986293148724</v>
       </c>
       <c r="C14">
-        <v>-1.743711619660117</v>
+        <v>1.541662010308602</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15">
-        <v>-0.1589477516613944</v>
+        <v>-0.08442438911230336</v>
       </c>
       <c r="B15">
-        <v>-0.4769451446576389</v>
+        <v>0.3297398533185323</v>
       </c>
       <c r="C15">
-        <v>-0.2845613334118113</v>
+        <v>-0.3104555767716055</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
-        <v>-0.5960927366735658</v>
+        <v>1.089832249809791</v>
       </c>
       <c r="B16">
-        <v>-0.3556141344056305</v>
+        <v>0.4061689680070934</v>
       </c>
       <c r="C16">
-        <v>-0.9148281617103258</v>
+        <v>0.4022510513559123</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17">
-        <v>-0.5055332721616506</v>
+        <v>0.09609514178750982</v>
       </c>
       <c r="B17">
-        <v>-0.04931456175967598</v>
+        <v>-0.16861006292327</v>
       </c>
       <c r="C17">
-        <v>1.760749573444352</v>
+        <v>-1.490599340232255</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18">
-        <v>-1.246867792932774</v>
+        <v>1.586431275565211</v>
       </c>
       <c r="B18">
-        <v>0.6617845792767919</v>
+        <v>-0.8974634858057792</v>
       </c>
       <c r="C18">
-        <v>0.1377094688445811</v>
+        <v>-0.02077245309437532</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19">
-        <v>-0.5382744510778873</v>
+        <v>0.8592902495020904</v>
       </c>
       <c r="B19">
-        <v>-1.641342084275017</v>
+        <v>1.886424775407781</v>
       </c>
       <c r="C19">
-        <v>-0.06659844675814362</v>
+        <v>-0.506151327680691</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>0.006276416360744033</v>
+        <v>0.7435928859798682</v>
       </c>
       <c r="B20">
-        <v>-0.3655339715978623</v>
+        <v>0.6090372683811928</v>
       </c>
       <c r="C20">
-        <v>-1.267962041908858</v>
+        <v>1.789558907290775</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>-0.1726840376776562</v>
+        <v>-0.1040860372425843</v>
       </c>
       <c r="B21">
-        <v>-1.85690147548237</v>
+        <v>2.340235662366139</v>
       </c>
       <c r="C21">
-        <v>-0.334321745568877</v>
+        <v>-0.3123827087293645</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>-0.9926685538752612</v>
+        <v>0.6175362699234431</v>
       </c>
       <c r="B22">
-        <v>-0.8968992897782535</v>
+        <v>0.7612607977124306</v>
       </c>
       <c r="C22">
-        <v>0.5327795042617377</v>
+        <v>-0.8566635584510576</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>-0.9797771499545824</v>
+        <v>1.429811756720726</v>
       </c>
       <c r="B23">
-        <v>-0.7670357872018279</v>
+        <v>1.049240379240528</v>
       </c>
       <c r="C23">
-        <v>-1.259153527594554</v>
+        <v>0.470773642655902</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>-0.9460965158769312</v>
+        <v>1.232791372819515</v>
       </c>
       <c r="B24">
-        <v>-1.006927484200377</v>
+        <v>2.017859387560116</v>
       </c>
       <c r="C24">
-        <v>-2.149326759308394</v>
+        <v>2.630520679791917</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>-1.224459199059195</v>
+        <v>0.7374622865490706</v>
       </c>
       <c r="B25">
-        <v>-0.8316027332824421</v>
+        <v>0.6281325404577784</v>
       </c>
       <c r="C25">
-        <v>0.8407073763605886</v>
+        <v>-1.421017912595579</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>0.8857294616428788</v>
+        <v>-1.110994201679728</v>
       </c>
       <c r="B26">
-        <v>-0.2784349264541415</v>
+        <v>0.03475676718316147</v>
       </c>
       <c r="C26">
-        <v>1.172448171871578</v>
+        <v>-0.9201491458562221</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
-        <v>-1.01096534541864</v>
+        <v>0.8654340437212503</v>
       </c>
       <c r="B27">
-        <v>0.2901410750169559</v>
+        <v>-0.1736907342860692</v>
       </c>
       <c r="C27">
-        <v>-0.6209375660698876</v>
+        <v>0.2225714622008927</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28">
-        <v>-0.2175661084651408</v>
+        <v>0.08583022256391758</v>
       </c>
       <c r="B28">
-        <v>1.696463216723666</v>
+        <v>-1.414161893452569</v>
       </c>
       <c r="C28">
-        <v>-0.0364956936098729</v>
+        <v>0.08748826698671275</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29">
-        <v>-0.7113312872414479</v>
+        <v>-0.2946342779628658</v>
       </c>
       <c r="B29">
-        <v>-0.9202174167067173</v>
+        <v>0.7494573578160221</v>
       </c>
       <c r="C29">
-        <v>1.155933467451174</v>
+        <v>-1.209316483758409</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30">
-        <v>0.8445824627865951</v>
+        <v>-0.9726333473943019</v>
       </c>
       <c r="B30">
-        <v>1.151605195906785</v>
+        <v>-0.6715493772648014</v>
       </c>
       <c r="C30">
-        <v>-0.08857586694113433</v>
+        <v>0.4915194094624556</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31">
-        <v>-0.1004265731182947</v>
+        <v>-0.3620208823190498</v>
       </c>
       <c r="B31">
-        <v>1.52883442240901</v>
+        <v>-1.349711710078769</v>
       </c>
       <c r="C31">
-        <v>0.8399927765693359</v>
+        <v>-0.22540654043727</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32">
-        <v>2.167547465619997</v>
+        <v>-1.73324599412224</v>
       </c>
       <c r="B32">
-        <v>0.1810925770310849</v>
+        <v>-0.1369689517089269</v>
       </c>
       <c r="C32">
-        <v>0.1404043774865979</v>
+        <v>0.337218808128692</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33">
-        <v>-1.447844696424579</v>
+        <v>1.147828796206452</v>
       </c>
       <c r="B33">
-        <v>0.1054841410681878</v>
+        <v>-0.3177987675185238</v>
       </c>
       <c r="C33">
-        <v>1.332321219138788</v>
+        <v>-2.137247802680966</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
-        <v>-0.4967373660051323</v>
+        <v>0.5460861332035918</v>
       </c>
       <c r="B34">
-        <v>-0.08188769869043536</v>
+        <v>0.5063809051227441</v>
       </c>
       <c r="C34">
-        <v>-2.5624166972446</v>
+        <v>2.231998855216302</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>1.294208509081751</v>
+        <v>-1.412214341870677</v>
       </c>
       <c r="B35">
-        <v>-1.169214027152767</v>
+        <v>0.9452600343223415</v>
       </c>
       <c r="C35">
-        <v>0.03227685783229063</v>
+        <v>-0.06432868948722771</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>-0.6651536838215013</v>
+        <v>0.7707645527528086</v>
       </c>
       <c r="B36">
-        <v>0.6780216272813828</v>
+        <v>-0.4586134427245721</v>
       </c>
       <c r="C36">
-        <v>-0.2743833757794085</v>
+        <v>0.173422662861602</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
-        <v>-0.8959318708978795</v>
+        <v>0.9777887237380909</v>
       </c>
       <c r="B37">
-        <v>1.275697795101951</v>
+        <v>-1.185203426522443</v>
       </c>
       <c r="C37">
-        <v>0.2772672680767338</v>
+        <v>-0.3935903413239773</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38">
-        <v>0.2816480497420911</v>
+        <v>-0.5206840511735413</v>
       </c>
       <c r="B38">
-        <v>-1.140898578941739</v>
+        <v>0.4452840030140636</v>
       </c>
       <c r="C38">
-        <v>1.496293699600574</v>
+        <v>-1.036845392909197</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39">
-        <v>-0.1461016600750277</v>
+        <v>0.5087025717674899</v>
       </c>
       <c r="B39">
-        <v>0.3492636615035781</v>
+        <v>-0.2741885287574177</v>
       </c>
       <c r="C39">
-        <v>-0.1022374329938704</v>
+        <v>0.1160090299254238</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40">
-        <v>-0.2943418599323409</v>
+        <v>0.4489386693257153</v>
       </c>
       <c r="B40">
-        <v>-0.5930376706553745</v>
+        <v>0.2902061135909403</v>
       </c>
       <c r="C40">
-        <v>1.077705554192188</v>
+        <v>-0.9680274157601965</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41">
-        <v>0.06792897357635598</v>
+        <v>0.3835760637650236</v>
       </c>
       <c r="B41">
-        <v>2.159900138087294</v>
+        <v>-2.194834441885338</v>
       </c>
       <c r="C41">
-        <v>-1.091770912544209</v>
+        <v>2.010955741027036</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42">
-        <v>0.6451199279140919</v>
+        <v>-0.7411652461657092</v>
       </c>
       <c r="B42">
-        <v>-1.272905894638499</v>
+        <v>0.9083510722124301</v>
       </c>
       <c r="C42">
-        <v>0.1661502541526373</v>
+        <v>-0.3863422474726182</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43">
-        <v>2.381141882636234</v>
+        <v>-2.251313738057756</v>
       </c>
       <c r="B43">
-        <v>0.6241535791428581</v>
+        <v>-0.6948581514385115</v>
       </c>
       <c r="C43">
-        <v>0.7591081513293992</v>
+        <v>0.1026663740330058</v>
       </c>
     </row>
   </sheetData>

--- a/tables/monthly_tables/detrended_covar/pc_timeseries.xlsx
+++ b/tables/monthly_tables/detrended_covar/pc_timeseries.xlsx
@@ -8,6 +8,17 @@
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="5" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="6" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="7" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="8" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="9" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="10" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="11" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="12" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -915,4 +926,5482 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>PC_1</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PC_2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PC_3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0.3978567834601466</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.05889557494084013</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.4738427075978753</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.03252361625714574</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.5149018124110646</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.447974897676432</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-0.9265986857399607</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.9294917461781746</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-0.4930943713087528</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>-0.9369249048802194</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.8565981116847664</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.5230546273119222</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.1667560094173272</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.281426506592881</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.3567771065014327</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>-0.0523646526664998</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.3557423789492887</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.02231074608579924</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>-1.578606727492961</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-1.002898382488888</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-1.043960431132472</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>-0.4706038420774531</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.1849457411273556</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.9942638018544149</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.9567375769685248</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.4738861098477823</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.152995531753037</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1.622605266700518</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1.094206010850337</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.898206017978375</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0.3009162872325618</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-0.5625414533904486</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-0.4538932926131674</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0.9292539486691288</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-0.1573499133358805</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.1355559014665007</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>-0.8171134506048326</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1.782049186891683</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.8589264534001685</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.3392382285838064</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.1130493391513183</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-0.6222845066811764</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>-0.4567451529687362</v>
+      </c>
+      <c r="B16" t="n">
+        <v>-0.2474261798433336</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-0.008751758714909992</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1.601970082425216</v>
+      </c>
+      <c r="B17" t="n">
+        <v>-0.05905102831481677</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.4359682027057512</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0.3190151891797441</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-0.3270543242107196</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-0.02476475436581807</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>-0.9424987563147964</v>
+      </c>
+      <c r="B19" t="n">
+        <v>-0.08332412274738366</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-1.126278602783635</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>-0.1358264847596848</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1.072207939099662</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-1.473644882380785</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>-0.1918511142193229</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-0.9598482377115516</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-1.937748348626155</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.4547522636952087</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-0.5913956589757428</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.9525981844784173</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.6286828160763455</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-1.111905832531762</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.01218823310619017</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.2224216099654721</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-0.9690533005194788</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.4646390519667631</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-2.500951683850937</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1.618599601286514</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.2068468843609395</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-0.7697515024527053</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.6799166226781819</v>
+      </c>
+      <c r="C26" t="n">
+        <v>2.298172108418967</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-0.289897569953203</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.1698152399782986</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.3126022486062965</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1.090041269593248</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-0.6364090450018036</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.7752903086845564</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-0.3834172192997451</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.1981054740649071</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.2448753312834086</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2.000518811759218</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-0.376488572704693</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.4628992975932625</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.8571410175933728</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-0.1240863245804299</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-1.352197306441337</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>-1.251440043246914</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1.479441722490294</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.6994949874234653</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>0.6630798975230066</v>
+      </c>
+      <c r="B33" t="n">
+        <v>-0.1075330338138503</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-1.322574753917721</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>1.65875843915364</v>
+      </c>
+      <c r="B34" t="n">
+        <v>-0.6904976592935174</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.3867905871543683</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1.006328643096781</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.6564043329070527</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-0.050894009162625</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>-0.633972501547116</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.6113359950460383</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-1.274622852200381</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>-1.921373929842748</v>
+      </c>
+      <c r="B37" t="n">
+        <v>-3.248056026180898</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1.453583450446383</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>-0.7268475702227267</v>
+      </c>
+      <c r="B38" t="n">
+        <v>-1.586203372749728</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1.085034736066893</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>-0.7906839704661092</v>
+      </c>
+      <c r="B39" t="n">
+        <v>-0.8294561516637187</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1.945857069276287</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0.4130130218741159</v>
+      </c>
+      <c r="B40" t="n">
+        <v>-0.4301079742010502</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-0.2149899365344913</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>1.513112645625845</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1.809084407462582</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1.38977592031205</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>-0.9696129489924297</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.6389248941534283</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-0.6890933978935264</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>-0.4276407132512698</v>
+      </c>
+      <c r="B43" t="n">
+        <v>2.085109782674701</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-0.7031186307494282</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>PC_1</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PC_2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PC_3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>-1.021337850691701</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.878240741460487</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-0.5098985905028666</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>-0.7460452359994914</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-2.02918733843338</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.3694336386902726</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-0.1388453753084521</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.9327343278408826</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.43801537384031</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.2617448959454517</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.9839674386440207</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.6575909834731828</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>-1.625152785355135</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.196087168398933</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.180523982389172</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.9834387527012051</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.6164780363495578</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.3165268592351487</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2.094428801285734</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.557349218708079</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2335781103908538</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1.136963968200109</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.3412431768665757</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.0141075926737283</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>-1.21719091824282</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.03530002247443673</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.192927316981425</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>-0.6115536238894868</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-1.502156913565447</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2379435426063329</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0.7293789510053463</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-0.6011855763653918</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-0.8614660194894161</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0.04592571050021717</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.3596477801521295</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.7555547868961252</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.6534317715644499</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.06351083412589789</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-0.2651479050624891</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.4894309305871363</v>
+      </c>
+      <c r="B15" t="n">
+        <v>-0.5871717452163961</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.235666204115247</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1.97932016176089</v>
+      </c>
+      <c r="B16" t="n">
+        <v>-1.441057062218472</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.7675208485057918</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>-0.3236345792238852</v>
+      </c>
+      <c r="B17" t="n">
+        <v>-0.4980859385109457</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7379037286641619</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0.5445512743980738</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-1.725015221647264</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-2.069256528138492</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0.9681596695336493</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1.491781166813138</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-1.40709430521224</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0.02090469145892638</v>
+      </c>
+      <c r="B20" t="n">
+        <v>-0.5425939648840501</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-1.093787143884794</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>-1.552183488074222</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-0.8755239061230197</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.7490600250988313</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-1.341673731473528</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-1.50919348966094</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.7608625351741005</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1.158004763849191</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1.421273324653363</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.02068778639730125</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-0.577497707999869</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-1.363858164140866</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.5921716026317457</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.5422238881655005</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.0309413180974996</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.7897271999470332</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.6900041884089432</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.8608030350106345</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.2522806207381363</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-0.8974746717645887</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.4210174181637057</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.6399065284292095</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-2.350125556778165</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.9127237348819964</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.9133894796376608</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.4260927776945848</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-0.9956398271450356</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.634360401008948</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-0.2910899577269038</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-1.828316392327986</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.6661719755789084</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-1.221600657420491</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.5096390030969874</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-1.739901589036555</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>-0.4067775183795129</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1.155239688016235</v>
+      </c>
+      <c r="C32" t="n">
+        <v>2.904971393367761</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>-1.927672045221781</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1.311609301509606</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-0.4584921360295204</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>0.2017184744712801</v>
+      </c>
+      <c r="B34" t="n">
+        <v>-0.5802068520730691</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1.661084620065305</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>0.8199737755184564</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.4339030251750001</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.6575144927877139</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>-0.1030446947045401</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1.105439114116336</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-1.331330080704931</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>1.014120054714598</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.2810893449400471</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-0.8083413785689532</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>-0.03920202207710102</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.1920738459150775</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1.37076641017642</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>-0.6187251137639046</v>
+      </c>
+      <c r="B39" t="n">
+        <v>-0.6617690137155267</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1.156045191896403</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0.3793245864252811</v>
+      </c>
+      <c r="B40" t="n">
+        <v>-0.1785836023393377</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-0.4879468406501938</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>1.253986059470402</v>
+      </c>
+      <c r="B41" t="n">
+        <v>-0.1796673679217995</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-1.300792757699042</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>0.4603183422007254</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.8185481348452125</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-0.721937965168673</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>0.1573810442354268</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.03060701236050123</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1.432692888862225</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>PC_1</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PC_2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PC_3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>-0.9882692590971404</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-0.04308753495078414</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-3.697082523233734</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>-5.150143246886723</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-2.699910417475265</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.636409236248374</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1.05197963699885</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-1.075288702629597</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-0.06236615190091874</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.406078950353677</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.7698595477483389</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.2995885570966</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1.202474866988803</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.2226902177302512</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.7889265530771601</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.05295557048509893</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.475776932457211</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-1.355714113937793</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.7227272310618034</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.2121953612650268</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.089326442783045</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>-0.7953335648203524</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.908311171968162</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.3470617520608992</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.4960104906298958</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.1055213480751367</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2274174510227934</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.2925410008952541</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.02387407052100619</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.4358959899359538</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0.3073167246195249</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-0.001472603420019074</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.8510015534745071</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0.3336734576829216</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.504437536043764</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.7917039899874427</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.08839739351854545</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.3420042505649756</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-0.5544211206190413</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.886660285229232</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.6546945747104133</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.240839926046837</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0.3053982714348831</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1.007263675680658</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.8953142288481087</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0.3612447029902325</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.4535983393764481</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.5395780453407754</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0.2469373843302568</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-0.4160110538302515</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4986617138755471</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0.1266916905160346</v>
+      </c>
+      <c r="B19" t="n">
+        <v>-0.3173714584000992</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-1.95265534854165</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0.1933260637774786</v>
+      </c>
+      <c r="B20" t="n">
+        <v>-0.3264813583684102</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.179514832278033</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0.7731673876930727</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-0.5538860069781989</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.08179625812300892</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.1186752333291771</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-0.5000304688138817</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.33777581443511</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.2993827219448717</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-0.06056863266052585</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.160829110199922</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.8440476792350791</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-1.474920440314431</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-1.942756527213619</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.01886563589304814</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.3747799239731742</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.5794649201776919</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-0.1945715874460953</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.2403793330561501</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.0004117844174713039</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-0.1054504021969752</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.3405507832094231</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.8407299297653517</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.5135421242617972</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-0.8099671336041416</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.2729852431563233</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-1.165469076223597</v>
+      </c>
+      <c r="B29" t="n">
+        <v>2.298399046870203</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.7737415924454015</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.04432296688988578</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-0.06744948662029125</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.4708756200516621</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-0.3493132022184027</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.2096328539036244</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-1.25717071552938</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>0.9416633215085972</v>
+      </c>
+      <c r="B32" t="n">
+        <v>-1.1146426763229</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.6098582339273316</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1.32222795143458</v>
+      </c>
+      <c r="B33" t="n">
+        <v>-3.05650970165284</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-0.8137339002488413</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>-0.471801761614343</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.7201522158294456</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.2955772149095511</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>0.471922785892728</v>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.1417441118729658</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.5117003326693353</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>0.004892430342511729</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.0564511802530369</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1.03525292375133</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>-0.4373888359179769</v>
+      </c>
+      <c r="B37" t="n">
+        <v>-0.1239535450364916</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-0.4482633783622021</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>-0.4201465845517968</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1.057515978551614</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.3091002544477963</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>0.2223346799253236</v>
+      </c>
+      <c r="B39" t="n">
+        <v>-0.001353389461040022</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.6244871798658959</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>-0.4332851576606462</v>
+      </c>
+      <c r="B40" t="n">
+        <v>-0.3056497501567492</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-0.1806455445959048</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>-0.1184997897902457</v>
+      </c>
+      <c r="B41" t="n">
+        <v>-1.168099987748689</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-0.9948868679043922</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>-0.9543549852896791</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.9356851635563445</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-0.4177593577770337</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>-1.065431186149191</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1.00104808658394</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-0.2594208368000204</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>PC_1</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PC_2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PC_3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.805588793527252</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-2.208961502643996</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.499828082234801</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1.505732941139907</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-1.010083299797951</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-1.346453004066519</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-1.582183691341776</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.8391955914938989</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-0.1831506961148512</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.2864147036905809</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.8388593117054906</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.6558194828326266</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.1547581316485022</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.5383341059227532</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.632647845996516</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>-0.3948476008747711</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.4071798649190592</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-1.057668534898248</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1.292136674387644</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.3910882329685362</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.08518121129491744</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>1.248448513820099</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.103438640673242</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2331367022814004</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.550217067918309</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.469390841626396</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.009837280875557696</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>-0.08607038536316901</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.08299637673799792</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-1.675627621480478</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>-1.376933618071686</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-1.33495263951773</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-0.5622875765208136</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>-1.099757396633326</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-0.491823486641162</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-0.4289330035055646</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>-0.0330258805890128</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1.637502291863408</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-0.1622521395990282</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>-1.351500005282294</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1.169421389471037</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-0.4587301955842975</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>-0.6598541618872754</v>
+      </c>
+      <c r="B16" t="n">
+        <v>-1.15775227165654</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.8708488232264162</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>-0.3292312505142986</v>
+      </c>
+      <c r="B17" t="n">
+        <v>-0.0181252312058251</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.1765685011350381</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>-1.572661057774255</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-0.09487524875768499</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.6371187259324554</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0.4860158048631225</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.5594472918542418</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.8774695389938877</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>-0.9176592454828274</v>
+      </c>
+      <c r="B20" t="n">
+        <v>-0.2680876962738981</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-0.3032180386846622</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>-1.288330879734013</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-0.06392876363890099</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.9461354653217865</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-0.4762103098058283</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1.098994823003922</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2.184141297656857</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-0.6442580234220709</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.4789017451085524</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.1239092051469149</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.249658207717895</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-0.1114588424224044</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.09054672032015297</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-1.527548440708842</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-0.5423538063483077</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.12388011654226</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1.303623876128289</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.4364015339830132</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.06192647764216677</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.08549458489172947</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.07836280169330233</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.402760428050208</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.7055008290992694</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1.672828791616349</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.9684163136357163</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.8512365573624956</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.8371851643384941</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.4597525985595656</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-0.1645160317731441</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-0.5338443713270783</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.9724371704171292</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-0.7432353622909786</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-1.596403622628015</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-1.606724745389136</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>0.2270682421684462</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.4717878763639544</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1.037114730162899</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>2.283149534389862</v>
+      </c>
+      <c r="B33" t="n">
+        <v>-0.9063412908550899</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-0.2913933736829937</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>0.8926179546918676</v>
+      </c>
+      <c r="B34" t="n">
+        <v>-0.5051490435271917</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-1.369768508425639</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1.139928638362522</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1.845519030564651</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-1.755032749187207</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1.072598398349938</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.0791259156823531</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.8980189243490414</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>0.2078053585737807</v>
+      </c>
+      <c r="B37" t="n">
+        <v>-2.22362596977083</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-1.478368437917987</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0.497175606418842</v>
+      </c>
+      <c r="B38" t="n">
+        <v>-0.04858602928478348</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1.210184589145271</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>-0.866264709346991</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.4179270164798584</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.6174067769098697</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>-0.07164824300553024</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.8557001913247259</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-1.134056851789943</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>0.515087604669054</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.5714035489809464</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.2289729190360149</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>-0.4756305171179581</v>
+      </c>
+      <c r="B42" t="n">
+        <v>-2.202589117039575</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-0.1259518453368909</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>-1.698891212799361</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.2816612318477579</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.6183337062330474</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>PC_1</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PC_2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PC_3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1.071832025546754</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.817803350570761</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.295898435886315</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.72050835233215</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-0.07836329801091421</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.799901506787936</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1.341384989223884</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-0.1235608146059755</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-1.444400032917811</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>-0.4579909933805575</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.1602997004422561</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.241606883711861</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>-2.472425095372472</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2.944996815109787</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-4.513056103517809</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.3844896484112419</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.5126432859381552</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.145312263373466</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1.522683648734721</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.188109479540093</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.0192625888330365</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>-0.113066438705897</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.6111207978292874</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3711060516349082</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1.710651095953962</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.1119636776632729</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-0.6192086455408755</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.5054064823842538</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.8547121359365996</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.3010984808425609</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>-1.067575375364061</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-0.5649034235443228</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.7630625507471109</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>-1.934664285922145</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-1.022738973148891</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.03487912615119997</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>-0.4103441219711346</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-1.2753305273337</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-0.1247297225961405</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>-0.7198498946580699</v>
+      </c>
+      <c r="B15" t="n">
+        <v>-1.948102580244953</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-0.270757593639495</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>-0.1678567004035186</v>
+      </c>
+      <c r="B16" t="n">
+        <v>-0.3121052160128676</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-0.1133759724657268</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>-0.5558958471923025</v>
+      </c>
+      <c r="B17" t="n">
+        <v>-0.8025744203646218</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.168469869277561</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>-0.7244901656548115</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-0.5084330752687437</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.2568049204083682</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0.5140142623229185</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.3262701169565591</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.6054351902113179</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>-0.5552915466814579</v>
+      </c>
+      <c r="B20" t="n">
+        <v>-0.4958175521502556</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.6671340153980336</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>-0.2445346841737418</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.4563477795265137</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.5489613557558902</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.01824620549050797</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.07080534689871627</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.2475920535997255</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.4147987276205953</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-0.9000487303013817</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.7980121320436061</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-0.220604704285663</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.7122538953913439</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.5298425729599499</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-1.969392446112089</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.9798532010906644</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.011205898795699</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.4448284136461628</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-0.7895182768241767</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.1079518045254367</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-0.09952485060661853</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.02410500027493557</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.3244401649032151</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-0.09621955269732485</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.343111027633651</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.01591061857997678</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>1.131634731663354</v>
+      </c>
+      <c r="B29" t="n">
+        <v>2.326359376732633</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.6784080774155229</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.4370079495286687</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-0.9478507090890345</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-1.1077093914116</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-1.48322907078875</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.9238038096064447</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.825383132439787</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>0.1068340419706212</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.3048110869063679</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.429258739566697</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1.94184188827421</v>
+      </c>
+      <c r="B33" t="n">
+        <v>-0.0422955319041667</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-1.857437582710759</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>0.3007191790936758</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.0196404434445658</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.1857364336576179</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1.576253426231407</v>
+      </c>
+      <c r="B35" t="n">
+        <v>-1.372430003523817</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-1.64396691372296</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>0.9782167023753277</v>
+      </c>
+      <c r="B36" t="n">
+        <v>2.041954211315572</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.3824760208282501</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>-1.043176565089738</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.004547315657905653</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.3035282283938428</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>-0.09867617350891322</v>
+      </c>
+      <c r="B38" t="n">
+        <v>-0.9604152578716695</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-0.2598946081265235</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>-0.1338042853685241</v>
+      </c>
+      <c r="B39" t="n">
+        <v>-0.3939125186811051</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-0.1698202904707761</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>-0.2377485073379719</v>
+      </c>
+      <c r="B40" t="n">
+        <v>-0.9046887086671563</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-0.3511313207551575</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>1.290937748435539</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1.38518866478487</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.5788600594144278</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>-0.6373271517596616</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.150535020595422</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.4392816641432516</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>-0.9686010622045332</v>
+      </c>
+      <c r="B43" t="n">
+        <v>-0.1996616948021521</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-0.1553865904277773</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>PC_1</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PC_2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PC_3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0.9379418824767054</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.9981142189643205</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-0.135231486726972</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>1.989756536107737</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-0.3990698167032556</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.019506427428105</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2.283035249349004</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-1.015349917265753</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.069984685046169</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.2432051194574877</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.789795008534226</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.03350887289915692</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>-1.564922559882207</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.1075143133582293</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.033216248590206</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>-0.5915821234800611</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-1.418113492513833</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-0.04454184288948106</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.4498865248077145</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.4123292656761517</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1350498843042796</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>-0.324805862982201</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.2062690333678116</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.01495757599720605</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1.321741224681151</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-1.281471646664862</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-2.753094528759791</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>-2.313371851409667</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.4385417719836302</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.2596497726273507</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>-0.9310487085781692</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.6995994507136793</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-0.4940724219733666</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>-1.557852069892796</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.2095404142179527</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-0.6886329776137325</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>-1.328508942462656</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-0.7920089215660655</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4185152982405994</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>-0.4026040147168604</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.271585047359748</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-0.8577242661568664</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>-0.5329922385187176</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.4457268448006911</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-2.050627658045595</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>-0.8208718821958001</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.06786116310002897</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-0.3836402018365507</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>-0.1136092078662349</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.6769248431627432</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2.894240697217266</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1.191727726845455</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.6738732851996604</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-0.9762318091124472</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0.4257786999785476</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2.134723655871648</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.6377496575181012</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0.9587010202456556</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-0.5238159317276025</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-1.669331108864544</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.6123246233279082</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-0.2457896478621069</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.6619775256993357</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-0.9018137575379827</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-0.6308314674323727</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.6745220200244013</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-0.4924392378652002</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-0.2846610488850265</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.3405370338766295</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.2434002380260795</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.3359319260706006</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.2519400953248681</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1.137321627868126</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.147055821339385</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.5970806252660655</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.3137826440732399</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.3238447425060131</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.5257895068328952</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-0.7048129120672425</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-0.958113406837526</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.4872501673778654</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-0.05106760556818061</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-1.414910971304106</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.3271001527115822</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-0.9573739947674434</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-0.07859037634517128</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.03366855805788511</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-0.3062819115820858</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.8863941227776366</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.2385755523066092</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>0.32522405568474</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.7863875030953752</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.1944601803131988</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>0.5337012620903346</v>
+      </c>
+      <c r="B33" t="n">
+        <v>-3.52005362894627</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.8042011625908574</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>-0.9096876241556664</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1.65338761711859</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.9469256055685751</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>-0.8241388182118641</v>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.5184011801999162</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.4594093988919764</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>1.690483026277675</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.4330798705356188</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1.921870013232539</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>-0.3843384014867079</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1.23618964464605</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-0.7782918753424545</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0.837314922208571</v>
+      </c>
+      <c r="B38" t="n">
+        <v>-0.690457764773533</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-0.1737703468771779</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>-1.315069432800067</v>
+      </c>
+      <c r="B39" t="n">
+        <v>-0.937024763563819</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.6393954011389522</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0.5539535771196941</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.1955404716414562</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-0.6852904367441137</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>0.9384225241867921</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1.083770128475629</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-0.3536166242763129</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>0.1459513074759024</v>
+      </c>
+      <c r="B42" t="n">
+        <v>-0.2740922671165578</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-0.4272528155174843</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>0.1955393657392914</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.7060871809058121</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.03269898457035858</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>PC_1</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PC_2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PC_3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>-2.2441601466644</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-0.5931806631505407</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3.84722904022828</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>-0.3447564882122762</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.4305550165443826</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.272771564022374</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-0.8395370902467555</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-1.640865359051575</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-1.201456837841792</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>1.561396939795883</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.8650597686521315</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.7063099723913113</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>-0.112768154856723</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.4414756477594542</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.323391334925003</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.898483809401081</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.1874681729282258</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2.424597912970637</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>-1.669760320531573</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.9325113790533736</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-1.044038974342318</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>-0.9604612537267437</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.6814540536269825</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.0337291019477362</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1.017352393157811</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.298150905030592</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-0.7642347260519832</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1.250192996678245</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.01221692952188859</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-1.134846770876618</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1.118528468279779</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.4261439983246919</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-0.4875928280602831</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1.082763989787293</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-0.2953291928162088</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-0.4299226769654889</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.1052897425851809</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.7002530321215814</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-0.6373244953109051</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.8170746901624855</v>
+      </c>
+      <c r="B15" t="n">
+        <v>-0.7009968172295935</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-0.5171270449190545</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0.9239627475808536</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.4158902475765371</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-0.3209837236961445</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0.4276444949771014</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.9914383551760882</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-0.3333315243824203</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0.4717707334068639</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.5541992461514824</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-0.1876127144740165</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>-1.818858959644646</v>
+      </c>
+      <c r="B19" t="n">
+        <v>-0.3731977523195013</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-0.3780014284251804</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>-1.161153269138804</v>
+      </c>
+      <c r="B20" t="n">
+        <v>-2.756245969378338</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-1.942501300054276</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0.808259383230802</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1.305163835744601</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.3244491980890888</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.3176963558278575</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.07247446830173214</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.4035873862178366</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-0.2550581905281794</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-0.128123199607773</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.779947759260644</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.4476067528655936</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.236647336312533</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.5144730730080256</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-1.034129257731167</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.247031925705219</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.8251792958057107</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-1.239861245111407</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.4409343962088143</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.2701621021088301</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-1.108333078373586</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.6049072472068179</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.2618350614523493</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.7049444151405677</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-0.3457164901137952</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.1722836354146191</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-0.2757369797494628</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1.446904041829502</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.3307121459612332</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.0655681136954319</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.4789208576369764</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.3934275466326264</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-0.7814595039190387</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.2540037127646786</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.1019207720336447</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>0.356871421043169</v>
+      </c>
+      <c r="B32" t="n">
+        <v>-0.1456521614983108</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-0.2740999626956169</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>1.816591573115568</v>
+      </c>
+      <c r="B33" t="n">
+        <v>-0.5786742191229181</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.845821014671128</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>0.7693719212471321</v>
+      </c>
+      <c r="B34" t="n">
+        <v>-1.070437836817659</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.08769826218350227</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>0.6120159947458848</v>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.09238004128742695</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.2911573148327351</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>0.3007068557046905</v>
+      </c>
+      <c r="B36" t="n">
+        <v>-1.314833636181637</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.4851231805546214</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>-0.6018595270299683</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.1176129481640116</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-0.3341383213133139</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0.7217463731811264</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.5010248734217406</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.6788067524660474</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>0.4150081091892682</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1.309923969264297</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.4459265763939129</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>-1.980779985749261</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.4993831334793148</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-0.364794129477495</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>-0.8696011501538934</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.750895597384529</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-0.07663768362916297</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>-0.6476000832562694</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.9582752911429108</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.3567772538050889</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>0.9350264098244854</v>
+      </c>
+      <c r="B43" t="n">
+        <v>-3.530144753048803</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1.832472026856514</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>PC_1</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PC_2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PC_3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>-0.08300623196414796</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-0.806256111193373</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-0.7948440912514915</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>-0.5201437033574867</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-0.1967950112628222</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-0.2442327810068252</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2.851083951542626</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-4.858499959094993</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.294061854994339</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>-1.12391365141303</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.03311871825792698</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.2412511308590763</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.070150013144943</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.5364790889700513</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.134991388800719</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>-1.835562231812912</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.5702221922738463</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.1639765416912728</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>1.184631655026633</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.01149699327117874</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-4.604688901279267</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>-0.003179696121434901</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.5696985904809382</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.04907469935150557</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>1.337402379597842</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1.106665740428196</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4241501255324273</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>-1.04263272080031</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.1070563302302823</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.5943984247205486</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>-0.3204965434463709</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.5747303843413272</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.9363402231134418</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>-2.033011145030643</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-0.7143528163262778</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-0.3341039018990225</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>-0.3937244492337448</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.2162448494158712</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-0.2152800803562182</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.2936932735887425</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.2418938479933598</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.09834441421581888</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>-0.9836473855184008</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.1405230854441885</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.4925221971454705</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>-0.01639524812504787</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.6729791019799676</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.9768018361592629</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0.02957572173636793</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1.679887310478585</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2.02621290331403</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0.5623000871046833</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.6248822809464903</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.499087574548235</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>-0.174089108511457</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.3653549352573935</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-0.05612019830951715</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0.1199207843876571</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.670288156864012</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.48036232097943</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.3593710725773213</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.3166165750060757</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.4387982593361753</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>1.153587288289586</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.9850710384081849</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-1.181286004030322</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-0.3591740059675914</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.07962925380773106</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.9096412807676526</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.1398495414465184</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.4624735801424039</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.3540850488382779</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1.103875100507973</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1.114098733325107</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.5758423050839835</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>1.53622188679861</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1.277426506392908</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.2786105876302105</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.8193737183483099</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1.167552476781953</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.03912198696832548</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.6885974521254352</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.6814050977692128</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.2543125656936404</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-0.1334342777902462</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.08372353539672094</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.04523575967391646</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-0.5017647473881247</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-0.3192268222532231</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.2633312020711587</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>-0.2940914243193317</v>
+      </c>
+      <c r="B32" t="n">
+        <v>-0.05894358508765984</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.06169994198525498</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>-0.5645252466114596</v>
+      </c>
+      <c r="B33" t="n">
+        <v>-0.5350100334370886</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.01689419833539805</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>-0.3085897202085784</v>
+      </c>
+      <c r="B34" t="n">
+        <v>-0.2720475932797429</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-0.4306009150478306</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>-1.533146396563551</v>
+      </c>
+      <c r="B35" t="n">
+        <v>-1.328072478646461</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-0.03669871942142081</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>-0.8962428114524408</v>
+      </c>
+      <c r="B36" t="n">
+        <v>-0.7322551323836732</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-0.2693590532905542</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>-0.2425542389063426</v>
+      </c>
+      <c r="B37" t="n">
+        <v>-0.2787853414878817</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.276664310248566</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>-0.6923062553785871</v>
+      </c>
+      <c r="B38" t="n">
+        <v>-0.7046259663788245</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-0.1016048500495562</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>-0.3881147047155805</v>
+      </c>
+      <c r="B39" t="n">
+        <v>-0.3588082990339614</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.1620694488986786</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>2.730594497481009</v>
+      </c>
+      <c r="B40" t="n">
+        <v>-0.2550914021471355</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.7167486425741836</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>0.2749252430304758</v>
+      </c>
+      <c r="B41" t="n">
+        <v>-0.3641960943626835</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-0.6154652311551879</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>-0.5855943672085124</v>
+      </c>
+      <c r="B42" t="n">
+        <v>-0.652568607856464</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.245197686449855</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>-0.2258133548894002</v>
+      </c>
+      <c r="B43" t="n">
+        <v>-0.4764321178810322</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-0.2115745651273084</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>PC_1</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PC_2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PC_3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>-0.2594487530799691</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2.394953531456698</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-0.0735779993923547</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>-0.3943466394639544</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2.054295069570785</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.01275635354946897</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>6.010436899492625</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-1.387028412236694</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.3428927467725787</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>-0.8837279858707013</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-1.352451726876366</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.2162558783990599</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>-0.9041636532422095</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-1.329136267530371</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.1465967513225953</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>-0.8426722147720278</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-1.082193153100817</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.01217411928963727</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.4939177187733504</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1.721877552862931</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-5.270626073808147</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>-0.4883967707497724</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.3882920024985038</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.1391012839543221</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.4477277355012807</v>
+      </c>
+      <c r="B10" t="n">
+        <v>3.689519809318501</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.072126536255702</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>-0.5563725026165934</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.8836082079892025</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.1546569789659485</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>-0.5925790790372009</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-0.8776573990172186</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.8391076460616914</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>-0.5511160373655862</v>
+      </c>
+      <c r="B13" t="n">
+        <v>-0.9294442987543141</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-0.3083412592087194</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>-0.545773941015432</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-0.6493115585400434</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-0.05072772763776096</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>-0.02703330019427954</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.3449466503559471</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.2938392762800088</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>-0.48487519050109</v>
+      </c>
+      <c r="B16" t="n">
+        <v>-1.176671307853667</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.486727887375926</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>-0.5081681877746098</v>
+      </c>
+      <c r="B17" t="n">
+        <v>-0.9132705073033903</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-0.06771026758079413</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>-0.4426327584848332</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-0.8372325532104561</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.6507649353990776</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0.0211619909694991</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.09676744263890463</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.7645208502103852</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>-0.1612091116549272</v>
+      </c>
+      <c r="B20" t="n">
+        <v>-0.2406141645862917</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.010707276212911</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>-0.1333801435895287</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-0.2668850473931256</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.982435432093316</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-0.09234273713008365</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.1490652449754027</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.3434596662207827</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-0.3114869105246787</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-0.5564550320892395</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.09822133919547944</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-0.02426402075031273</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-0.07487563872627276</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.2023707322748032</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-0.1807031590811008</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-0.2034412352984731</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.2076158514229529</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-0.1173207175474755</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.06295257706240576</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.130338077813077</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-0.01180039985047882</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1.111229888276741</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.112940004723213</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-0.1742153655113627</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-0.2267296449898266</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.04376249673591114</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-0.05694604174385626</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-0.02340613882470827</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.1521232323964015</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-0.07215639417884738</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-0.3256084930196407</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.138005799994341</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-0.05568666813049555</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-0.2254427338977469</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.1723896048943184</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>-0.02281022203622282</v>
+      </c>
+      <c r="B32" t="n">
+        <v>-0.19736076413603</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-0.1321270736362285</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>0.007712977923200957</v>
+      </c>
+      <c r="B33" t="n">
+        <v>-0.0957746745776117</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-0.1439584624362722</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>0.028897747372324</v>
+      </c>
+      <c r="B34" t="n">
+        <v>-0.1505842968261522</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-0.1298905437412038</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>0.04608005512336366</v>
+      </c>
+      <c r="B35" t="n">
+        <v>-0.1188914419404477</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-0.1285039681564289</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>0.1523361569527163</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.2596372198168115</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-0.09136413367665239</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>0.1484294109869391</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.1935612578460636</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-0.09176767367983714</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0.1553991846278455</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.09083927055620798</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-0.06709147322685589</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>0.1873378439868713</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.1138255770090486</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-0.07677460981584348</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0.3316964503606266</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.4464388534978393</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-0.009931217767949061</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>0.3065850211388094</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.4905186159668585</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-0.0867219450200811</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>0.2514767892657748</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.2311424056773616</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.007446855178176097</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>0.3064329234224035</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.2842117293310959</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-0.04241744585188974</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>PC_1</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PC_2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PC_3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>-2.353414248667307</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.108086647843612</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.746440682614837</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>-2.297801965299567</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2.244885085638635</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.563873176713482</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>-3.419122491594661</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.272241271840153</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-4.198739179765127</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.8228844786030622</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.2007326694520511</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.2368505991711749</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.7804798169957758</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.9856457839682551</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.4189233888785124</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>1.437016740697877</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.1853559387633299</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.2436416768553092</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.7636151049649095</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.2933357926142305</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-1.814252079112872</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.5674670136798716</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.3024839291585105</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.152643484502503</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.8681648190481225</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.1397927826949149</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4531629942910262</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>1.209835509363716</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.2075941077609018</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.005127128023321094</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>1.100976869201327</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.08763898628153061</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-0.442524479805991</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0.6564202819140387</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.3047012853171071</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-0.09216536444144792</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.04973161082770929</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-0.7538251074520477</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-0.8638797331572958</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.7355662308467296</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.1854407419517355</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.2451607161765509</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0.7801250496534429</v>
+      </c>
+      <c r="B16" t="n">
+        <v>-0.1755345943596281</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-0.1517361085408198</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0.636540868094034</v>
+      </c>
+      <c r="B17" t="n">
+        <v>-0.3128513871044558</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-0.3168897525030984</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>-1.862619979078461</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-5.022571961126622</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.276850262229856</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0.3636728902893019</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.1275916936493393</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-0.2371062331230809</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>-1.487839007466863</v>
+      </c>
+      <c r="B20" t="n">
+        <v>-1.696810035487228</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-0.9087054519528479</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>-0.02065768093497871</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-1.515456985193695</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.5735902580172156</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.5700074312720298</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.2124153003487476</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.05050575296953002</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.7870858407360848</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.3960265138955558</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.5209840012620746</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.3165692622435823</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.4047822897082198</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.223379933444717</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.163150374430955</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.2892529696322281</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.08542397140866619</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.2753361400860123</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.4959070101301464</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.04785539764343311</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.3794007459534645</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.2799866507583835</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.1662521421753338</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.3076106950470797</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.2763936368687942</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.01566958002236497</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.3868105281607705</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.3009246030541465</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.01040268654663183</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.2932212685615634</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.2088104412149865</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.07154835520966768</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.007957480139167972</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.2725975466573661</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.1215233890103254</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>0.2859312338694076</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.1469689529455498</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.06230456327894444</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>0.2394110326672566</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.124333899643955</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.1003171437042328</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>0.1865174763108024</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.1045337616540702</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.06195031829895944</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>-0.04956730732254946</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.1059221263095544</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.07923895749459932</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>-0.9823484256534136</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.06833326779138267</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.7207743079023511</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>-0.1165601436321045</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.24931889533363</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-0.1203110429250504</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>-0.09247345519972774</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.3185253365807842</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-0.1512774228301664</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>-0.2083873911534471</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.1283582495605952</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.126487013202021</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>-0.6934745795611222</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.4944812479931796</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-0.3363706748179912</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>-0.6362841304240897</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.1335674713635142</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-0.2492748765809857</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>-0.4271538270073598</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.1080081053046568</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-0.05329533522738759</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>-0.3238021606624408</v>
+      </c>
+      <c r="B43" t="n">
+        <v>-0.03061459241261292</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.07677313505496279</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>PC_1</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PC_2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PC_3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>-0.3075204528152721</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-0.2594230510794163</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-0.0891298053442356</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.6787235953412452</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.1708936717524473</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-1.153914187499522</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.8296744020148232</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.2486307417998093</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-0.8067082105593013</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>-0.6322247360068883</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-1.285847762930375</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-1.725361672682064</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>-0.3109861133494506</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.4682602340445718</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.05344091657734335</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.9375926931314966</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.2406378151205967</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-0.6330371991062598</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.6312330220469227</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.5668624311573031</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.09361938367030462</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>-0.9574165299224729</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.3884324580788865</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-0.7038317392323898</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.4340031417264319</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.3961691410904107</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4805492568001952</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.6827924675192675</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.2545361516423245</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.2871979374518338</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>-1.39815473870834</v>
+      </c>
+      <c r="B12" t="n">
+        <v>-0.6292555660965141</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-0.3005721547709629</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>1.034650926497792</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.04794020295911625</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-0.396120078677908</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.8522256471182763</v>
+      </c>
+      <c r="B14" t="n">
+        <v>-0.4812431082235756</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-0.4323949158238984</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.1500843490060874</v>
+      </c>
+      <c r="B15" t="n">
+        <v>-0.3512522088500242</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.2452149047264896</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>-1.258907903231079</v>
+      </c>
+      <c r="B16" t="n">
+        <v>-0.00499593125645026</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.8839697166766131</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0.2858380780028023</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.4499520027887586</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-0.3448083247176051</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>-0.5950343008406248</v>
+      </c>
+      <c r="B18" t="n">
+        <v>-0.2746503194065422</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-0.006951797674253379</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>-0.8376312326193562</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.7866544626701516</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2.067504736823063</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>-0.7745959823462355</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.2686946049020378</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2.420507999532084</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0.3582636791675206</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.8789636114779762</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.265404488536247</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-0.4068896644138922</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.6981168292849015</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.4346975709425678</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-1.338538223265072</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-2.034840643755217</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.539009017829296</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-0.8412421960279609</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.09174625691358752</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.374342612347929</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-0.7185535733499636</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.3634492653122651</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-0.1834283256053182</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1.114889441721787</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.1673314699213843</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.01868480181466704</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-0.6672738508481569</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.9251900446868284</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.3746644286231556</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.1767060557263345</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-0.9443157878921042</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.6991691665511889</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.8657347495129047</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.5211702800641668</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.3903726575397222</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>1.306959010972901</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-0.2825012523868394</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.05052177847300343</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.8791897268120549</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-0.6385206733948406</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.7404661640139311</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>1.689883924218102</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.2578085756935499</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.04683755972773664</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>-0.7756494490781501</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.0221384049142966</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-0.1909927752813093</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>-0.01533632239427096</v>
+      </c>
+      <c r="B34" t="n">
+        <v>-0.8781108512677321</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1.20348797142902</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>1.310146322462358</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.7009466666743541</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.6347440810466664</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>-1.090212768739793</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.5982105718017598</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-0.08294113331617063</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>-1.291723140713903</v>
+      </c>
+      <c r="B37" t="n">
+        <v>-1.246162911322969</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-1.354728862298965</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0.8971543143234919</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.3455289850917281</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.2512665068860783</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>-1.892505432394571</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.411080814534209</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-0.697020954011779</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>-2.18559463018635</v>
+      </c>
+      <c r="B40" t="n">
+        <v>2.932321416594978</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-2.790268461882676</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>0.3622215689524245</v>
+      </c>
+      <c r="B41" t="n">
+        <v>-3.86866498930319</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-0.9305294263642065</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>0.7930267285023225</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1.486002886852998</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.3291774973341823</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>2.024997396474456</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.3424951487140505</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-0.2827926665546361</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/tables/monthly_tables/detrended_covar/pc_timeseries.xlsx
+++ b/tables/monthly_tables/detrended_covar/pc_timeseries.xlsx
@@ -3451,464 +3451,464 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.9379418824767054</v>
+        <v>-0.9379418824767054</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9981142189643205</v>
+        <v>-0.9981142189643205</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.135231486726972</v>
+        <v>0.135231486726972</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.989756536107737</v>
+        <v>-1.989756536107737</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.3990698167032556</v>
+        <v>0.3990698167032556</v>
       </c>
       <c r="C3" t="n">
-        <v>1.019506427428105</v>
+        <v>-1.019506427428105</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2.283035249349004</v>
+        <v>-2.283035249349004</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.015349917265753</v>
+        <v>1.015349917265753</v>
       </c>
       <c r="C4" t="n">
-        <v>2.069984685046169</v>
+        <v>-2.069984685046169</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.2432051194574877</v>
+        <v>-0.2432051194574877</v>
       </c>
       <c r="B5" t="n">
-        <v>1.789795008534226</v>
+        <v>-1.789795008534226</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.03350887289915692</v>
+        <v>0.03350887289915692</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-1.564922559882207</v>
+        <v>1.564922559882207</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1075143133582293</v>
+        <v>-0.1075143133582293</v>
       </c>
       <c r="C6" t="n">
-        <v>1.033216248590206</v>
+        <v>-1.033216248590206</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.5915821234800611</v>
+        <v>0.5915821234800611</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.418113492513833</v>
+        <v>1.418113492513833</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.04454184288948106</v>
+        <v>0.04454184288948106</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.4498865248077145</v>
+        <v>-0.4498865248077145</v>
       </c>
       <c r="B8" t="n">
-        <v>0.4123292656761517</v>
+        <v>-0.4123292656761517</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1350498843042796</v>
+        <v>-0.1350498843042796</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.324805862982201</v>
+        <v>0.324805862982201</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.2062690333678116</v>
+        <v>0.2062690333678116</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01495757599720605</v>
+        <v>-0.01495757599720605</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.321741224681151</v>
+        <v>-1.321741224681151</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.281471646664862</v>
+        <v>1.281471646664862</v>
       </c>
       <c r="C10" t="n">
-        <v>-2.753094528759791</v>
+        <v>2.753094528759791</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-2.313371851409667</v>
+        <v>2.313371851409667</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.4385417719836302</v>
+        <v>0.4385417719836302</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2596497726273507</v>
+        <v>-0.2596497726273507</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.9310487085781692</v>
+        <v>0.9310487085781692</v>
       </c>
       <c r="B12" t="n">
-        <v>0.6995994507136793</v>
+        <v>-0.6995994507136793</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.4940724219733666</v>
+        <v>0.4940724219733666</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-1.557852069892796</v>
+        <v>1.557852069892796</v>
       </c>
       <c r="B13" t="n">
-        <v>0.2095404142179527</v>
+        <v>-0.2095404142179527</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.6886329776137325</v>
+        <v>0.6886329776137325</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-1.328508942462656</v>
+        <v>1.328508942462656</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.7920089215660655</v>
+        <v>0.7920089215660655</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4185152982405994</v>
+        <v>-0.4185152982405994</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.4026040147168604</v>
+        <v>0.4026040147168604</v>
       </c>
       <c r="B15" t="n">
-        <v>0.271585047359748</v>
+        <v>-0.271585047359748</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.8577242661568664</v>
+        <v>0.8577242661568664</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.5329922385187176</v>
+        <v>0.5329922385187176</v>
       </c>
       <c r="B16" t="n">
-        <v>0.4457268448006911</v>
+        <v>-0.4457268448006911</v>
       </c>
       <c r="C16" t="n">
-        <v>-2.050627658045595</v>
+        <v>2.050627658045595</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.8208718821958001</v>
+        <v>0.8208718821958001</v>
       </c>
       <c r="B17" t="n">
-        <v>0.06786116310002897</v>
+        <v>-0.06786116310002897</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.3836402018365507</v>
+        <v>0.3836402018365507</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.1136092078662349</v>
+        <v>0.1136092078662349</v>
       </c>
       <c r="B18" t="n">
-        <v>0.6769248431627432</v>
+        <v>-0.6769248431627432</v>
       </c>
       <c r="C18" t="n">
-        <v>2.894240697217266</v>
+        <v>-2.894240697217266</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1.191727726845455</v>
+        <v>-1.191727726845455</v>
       </c>
       <c r="B19" t="n">
-        <v>0.6738732851996604</v>
+        <v>-0.6738732851996604</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.9762318091124472</v>
+        <v>0.9762318091124472</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.4257786999785476</v>
+        <v>-0.4257786999785476</v>
       </c>
       <c r="B20" t="n">
-        <v>2.134723655871648</v>
+        <v>-2.134723655871648</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6377496575181012</v>
+        <v>-0.6377496575181012</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.9587010202456556</v>
+        <v>-0.9587010202456556</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.5238159317276025</v>
+        <v>0.5238159317276025</v>
       </c>
       <c r="C21" t="n">
-        <v>-1.669331108864544</v>
+        <v>1.669331108864544</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.6123246233279082</v>
+        <v>-0.6123246233279082</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.2457896478621069</v>
+        <v>0.2457896478621069</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.6619775256993357</v>
+        <v>0.6619775256993357</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-0.9018137575379827</v>
+        <v>0.9018137575379827</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.6308314674323727</v>
+        <v>0.6308314674323727</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6745220200244013</v>
+        <v>-0.6745220200244013</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-0.4924392378652002</v>
+        <v>0.4924392378652002</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.2846610488850265</v>
+        <v>0.2846610488850265</v>
       </c>
       <c r="C24" t="n">
-        <v>0.3405370338766295</v>
+        <v>-0.3405370338766295</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.2434002380260795</v>
+        <v>-0.2434002380260795</v>
       </c>
       <c r="B25" t="n">
-        <v>0.3359319260706006</v>
+        <v>-0.3359319260706006</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.2519400953248681</v>
+        <v>0.2519400953248681</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1.137321627868126</v>
+        <v>-1.137321627868126</v>
       </c>
       <c r="B26" t="n">
-        <v>0.147055821339385</v>
+        <v>-0.147055821339385</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.5970806252660655</v>
+        <v>0.5970806252660655</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.3137826440732399</v>
+        <v>-0.3137826440732399</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.3238447425060131</v>
+        <v>0.3238447425060131</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.5257895068328952</v>
+        <v>0.5257895068328952</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-0.7048129120672425</v>
+        <v>0.7048129120672425</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.958113406837526</v>
+        <v>0.958113406837526</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.4872501673778654</v>
+        <v>0.4872501673778654</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-0.05106760556818061</v>
+        <v>0.05106760556818061</v>
       </c>
       <c r="B29" t="n">
-        <v>-1.414910971304106</v>
+        <v>1.414910971304106</v>
       </c>
       <c r="C29" t="n">
-        <v>0.3271001527115822</v>
+        <v>-0.3271001527115822</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-0.9573739947674434</v>
+        <v>0.9573739947674434</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.07859037634517128</v>
+        <v>0.07859037634517128</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.03366855805788511</v>
+        <v>0.03366855805788511</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-0.3062819115820858</v>
+        <v>0.3062819115820858</v>
       </c>
       <c r="B31" t="n">
-        <v>0.8863941227776366</v>
+        <v>-0.8863941227776366</v>
       </c>
       <c r="C31" t="n">
-        <v>0.2385755523066092</v>
+        <v>-0.2385755523066092</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.32522405568474</v>
+        <v>-0.32522405568474</v>
       </c>
       <c r="B32" t="n">
-        <v>0.7863875030953752</v>
+        <v>-0.7863875030953752</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1944601803131988</v>
+        <v>-0.1944601803131988</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.5337012620903346</v>
+        <v>-0.5337012620903346</v>
       </c>
       <c r="B33" t="n">
-        <v>-3.52005362894627</v>
+        <v>3.52005362894627</v>
       </c>
       <c r="C33" t="n">
-        <v>0.8042011625908574</v>
+        <v>-0.8042011625908574</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-0.9096876241556664</v>
+        <v>0.9096876241556664</v>
       </c>
       <c r="B34" t="n">
-        <v>1.65338761711859</v>
+        <v>-1.65338761711859</v>
       </c>
       <c r="C34" t="n">
-        <v>0.9469256055685751</v>
+        <v>-0.9469256055685751</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-0.8241388182118641</v>
+        <v>0.8241388182118641</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.5184011801999162</v>
+        <v>0.5184011801999162</v>
       </c>
       <c r="C35" t="n">
-        <v>0.4594093988919764</v>
+        <v>-0.4594093988919764</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.690483026277675</v>
+        <v>-1.690483026277675</v>
       </c>
       <c r="B36" t="n">
-        <v>0.4330798705356188</v>
+        <v>-0.4330798705356188</v>
       </c>
       <c r="C36" t="n">
-        <v>1.921870013232539</v>
+        <v>-1.921870013232539</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-0.3843384014867079</v>
+        <v>0.3843384014867079</v>
       </c>
       <c r="B37" t="n">
-        <v>1.23618964464605</v>
+        <v>-1.23618964464605</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.7782918753424545</v>
+        <v>0.7782918753424545</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.837314922208571</v>
+        <v>-0.837314922208571</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.690457764773533</v>
+        <v>0.690457764773533</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.1737703468771779</v>
+        <v>0.1737703468771779</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>-1.315069432800067</v>
+        <v>1.315069432800067</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.937024763563819</v>
+        <v>0.937024763563819</v>
       </c>
       <c r="C39" t="n">
-        <v>0.6393954011389522</v>
+        <v>-0.6393954011389522</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.5539535771196941</v>
+        <v>-0.5539535771196941</v>
       </c>
       <c r="B40" t="n">
-        <v>0.1955404716414562</v>
+        <v>-0.1955404716414562</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.6852904367441137</v>
+        <v>0.6852904367441137</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.9384225241867921</v>
+        <v>-0.9384225241867921</v>
       </c>
       <c r="B41" t="n">
-        <v>1.083770128475629</v>
+        <v>-1.083770128475629</v>
       </c>
       <c r="C41" t="n">
-        <v>-0.3536166242763129</v>
+        <v>0.3536166242763129</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.1459513074759024</v>
+        <v>-0.1459513074759024</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.2740922671165578</v>
+        <v>0.2740922671165578</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.4272528155174843</v>
+        <v>0.4272528155174843</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.1955393657392914</v>
+        <v>-0.1955393657392914</v>
       </c>
       <c r="B43" t="n">
-        <v>0.7060871809058121</v>
+        <v>-0.7060871809058121</v>
       </c>
       <c r="C43" t="n">
-        <v>0.03269898457035858</v>
+        <v>-0.03269898457035858</v>
       </c>
     </row>
   </sheetData>
